--- a/wine.xlsx
+++ b/wine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0770185a1d4d9fb8/Documents/GitHub/great-books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1906" documentId="8_{B929FCB0-E0C7-431A-BBAD-50753464D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40D13306-D8AB-4D8D-9604-8E95D1EE41ED}"/>
+  <xr:revisionPtr revIDLastSave="1925" documentId="8_{B929FCB0-E0C7-431A-BBAD-50753464D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A9335A1-C759-4920-938D-99D02ED17256}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{2D3B9375-8A18-42DE-910F-CEC98F840DE9}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7588" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7746" uniqueCount="1087">
   <si>
     <t>Oregon</t>
   </si>
@@ -3245,6 +3245,102 @@
   </si>
   <si>
     <t>rbx8</t>
+  </si>
+  <si>
+    <t>.53 cabernet, .34 merlot, .13 malbec</t>
+  </si>
+  <si>
+    <t>Parador, Napa Valley “Reserva” Napa Valley, California 2007</t>
+  </si>
+  <si>
+    <t>.65 cabernet, .33 tempranillo</t>
+  </si>
+  <si>
+    <t>Parador, Napa Valley “Reserva” Napa Valley, California 2008</t>
+  </si>
+  <si>
+    <t>Parador, Napa Valley “Reserva” Napa Valley, California 2009</t>
+  </si>
+  <si>
+    <t>Weingut Christoffel-Berres, “Erdener Prälat” Riesling Spätlese*** Mosel, Germany 1995</t>
+  </si>
+  <si>
+    <t>Erden</t>
+  </si>
+  <si>
+    <t>Azienda Agricola Palari, Faro Sicily, Italy 2007</t>
+  </si>
+  <si>
+    <t>Azienda Agricola Palari, Faro Sicily, Italy 2008</t>
+  </si>
+  <si>
+    <t>Azienda Agricola Palari, Faro Sicily, Italy 2009</t>
+  </si>
+  <si>
+    <t>Château du Carrubier, “Cuvée d’Aurore” Rosé Côtes de Provence, France 2020</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>.9 Grenache, .1 Syrah</t>
+  </si>
+  <si>
+    <t>Château Sociando-Mallet, “Cuvée Jean Gautreau” Bordeaux, France 1996</t>
+  </si>
+  <si>
+    <t>2022-2036</t>
+  </si>
+  <si>
+    <t>Haut-Medoc</t>
+  </si>
+  <si>
+    <t>Cabernet, Merlot, Cab Franc</t>
+  </si>
+  <si>
+    <t>Keermont, “Terrasse” White Blend Stellenbosch, South Africa 2018</t>
+  </si>
+  <si>
+    <t>Western Cape</t>
+  </si>
+  <si>
+    <t>Chenin Blanc, Sauvignon Blanc, Viognier, Chardonnay</t>
+  </si>
+  <si>
+    <t>Château Sociando-Mallet, “Cuvée Jean Gautreau” Bordeaux, France 1995</t>
+  </si>
+  <si>
+    <t>2019 Porseleinberg Syrah</t>
+  </si>
+  <si>
+    <t>2016 Rhys Syrah Horseshoe</t>
+  </si>
+  <si>
+    <t>2014 Paul Lato Syrah Il Padrino</t>
+  </si>
+  <si>
+    <t>2019 Domaine Douhairet-Porcheret Pommard les Chanlins 1er Cru</t>
+  </si>
+  <si>
+    <t>2019 Domaine Douhairet-Porcheret Volnay Champans 1er Cru</t>
+  </si>
+  <si>
+    <t>2019 Domaine Douhairet-Porcheret Monthélie 1er Cru Meix Bataille</t>
+  </si>
+  <si>
+    <t>Monthelie</t>
+  </si>
+  <si>
+    <t>2019 Carlisle Zinfandel Piner-Olivet Ranches</t>
+  </si>
+  <si>
+    <t>2019 Carlisle Zinfandel Saitone Ranch</t>
+  </si>
+  <si>
+    <t>2019 Carlisle Zinfandel Rossi Ranch</t>
+  </si>
+  <si>
+    <t>2019 Carlisle Zinfandel Carlisle Vineyard</t>
   </si>
 </sst>
 </file>
@@ -29257,8 +29353,8 @@
   </sheetPr>
   <dimension ref="A1:T981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="H841" workbookViewId="0">
+      <selection activeCell="N864" sqref="N864:S866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
@@ -29371,7 +29467,7 @@
         <v>95</v>
       </c>
       <c r="I2" s="37">
-        <f>C2*H2</f>
+        <f t="shared" ref="I2:I14" si="0">C2*H2</f>
         <v>190</v>
       </c>
       <c r="J2" s="6">
@@ -29428,7 +29524,7 @@
         <v>75</v>
       </c>
       <c r="I3" s="37">
-        <f>C3*H3</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="J3" s="6">
@@ -29485,7 +29581,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="37">
-        <f>C4*H4</f>
+        <f t="shared" si="0"/>
         <v>171</v>
       </c>
       <c r="J4" s="6">
@@ -29542,7 +29638,7 @@
         <v>40</v>
       </c>
       <c r="I5" s="37">
-        <f>C5*H5</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="J5" s="6">
@@ -29599,7 +29695,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="37">
-        <f>C6*H6</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="J6" s="6">
@@ -29656,7 +29752,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="37">
-        <f>C7*H7</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="J7" s="6">
@@ -29713,7 +29809,7 @@
         <v>75</v>
       </c>
       <c r="I8" s="37">
-        <f>C8*H8</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="J8" s="6">
@@ -29768,7 +29864,7 @@
         <v>49</v>
       </c>
       <c r="I9" s="37">
-        <f>C9*H9</f>
+        <f t="shared" si="0"/>
         <v>147</v>
       </c>
       <c r="J9" s="6">
@@ -29827,7 +29923,7 @@
         <v>84</v>
       </c>
       <c r="I10" s="37">
-        <f>C10*H10</f>
+        <f t="shared" si="0"/>
         <v>252</v>
       </c>
       <c r="J10" s="6">
@@ -29884,7 +29980,7 @@
         <v>89</v>
       </c>
       <c r="I11" s="37">
-        <f>C11*H11</f>
+        <f t="shared" si="0"/>
         <v>267</v>
       </c>
       <c r="J11" s="6">
@@ -29941,7 +30037,7 @@
         <v>95</v>
       </c>
       <c r="I12" s="37">
-        <f>C12*H12</f>
+        <f t="shared" si="0"/>
         <v>285</v>
       </c>
       <c r="J12" s="6">
@@ -29998,7 +30094,7 @@
         <v>98</v>
       </c>
       <c r="I13" s="37">
-        <f>C13*H13</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="J13" s="6">
@@ -30055,7 +30151,7 @@
         <v>98</v>
       </c>
       <c r="I14" s="37">
-        <f>C14*H14</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="J14" s="6">
@@ -30112,7 +30208,7 @@
         <v>40</v>
       </c>
       <c r="I15" s="26">
-        <f>H15*C15</f>
+        <f t="shared" ref="I15:I47" si="1">H15*C15</f>
         <v>80</v>
       </c>
       <c r="J15" s="6">
@@ -30165,7 +30261,7 @@
         <v>45</v>
       </c>
       <c r="I16" s="26">
-        <f>H16*C16</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="J16" s="6">
@@ -30218,7 +30314,7 @@
         <v>120</v>
       </c>
       <c r="I17" s="26">
-        <f>H17*C17</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="J17" s="6">
@@ -30271,7 +30367,7 @@
         <v>37</v>
       </c>
       <c r="I18" s="26">
-        <f>H18*C18</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="J18" s="6">
@@ -30324,7 +30420,7 @@
         <v>125</v>
       </c>
       <c r="I19" s="26">
-        <f>H19*C19</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="J19" s="6">
@@ -30377,7 +30473,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="26">
-        <f>H20*C20</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J20" s="6">
@@ -30430,7 +30526,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="26">
-        <f>H21*C21</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J21" s="6">
@@ -30483,7 +30579,7 @@
         <v>30</v>
       </c>
       <c r="I22" s="26">
-        <f>H22*C22</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J22" s="6">
@@ -30536,7 +30632,7 @@
         <v>23</v>
       </c>
       <c r="I23" s="26">
-        <f>H23*C23</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="J23" s="6">
@@ -30589,7 +30685,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="26">
-        <f>H24*C24</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J24" s="6">
@@ -30642,7 +30738,7 @@
         <v>59</v>
       </c>
       <c r="I25" s="26">
-        <f>H25*C25</f>
+        <f t="shared" si="1"/>
         <v>236</v>
       </c>
       <c r="J25" s="6">
@@ -30695,7 +30791,7 @@
         <v>20</v>
       </c>
       <c r="I26" s="26">
-        <f>H26*C26</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="J26" s="6">
@@ -30748,7 +30844,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="26">
-        <f>H27*C27</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="J27" s="6">
@@ -30801,7 +30897,7 @@
         <v>38</v>
       </c>
       <c r="I28" s="26">
-        <f>H28*C28</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="J28" s="6">
@@ -30858,7 +30954,7 @@
         <v>21</v>
       </c>
       <c r="I29" s="26">
-        <f>H29*C29</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="J29" s="6">
@@ -30911,7 +31007,7 @@
         <v>40</v>
       </c>
       <c r="I30" s="26">
-        <f>H30*C30</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="J30" s="6">
@@ -30964,7 +31060,7 @@
         <v>19</v>
       </c>
       <c r="I31" s="26">
-        <f>H31*C31</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J31" s="6">
@@ -31017,7 +31113,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="26">
-        <f>H32*C32</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J32" s="6">
@@ -31070,7 +31166,7 @@
         <v>79</v>
       </c>
       <c r="I33" s="26">
-        <f>H33*C33</f>
+        <f t="shared" si="1"/>
         <v>158</v>
       </c>
       <c r="J33" s="6">
@@ -31127,7 +31223,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="26">
-        <f>H34*C34</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="J34" s="6">
@@ -31180,7 +31276,7 @@
         <v>19</v>
       </c>
       <c r="I35" s="26">
-        <f>H35*C35</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J35" s="6">
@@ -31233,7 +31329,7 @@
         <v>40</v>
       </c>
       <c r="I36" s="26">
-        <f>H36*C36</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="J36" s="6">
@@ -31286,7 +31382,7 @@
         <v>25</v>
       </c>
       <c r="I37" s="26">
-        <f>H37*C37</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J37" s="6">
@@ -31339,7 +31435,7 @@
         <v>20</v>
       </c>
       <c r="I38" s="26">
-        <f>H38*C38</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="J38" s="6">
@@ -31392,7 +31488,7 @@
         <v>15</v>
       </c>
       <c r="I39" s="26">
-        <f>H39*C39</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J39" s="6">
@@ -31445,7 +31541,7 @@
         <v>88</v>
       </c>
       <c r="I40" s="26">
-        <f>H40*C40</f>
+        <f t="shared" si="1"/>
         <v>352</v>
       </c>
       <c r="J40" s="6">
@@ -31498,7 +31594,7 @@
         <v>39</v>
       </c>
       <c r="I41" s="26">
-        <f>H41*C41</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="J41" s="6">
@@ -31551,7 +31647,7 @@
         <v>22</v>
       </c>
       <c r="I42" s="26">
-        <f>H42*C42</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="J42" s="6">
@@ -31604,7 +31700,7 @@
         <v>19</v>
       </c>
       <c r="I43" s="26">
-        <f>H43*C43</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J43" s="6">
@@ -31657,7 +31753,7 @@
         <v>22</v>
       </c>
       <c r="I44" s="26">
-        <f>H44*C44</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="J44" s="6">
@@ -31710,7 +31806,7 @@
         <v>20</v>
       </c>
       <c r="I45" s="26">
-        <f>H45*C45</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="J45" s="6">
@@ -31763,7 +31859,7 @@
         <v>45</v>
       </c>
       <c r="I46" s="26">
-        <f>H46*C46</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="J46" s="6">
@@ -31816,7 +31912,7 @@
         <v>19</v>
       </c>
       <c r="I47" s="26">
-        <f>H47*C47</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J47" s="6">
@@ -37216,7 +37312,7 @@
         <v>75</v>
       </c>
       <c r="I168" s="16">
-        <f>C168*H168</f>
+        <f t="shared" ref="I168:I191" si="2">C168*H168</f>
         <v>300</v>
       </c>
       <c r="J168" s="7">
@@ -37273,7 +37369,7 @@
         <v>75</v>
       </c>
       <c r="I169" s="16">
-        <f>C169*H169</f>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="J169" s="7">
@@ -37330,7 +37426,7 @@
         <v>77</v>
       </c>
       <c r="I170" s="16">
-        <f>C170*H170</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="J170" s="7">
@@ -37387,7 +37483,7 @@
         <v>40</v>
       </c>
       <c r="I171" s="16">
-        <f>C171*H171</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="J171" s="7">
@@ -37444,7 +37540,7 @@
         <v>42</v>
       </c>
       <c r="I172" s="16">
-        <f>C172*H172</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="J172" s="7">
@@ -37501,7 +37597,7 @@
         <v>75</v>
       </c>
       <c r="I173" s="16">
-        <f>C173*H173</f>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="J173" s="7">
@@ -37558,7 +37654,7 @@
         <v>50</v>
       </c>
       <c r="I174" s="16">
-        <f>C174*H174</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J174" s="7">
@@ -37615,7 +37711,7 @@
         <v>49</v>
       </c>
       <c r="I175" s="16">
-        <f>C175*H175</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="J175" s="7">
@@ -37672,7 +37768,7 @@
         <v>59</v>
       </c>
       <c r="I176" s="16">
-        <f>C176*H176</f>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="J176" s="7">
@@ -37729,7 +37825,7 @@
         <v>77</v>
       </c>
       <c r="I177" s="16">
-        <f>C177*H177</f>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="J177" s="7">
@@ -37786,7 +37882,7 @@
         <v>110</v>
       </c>
       <c r="I178" s="16">
-        <f>C178*H178</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="J178" s="7">
@@ -37843,7 +37939,7 @@
         <v>69</v>
       </c>
       <c r="I179" s="16">
-        <f>C179*H179</f>
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="J179" s="7">
@@ -37900,7 +37996,7 @@
         <v>50</v>
       </c>
       <c r="I180" s="16">
-        <f>C180*H180</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="J180" s="7">
@@ -37957,7 +38053,7 @@
         <v>65</v>
       </c>
       <c r="I181" s="16">
-        <f>C181*H181</f>
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
       <c r="J181" s="7">
@@ -38014,7 +38110,7 @@
         <v>70</v>
       </c>
       <c r="I182" s="16">
-        <f>C182*H182</f>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="J182" s="7">
@@ -38069,7 +38165,7 @@
         <v>45</v>
       </c>
       <c r="I183" s="16">
-        <f>C183*H183</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="J183" s="7">
@@ -38126,7 +38222,7 @@
         <v>57</v>
       </c>
       <c r="I184" s="16">
-        <f>C184*H184</f>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="J184" s="7">
@@ -38183,7 +38279,7 @@
         <v>80</v>
       </c>
       <c r="I185" s="16">
-        <f>C185*H185</f>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="J185" s="7">
@@ -38240,7 +38336,7 @@
         <v>69</v>
       </c>
       <c r="I186" s="16">
-        <f>C186*H186</f>
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="J186" s="7">
@@ -38297,7 +38393,7 @@
         <v>59</v>
       </c>
       <c r="I187" s="16">
-        <f>C187*H187</f>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="J187" s="7">
@@ -38354,7 +38450,7 @@
         <v>67</v>
       </c>
       <c r="I188" s="16">
-        <f>C188*H188</f>
+        <f t="shared" si="2"/>
         <v>201</v>
       </c>
       <c r="J188" s="7">
@@ -38411,7 +38507,7 @@
         <v>99</v>
       </c>
       <c r="I189" s="16">
-        <f>C189*H189</f>
+        <f t="shared" si="2"/>
         <v>297</v>
       </c>
       <c r="J189" s="7">
@@ -38468,7 +38564,7 @@
         <v>49</v>
       </c>
       <c r="I190" s="16">
-        <f>C190*H190</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="J190" s="7">
@@ -38525,7 +38621,7 @@
         <v>79</v>
       </c>
       <c r="I191" s="16">
-        <f>C191*H191</f>
+        <f t="shared" si="2"/>
         <v>237</v>
       </c>
       <c r="J191" s="7">
@@ -38582,7 +38678,7 @@
         <v>150</v>
       </c>
       <c r="I192" s="17">
-        <f>H192*C192</f>
+        <f t="shared" ref="I192:I222" si="3">H192*C192</f>
         <v>300</v>
       </c>
       <c r="J192" s="7">
@@ -38635,7 +38731,7 @@
         <v>38</v>
       </c>
       <c r="I193" s="17">
-        <f>H193*C193</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="J193" s="7">
@@ -38688,7 +38784,7 @@
         <v>100</v>
       </c>
       <c r="I194" s="2">
-        <f>H194*C194</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="J194" s="1">
@@ -38736,7 +38832,7 @@
         <v>20</v>
       </c>
       <c r="I195" s="2">
-        <f>H195*C195</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J195" s="1">
@@ -38784,7 +38880,7 @@
         <v>45</v>
       </c>
       <c r="I196" s="2">
-        <f>H196*C196</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="J196" s="1">
@@ -38832,7 +38928,7 @@
         <v>20</v>
       </c>
       <c r="I197" s="17">
-        <f>H197*C197</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J197" s="7">
@@ -38885,7 +38981,7 @@
         <v>49</v>
       </c>
       <c r="I198" s="17">
-        <f>H198*C198</f>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="J198" s="7">
@@ -38938,7 +39034,7 @@
         <v>19</v>
       </c>
       <c r="I199" s="2">
-        <f>H199*C199</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J199" s="1">
@@ -38986,7 +39082,7 @@
         <v>15</v>
       </c>
       <c r="I200" s="2">
-        <f>H200*C200</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J200" s="1">
@@ -39034,7 +39130,7 @@
         <v>45</v>
       </c>
       <c r="I201" s="17">
-        <f>H201*C201</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="J201" s="7">
@@ -39087,7 +39183,7 @@
         <v>28</v>
       </c>
       <c r="I202" s="2">
-        <f>H202*C202</f>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="J202" s="1">
@@ -39135,7 +39231,7 @@
         <v>19</v>
       </c>
       <c r="I203" s="2">
-        <f>H203*C203</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J203" s="1">
@@ -39183,7 +39279,7 @@
         <v>15</v>
       </c>
       <c r="I204" s="2">
-        <f>H204*C204</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J204" s="1">
@@ -39231,7 +39327,7 @@
         <v>25</v>
       </c>
       <c r="I205" s="17">
-        <f>H205*C205</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="J205" s="7">
@@ -39284,7 +39380,7 @@
         <v>15</v>
       </c>
       <c r="I206" s="2">
-        <f>H206*C206</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="J206" s="1">
@@ -39332,7 +39428,7 @@
         <v>19</v>
       </c>
       <c r="I207" s="2">
-        <f>H207*C207</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J207" s="1">
@@ -39380,7 +39476,7 @@
         <v>16</v>
       </c>
       <c r="I208" s="17">
-        <f>H208*C208</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="J208" s="7">
@@ -39433,7 +39529,7 @@
         <v>25</v>
       </c>
       <c r="I209" s="17">
-        <f>H209*C209</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="J209" s="7">
@@ -39486,7 +39582,7 @@
         <v>19</v>
       </c>
       <c r="I210" s="17">
-        <f>H210*C210</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J210" s="7">
@@ -39539,7 +39635,7 @@
         <v>21</v>
       </c>
       <c r="I211" s="2">
-        <f>H211*C211</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="J211" s="1">
@@ -39587,7 +39683,7 @@
         <v>15</v>
       </c>
       <c r="I212" s="2">
-        <f>H212*C212</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J212" s="1">
@@ -39635,7 +39731,7 @@
         <v>30</v>
       </c>
       <c r="I213" s="17">
-        <f>H213*C213</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="J213" s="7">
@@ -39688,7 +39784,7 @@
         <v>40</v>
       </c>
       <c r="I214" s="17">
-        <f>H214*C214</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J214" s="7">
@@ -39741,7 +39837,7 @@
         <v>23</v>
       </c>
       <c r="I215" s="2">
-        <f>H215*C215</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="J215" s="1">
@@ -39789,7 +39885,7 @@
         <v>30</v>
       </c>
       <c r="I216" s="2">
-        <f>H216*C216</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="J216" s="1">
@@ -39837,7 +39933,7 @@
         <v>19</v>
       </c>
       <c r="I217" s="2">
-        <f>H217*C217</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J217" s="1">
@@ -39885,7 +39981,7 @@
         <v>15</v>
       </c>
       <c r="I218" s="2">
-        <f>H218*C218</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J218" s="1">
@@ -39933,7 +40029,7 @@
         <v>55</v>
       </c>
       <c r="I219" s="17">
-        <f>H219*C219</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="J219" s="7">
@@ -39986,7 +40082,7 @@
         <v>38</v>
       </c>
       <c r="I220" s="17">
-        <f>H220*C220</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="J220" s="7">
@@ -40043,7 +40139,7 @@
         <v>38</v>
       </c>
       <c r="I221" s="2">
-        <f>H221*C221</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="J221" s="1">
@@ -40097,7 +40193,7 @@
         <v>23</v>
       </c>
       <c r="I222" s="2">
-        <f>H222*C222</f>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="J222" s="1">
@@ -44781,7 +44877,7 @@
         <v>69</v>
       </c>
       <c r="I328" s="16">
-        <f>C328*H328</f>
+        <f t="shared" ref="I328:I343" si="4">C328*H328</f>
         <v>207</v>
       </c>
       <c r="J328" s="7">
@@ -44838,7 +44934,7 @@
         <v>39</v>
       </c>
       <c r="I329" s="16">
-        <f>C329*H329</f>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="J329" s="7">
@@ -44895,7 +44991,7 @@
         <v>69</v>
       </c>
       <c r="I330" s="16">
-        <f>C330*H330</f>
+        <f t="shared" si="4"/>
         <v>207</v>
       </c>
       <c r="J330" s="7">
@@ -44952,7 +45048,7 @@
         <v>67</v>
       </c>
       <c r="I331" s="16">
-        <f>C331*H331</f>
+        <f t="shared" si="4"/>
         <v>201</v>
       </c>
       <c r="J331" s="7">
@@ -45009,7 +45105,7 @@
         <v>49</v>
       </c>
       <c r="I332" s="16">
-        <f>C332*H332</f>
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="J332" s="7">
@@ -45064,7 +45160,7 @@
         <v>90</v>
       </c>
       <c r="I333" s="16">
-        <f>C333*H333</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="J333" s="7">
@@ -45121,7 +45217,7 @@
         <v>58</v>
       </c>
       <c r="I334" s="16">
-        <f>C334*H334</f>
+        <f t="shared" si="4"/>
         <v>174</v>
       </c>
       <c r="J334" s="7">
@@ -45176,7 +45272,7 @@
         <v>65</v>
       </c>
       <c r="I335" s="16">
-        <f>C335*H335</f>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
       <c r="J335" s="7">
@@ -45233,7 +45329,7 @@
         <v>35</v>
       </c>
       <c r="I336" s="16">
-        <f>C336*H336</f>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="J336" s="7">
@@ -45290,7 +45386,7 @@
         <v>89</v>
       </c>
       <c r="I337" s="16">
-        <f>C337*H337</f>
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="J337" s="7">
@@ -45347,7 +45443,7 @@
         <v>22</v>
       </c>
       <c r="I338" s="16">
-        <f>C338*H338</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="J338" s="7">
@@ -45402,7 +45498,7 @@
         <v>110</v>
       </c>
       <c r="I339" s="16">
-        <f>C339*H339</f>
+        <f t="shared" si="4"/>
         <v>330</v>
       </c>
       <c r="J339" s="7">
@@ -45459,7 +45555,7 @@
         <v>110</v>
       </c>
       <c r="I340" s="16">
-        <f>C340*H340</f>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="J340" s="7">
@@ -45516,7 +45612,7 @@
         <v>69</v>
       </c>
       <c r="I341" s="16">
-        <f>C341*H341</f>
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="J341" s="7">
@@ -45571,7 +45667,7 @@
         <v>79</v>
       </c>
       <c r="I342" s="16">
-        <f>C342*H342</f>
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
       <c r="J342" s="7">
@@ -45628,7 +45724,7 @@
         <v>89</v>
       </c>
       <c r="I343" s="16">
-        <f>C343*H343</f>
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="J343" s="7">
@@ -45733,7 +45829,7 @@
         <v>21</v>
       </c>
       <c r="I345" s="17">
-        <f>H345*C345</f>
+        <f t="shared" ref="I345:I381" si="5">H345*C345</f>
         <v>42</v>
       </c>
       <c r="J345" s="7">
@@ -45786,7 +45882,7 @@
         <v>18</v>
       </c>
       <c r="I346" s="17">
-        <f>H346*C346</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="J346" s="7">
@@ -45839,7 +45935,7 @@
         <v>19</v>
       </c>
       <c r="I347" s="17">
-        <f>H347*C347</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J347" s="7">
@@ -45892,7 +45988,7 @@
         <v>15</v>
       </c>
       <c r="I348" s="17">
-        <f>H348*C348</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="J348" s="7">
@@ -45945,7 +46041,7 @@
         <v>19</v>
       </c>
       <c r="I349" s="17">
-        <f>H349*C349</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J349" s="7">
@@ -45998,7 +46094,7 @@
         <v>95</v>
       </c>
       <c r="I350" s="17">
-        <f>H350*C350</f>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="J350" s="7">
@@ -46051,7 +46147,7 @@
         <v>79</v>
       </c>
       <c r="I351" s="17">
-        <f>H351*C351</f>
+        <f t="shared" si="5"/>
         <v>158</v>
       </c>
       <c r="J351" s="7">
@@ -46108,7 +46204,7 @@
         <v>20</v>
       </c>
       <c r="I352" s="2">
-        <f>H352*C352</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="J352" s="1">
@@ -46156,7 +46252,7 @@
         <v>23</v>
       </c>
       <c r="I353" s="2">
-        <f>H353*C353</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="J353" s="1">
@@ -46204,7 +46300,7 @@
         <v>22</v>
       </c>
       <c r="I354" s="17">
-        <f>H354*C354</f>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="J354" s="7">
@@ -46257,7 +46353,7 @@
         <v>20</v>
       </c>
       <c r="I355" s="17">
-        <f>H355*C355</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="J355" s="7">
@@ -46310,7 +46406,7 @@
         <v>19</v>
       </c>
       <c r="I356" s="2">
-        <f>H356*C356</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J356" s="1">
@@ -46358,7 +46454,7 @@
         <v>19</v>
       </c>
       <c r="I357" s="2">
-        <f>H357*C357</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J357" s="1">
@@ -46406,7 +46502,7 @@
         <v>32</v>
       </c>
       <c r="I358" s="17">
-        <f>H358*C358</f>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="J358" s="7">
@@ -46459,7 +46555,7 @@
         <v>88</v>
       </c>
       <c r="I359" s="17">
-        <f>H359*C359</f>
+        <f t="shared" si="5"/>
         <v>352</v>
       </c>
       <c r="J359" s="7">
@@ -46512,7 +46608,7 @@
         <v>39</v>
       </c>
       <c r="I360" s="17">
-        <f>H360*C360</f>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="J360" s="7">
@@ -46565,7 +46661,7 @@
         <v>38</v>
       </c>
       <c r="I361" s="17">
-        <f>H361*C361</f>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="J361" s="7">
@@ -46618,7 +46714,7 @@
         <v>88</v>
       </c>
       <c r="I362" s="17">
-        <f>H362*C362</f>
+        <f t="shared" si="5"/>
         <v>352</v>
       </c>
       <c r="J362" s="7">
@@ -46671,7 +46767,7 @@
         <v>100</v>
       </c>
       <c r="I363" s="2">
-        <f>H363*C363</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="J363" s="1">
@@ -46719,7 +46815,7 @@
         <v>19</v>
       </c>
       <c r="I364" s="2">
-        <f>H364*C364</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J364" s="1">
@@ -46767,7 +46863,7 @@
         <v>59</v>
       </c>
       <c r="I365" s="2">
-        <f>H365*C365</f>
+        <f t="shared" si="5"/>
         <v>236</v>
       </c>
       <c r="J365" s="1">
@@ -46815,7 +46911,7 @@
         <v>21</v>
       </c>
       <c r="I366" s="2">
-        <f>H366*C366</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="J366" s="1">
@@ -46863,7 +46959,7 @@
         <v>15</v>
       </c>
       <c r="I367" s="2">
-        <f>H367*C367</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="J367" s="1">
@@ -46911,7 +47007,7 @@
         <v>49</v>
       </c>
       <c r="I368" s="2">
-        <f>H368*C368</f>
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
       <c r="J368" s="1">
@@ -46959,7 +47055,7 @@
         <v>15</v>
       </c>
       <c r="I369" s="2">
-        <f>H369*C369</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="J369" s="1">
@@ -47007,7 +47103,7 @@
         <v>19</v>
       </c>
       <c r="I370" s="17">
-        <f>H370*C370</f>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="J370" s="7">
@@ -47060,7 +47156,7 @@
         <v>22</v>
       </c>
       <c r="I371" s="2">
-        <f>H371*C371</f>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="J371" s="1">
@@ -47108,7 +47204,7 @@
         <v>19</v>
       </c>
       <c r="I372" s="2">
-        <f>H372*C372</f>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="J372" s="1">
@@ -47156,7 +47252,7 @@
         <v>65</v>
       </c>
       <c r="I373" s="17">
-        <f>H373*C373</f>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="J373" s="7">
@@ -47209,7 +47305,7 @@
         <v>45</v>
       </c>
       <c r="I374" s="17">
-        <f>H374*C374</f>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="J374" s="7">
@@ -47262,7 +47358,7 @@
         <v>40</v>
       </c>
       <c r="I375" s="17">
-        <f>H375*C375</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="J375" s="7">
@@ -47315,7 +47411,7 @@
         <v>25</v>
       </c>
       <c r="I376" s="17">
-        <f>H376*C376</f>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="J376" s="7">
@@ -47368,7 +47464,7 @@
         <v>23</v>
       </c>
       <c r="I377" s="2">
-        <f>H377*C377</f>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="J377" s="1">
@@ -47416,7 +47512,7 @@
         <v>19</v>
       </c>
       <c r="I378" s="2">
-        <f>H378*C378</f>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="J378" s="1">
@@ -47464,7 +47560,7 @@
         <v>16</v>
       </c>
       <c r="I379" s="17">
-        <f>H379*C379</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="J379" s="7">
@@ -47517,7 +47613,7 @@
         <v>20</v>
       </c>
       <c r="I380" s="17">
-        <f>H380*C380</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="J380" s="7">
@@ -47570,7 +47666,7 @@
         <v>18</v>
       </c>
       <c r="I381" s="2">
-        <f>H381*C381</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="J381" s="1">
@@ -51632,7 +51728,7 @@
         <v>49</v>
       </c>
       <c r="I470" s="16">
-        <f>C470*H470</f>
+        <f t="shared" ref="I470:I477" si="6">C470*H470</f>
         <v>98</v>
       </c>
       <c r="J470" s="7">
@@ -51687,7 +51783,7 @@
         <v>60</v>
       </c>
       <c r="I471" s="16">
-        <f>C471*H471</f>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="J471" s="7">
@@ -51744,7 +51840,7 @@
         <v>93</v>
       </c>
       <c r="I472" s="16">
-        <f>C472*H472</f>
+        <f t="shared" si="6"/>
         <v>279</v>
       </c>
       <c r="J472" s="7">
@@ -51801,7 +51897,7 @@
         <v>68</v>
       </c>
       <c r="I473" s="16">
-        <f>C473*H473</f>
+        <f t="shared" si="6"/>
         <v>272</v>
       </c>
       <c r="J473" s="7">
@@ -51856,7 +51952,7 @@
         <v>95</v>
       </c>
       <c r="I474" s="16">
-        <f>C474*H474</f>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="J474" s="7">
@@ -51913,7 +52009,7 @@
         <v>74</v>
       </c>
       <c r="I475" s="16">
-        <f>C475*H475</f>
+        <f t="shared" si="6"/>
         <v>222</v>
       </c>
       <c r="J475" s="7">
@@ -51970,7 +52066,7 @@
         <v>55</v>
       </c>
       <c r="I476" s="16">
-        <f>C476*H476</f>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="J476" s="7">
@@ -52027,7 +52123,7 @@
         <v>87</v>
       </c>
       <c r="I477" s="16">
-        <f>C477*H477</f>
+        <f t="shared" si="6"/>
         <v>348</v>
       </c>
       <c r="J477" s="7">
@@ -52084,7 +52180,7 @@
         <v>28</v>
       </c>
       <c r="I478" s="17">
-        <f>H478*C478</f>
+        <f t="shared" ref="I478:I498" si="7">H478*C478</f>
         <v>112</v>
       </c>
       <c r="J478" s="7">
@@ -52137,7 +52233,7 @@
         <v>19</v>
       </c>
       <c r="I479" s="17">
-        <f>H479*C479</f>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="J479" s="7">
@@ -52190,7 +52286,7 @@
         <v>19</v>
       </c>
       <c r="I480" s="2">
-        <f>H480*C480</f>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="J480" s="1">
@@ -52238,7 +52334,7 @@
         <v>150</v>
       </c>
       <c r="I481" s="17">
-        <f>H481*C481</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="J481" s="7">
@@ -52291,7 +52387,7 @@
         <v>95</v>
       </c>
       <c r="I482" s="17">
-        <f>H482*C482</f>
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
       <c r="J482" s="7">
@@ -52344,7 +52440,7 @@
         <v>38</v>
       </c>
       <c r="I483" s="17">
-        <f>H483*C483</f>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="J483" s="7">
@@ -52401,7 +52497,7 @@
         <v>100</v>
       </c>
       <c r="I484" s="2">
-        <f>H484*C484</f>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="J484" s="1">
@@ -52449,7 +52545,7 @@
         <v>23</v>
       </c>
       <c r="I485" s="2">
-        <f>H485*C485</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="J485" s="1">
@@ -52497,7 +52593,7 @@
         <v>88</v>
       </c>
       <c r="I486" s="17">
-        <f>H486*C486</f>
+        <f t="shared" si="7"/>
         <v>352</v>
       </c>
       <c r="J486" s="7">
@@ -52550,7 +52646,7 @@
         <v>45</v>
       </c>
       <c r="I487" s="2">
-        <f>H487*C487</f>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="J487" s="1">
@@ -52598,7 +52694,7 @@
         <v>23</v>
       </c>
       <c r="I488" s="2">
-        <f>H488*C488</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="J488" s="1">
@@ -52646,7 +52742,7 @@
         <v>15</v>
       </c>
       <c r="I489" s="17">
-        <f>H489*C489</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="J489" s="7">
@@ -52699,7 +52795,7 @@
         <v>16</v>
       </c>
       <c r="I490" s="17">
-        <f>H490*C490</f>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="J490" s="7">
@@ -52752,7 +52848,7 @@
         <v>20</v>
       </c>
       <c r="I491" s="2">
-        <f>H491*C491</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="J491" s="1">
@@ -52800,7 +52896,7 @@
         <v>18</v>
       </c>
       <c r="I492" s="2">
-        <f>H492*C492</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="J492" s="1">
@@ -52848,7 +52944,7 @@
         <v>19</v>
       </c>
       <c r="I493" s="2">
-        <f>H493*C493</f>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="J493" s="1">
@@ -52896,7 +52992,7 @@
         <v>55</v>
       </c>
       <c r="I494" s="17">
-        <f>H494*C494</f>
+        <f t="shared" si="7"/>
         <v>220</v>
       </c>
       <c r="J494" s="7">
@@ -52949,7 +53045,7 @@
         <v>45</v>
       </c>
       <c r="I495" s="17">
-        <f>H495*C495</f>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="J495" s="7">
@@ -53002,7 +53098,7 @@
         <v>60</v>
       </c>
       <c r="I496" s="17">
-        <f>H496*C496</f>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="J496" s="7">
@@ -53055,7 +53151,7 @@
         <v>45</v>
       </c>
       <c r="I497" s="17">
-        <f>H497*C497</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="J497" s="7">
@@ -53110,7 +53206,7 @@
         <v>15</v>
       </c>
       <c r="I498" s="17">
-        <f>H498*C498</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="J498" s="7">
@@ -55977,7 +56073,7 @@
         <v>40</v>
       </c>
       <c r="I561" s="17">
-        <f>H561*C561</f>
+        <f t="shared" ref="I561:I574" si="8">H561*C561</f>
         <v>160</v>
       </c>
       <c r="J561" s="7">
@@ -56030,7 +56126,7 @@
         <v>49</v>
       </c>
       <c r="I562" s="17">
-        <f>H562*C562</f>
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
       <c r="J562" s="7">
@@ -56083,7 +56179,7 @@
         <v>22</v>
       </c>
       <c r="I563" s="2">
-        <f>H563*C563</f>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="J563" s="1">
@@ -56131,7 +56227,7 @@
         <v>22</v>
       </c>
       <c r="I564" s="17">
-        <f>H564*C564</f>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="J564" s="7">
@@ -56184,7 +56280,7 @@
         <v>37</v>
       </c>
       <c r="I565" s="17">
-        <f>H565*C565</f>
+        <f t="shared" si="8"/>
         <v>148</v>
       </c>
       <c r="J565" s="7">
@@ -56237,7 +56333,7 @@
         <v>21</v>
       </c>
       <c r="I566" s="2">
-        <f>H566*C566</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="J566" s="1">
@@ -56285,7 +56381,7 @@
         <v>23</v>
       </c>
       <c r="I567" s="2">
-        <f>H567*C567</f>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="J567" s="1">
@@ -56333,7 +56429,7 @@
         <v>79</v>
       </c>
       <c r="I568" s="17">
-        <f>H568*C568</f>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="J568" s="7">
@@ -56390,7 +56486,7 @@
         <v>100</v>
       </c>
       <c r="I569" s="2">
-        <f>H569*C569</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="J569" s="1">
@@ -56438,7 +56534,7 @@
         <v>28</v>
       </c>
       <c r="I570" s="2">
-        <f>H570*C570</f>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="J570" s="1">
@@ -56486,7 +56582,7 @@
         <v>59</v>
       </c>
       <c r="I571" s="2">
-        <f>H571*C571</f>
+        <f t="shared" si="8"/>
         <v>236</v>
       </c>
       <c r="J571" s="1">
@@ -56534,7 +56630,7 @@
         <v>32</v>
       </c>
       <c r="I572" s="17">
-        <f>H572*C572</f>
+        <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="J572" s="7">
@@ -56587,7 +56683,7 @@
         <v>39</v>
       </c>
       <c r="I573" s="17">
-        <f>H573*C573</f>
+        <f t="shared" si="8"/>
         <v>156</v>
       </c>
       <c r="J573" s="7">
@@ -56640,7 +56736,7 @@
         <v>49</v>
       </c>
       <c r="I574" s="17">
-        <f>H574*C574</f>
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
       <c r="J574" s="7">
@@ -59118,7 +59214,7 @@
         <v>88</v>
       </c>
       <c r="I628" s="17">
-        <f>H628*C628</f>
+        <f t="shared" ref="I628:I642" si="9">H628*C628</f>
         <v>352</v>
       </c>
       <c r="J628" s="7">
@@ -59171,7 +59267,7 @@
         <v>95</v>
       </c>
       <c r="I629" s="17">
-        <f>H629*C629</f>
+        <f t="shared" si="9"/>
         <v>380</v>
       </c>
       <c r="J629" s="7">
@@ -59224,7 +59320,7 @@
         <v>100</v>
       </c>
       <c r="I630" s="2">
-        <f>H630*C630</f>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="J630" s="1">
@@ -59272,7 +59368,7 @@
         <v>45</v>
       </c>
       <c r="I631" s="2">
-        <f>H631*C631</f>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="J631" s="1">
@@ -59320,7 +59416,7 @@
         <v>45</v>
       </c>
       <c r="I632" s="17">
-        <f>H632*C632</f>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="J632" s="7">
@@ -59375,7 +59471,7 @@
         <v>150</v>
       </c>
       <c r="I633" s="17">
-        <f>H633*C633</f>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="J633" s="7">
@@ -59428,7 +59524,7 @@
         <v>38</v>
       </c>
       <c r="I634" s="17">
-        <f>H634*C634</f>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="J634" s="7">
@@ -59485,7 +59581,7 @@
         <v>23</v>
       </c>
       <c r="I635" s="2">
-        <f>H635*C635</f>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
       <c r="J635" s="1">
@@ -59533,7 +59629,7 @@
         <v>55</v>
       </c>
       <c r="I636" s="17">
-        <f>H636*C636</f>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="J636" s="7">
@@ -59586,7 +59682,7 @@
         <v>150</v>
       </c>
       <c r="I637" s="17">
-        <f>H637*C637</f>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="J637" s="7">
@@ -59639,7 +59735,7 @@
         <v>39</v>
       </c>
       <c r="I638" s="17">
-        <f>H638*C638</f>
+        <f t="shared" si="9"/>
         <v>156</v>
       </c>
       <c r="J638" s="7">
@@ -59692,7 +59788,7 @@
         <v>23</v>
       </c>
       <c r="I639" s="2">
-        <f>H639*C639</f>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="J639" s="1">
@@ -59740,7 +59836,7 @@
         <v>65</v>
       </c>
       <c r="I640" s="17">
-        <f>H640*C640</f>
+        <f t="shared" si="9"/>
         <v>260</v>
       </c>
       <c r="J640" s="7">
@@ -59793,7 +59889,7 @@
         <v>60</v>
       </c>
       <c r="I641" s="17">
-        <f>H641*C641</f>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="J641" s="7">
@@ -59846,7 +59942,7 @@
         <v>28</v>
       </c>
       <c r="I642" s="17">
-        <f>H642*C642</f>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="J642" s="7">
@@ -61240,7 +61336,7 @@
         <v>20</v>
       </c>
       <c r="I673" s="17">
-        <f>H673*C673</f>
+        <f t="shared" ref="I673:I679" si="10">H673*C673</f>
         <v>80</v>
       </c>
       <c r="J673" s="7">
@@ -61293,7 +61389,7 @@
         <v>79</v>
       </c>
       <c r="I674" s="17">
-        <f>H674*C674</f>
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
       <c r="J674" s="7">
@@ -61350,7 +61446,7 @@
         <v>49</v>
       </c>
       <c r="I675" s="2">
-        <f>H675*C675</f>
+        <f t="shared" si="10"/>
         <v>196</v>
       </c>
       <c r="J675" s="1">
@@ -61398,7 +61494,7 @@
         <v>23</v>
       </c>
       <c r="I676" s="2">
-        <f>H676*C676</f>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="J676" s="1">
@@ -61446,7 +61542,7 @@
         <v>37</v>
       </c>
       <c r="I677" s="17">
-        <f>H677*C677</f>
+        <f t="shared" si="10"/>
         <v>148</v>
       </c>
       <c r="J677" s="7">
@@ -61499,7 +61595,7 @@
         <v>49</v>
       </c>
       <c r="I678" s="17">
-        <f>H678*C678</f>
+        <f t="shared" si="10"/>
         <v>196</v>
       </c>
       <c r="J678" s="7">
@@ -61552,7 +61648,7 @@
         <v>20</v>
       </c>
       <c r="I679" s="2">
-        <f>H679*C679</f>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="J679" s="1">
@@ -62767,7 +62863,7 @@
         <v>45</v>
       </c>
       <c r="I705" s="17">
-        <f>H705*C705</f>
+        <f t="shared" ref="I705:I715" si="11">H705*C705</f>
         <v>180</v>
       </c>
       <c r="J705" s="7">
@@ -62822,7 +62918,7 @@
         <v>37</v>
       </c>
       <c r="I706" s="17">
-        <f>H706*C706</f>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="J706" s="7">
@@ -62875,7 +62971,7 @@
         <v>65</v>
       </c>
       <c r="I707" s="17">
-        <f>H707*C707</f>
+        <f t="shared" si="11"/>
         <v>260</v>
       </c>
       <c r="J707" s="7">
@@ -62928,7 +63024,7 @@
         <v>60</v>
       </c>
       <c r="I708" s="17">
-        <f>H708*C708</f>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="J708" s="7">
@@ -62981,7 +63077,7 @@
         <v>95</v>
       </c>
       <c r="I709" s="17">
-        <f>H709*C709</f>
+        <f t="shared" si="11"/>
         <v>380</v>
       </c>
       <c r="J709" s="7">
@@ -63034,7 +63130,7 @@
         <v>28</v>
       </c>
       <c r="I710" s="2">
-        <f>H710*C710</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="J710" s="1">
@@ -63082,7 +63178,7 @@
         <v>45</v>
       </c>
       <c r="I711" s="2">
-        <f>H711*C711</f>
+        <f t="shared" si="11"/>
         <v>180</v>
       </c>
       <c r="J711" s="1">
@@ -63130,7 +63226,7 @@
         <v>88</v>
       </c>
       <c r="I712" s="17">
-        <f>H712*C712</f>
+        <f t="shared" si="11"/>
         <v>176</v>
       </c>
       <c r="J712" s="7">
@@ -63183,7 +63279,7 @@
         <v>79</v>
       </c>
       <c r="I713" s="17">
-        <f>H713*C713</f>
+        <f t="shared" si="11"/>
         <v>316</v>
       </c>
       <c r="J713" s="7">
@@ -63240,7 +63336,7 @@
         <v>100</v>
       </c>
       <c r="I714" s="2">
-        <f>H714*C714</f>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="J714" s="1">
@@ -63288,7 +63384,7 @@
         <v>20</v>
       </c>
       <c r="I715" s="2">
-        <f>H715*C715</f>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="J715" s="1">
@@ -68974,42 +69070,736 @@
         <v>17</v>
       </c>
     </row>
-    <row r="845" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="846" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="847" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="848" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="849" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="850" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="851" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="852" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="853" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="854" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="855" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="856" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="857" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="858" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="859" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="860" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="861" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="862" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="863" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="864" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="865" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="866" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="867" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="868" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="869" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="870" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="871" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="872" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="873" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="874" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="875" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="876" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="877" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="878" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="879" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="880" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="845" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A845" s="1">
+        <v>1</v>
+      </c>
+      <c r="C845" s="1">
+        <v>12</v>
+      </c>
+      <c r="F845" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="G845" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H845" s="1">
+        <v>28</v>
+      </c>
+      <c r="K845" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="N845" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O845" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P845" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q845" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S845" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="846" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A846" s="1">
+        <v>1</v>
+      </c>
+      <c r="C846" s="1">
+        <v>4</v>
+      </c>
+      <c r="F846" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G846" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H846" s="1">
+        <v>75</v>
+      </c>
+      <c r="K846" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="N846" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O846" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P846" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q846" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="S846" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="847" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A847" s="1">
+        <v>1</v>
+      </c>
+      <c r="C847" s="1">
+        <v>4</v>
+      </c>
+      <c r="F847" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G847" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H847" s="1">
+        <v>75</v>
+      </c>
+      <c r="K847" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="N847" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O847" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P847" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q847" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="S847" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="848" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A848" s="1">
+        <v>1</v>
+      </c>
+      <c r="C848" s="1">
+        <v>4</v>
+      </c>
+      <c r="F848" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G848" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H848" s="1">
+        <v>75</v>
+      </c>
+      <c r="K848" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="N848" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O848" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P848" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q848" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="S848" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="849" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A849" s="1">
+        <v>1</v>
+      </c>
+      <c r="C849" s="1">
+        <v>6</v>
+      </c>
+      <c r="F849" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G849" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H849" s="1">
+        <v>50</v>
+      </c>
+      <c r="K849" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="N849" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O849" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P849" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q849" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S849" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="850" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A850" s="1">
+        <v>1</v>
+      </c>
+      <c r="C850" s="1">
+        <v>2</v>
+      </c>
+      <c r="F850" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G850" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H850" s="1">
+        <v>100</v>
+      </c>
+      <c r="K850" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="N850" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O850" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q850" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S850" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="851" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A851" s="1">
+        <v>1</v>
+      </c>
+      <c r="C851" s="1">
+        <v>2</v>
+      </c>
+      <c r="F851" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G851" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H851" s="1">
+        <v>100</v>
+      </c>
+      <c r="K851" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="N851" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O851" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q851" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S851" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="852" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A852" s="1">
+        <v>1</v>
+      </c>
+      <c r="C852" s="1">
+        <v>2</v>
+      </c>
+      <c r="F852" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G852" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H852" s="1">
+        <v>100</v>
+      </c>
+      <c r="K852" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="N852" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O852" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q852" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S852" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="853" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A853" s="1">
+        <v>1</v>
+      </c>
+      <c r="C853" s="1">
+        <v>2</v>
+      </c>
+      <c r="F853" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G853" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H853" s="1">
+        <v>25</v>
+      </c>
+      <c r="K853" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="N853" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O853" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q853" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="S853" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="854" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A854" s="1">
+        <v>1</v>
+      </c>
+      <c r="C854" s="1">
+        <v>4</v>
+      </c>
+      <c r="F854" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G854" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H854" s="1">
+        <v>160</v>
+      </c>
+      <c r="K854" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="N854" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O854" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P854" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Q854" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S854" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="855" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A855" s="1">
+        <v>1</v>
+      </c>
+      <c r="C855" s="1">
+        <v>2</v>
+      </c>
+      <c r="F855" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G855" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H855" s="1">
+        <v>26</v>
+      </c>
+      <c r="K855" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="N855" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="O855" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="P855" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q855" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S855" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="856" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A856" s="1">
+        <v>1</v>
+      </c>
+      <c r="C856" s="1">
+        <v>4</v>
+      </c>
+      <c r="F856" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G856" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H856" s="1">
+        <v>150</v>
+      </c>
+      <c r="K856" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="N856" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O856" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P856" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Q856" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S856" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="857" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A857" s="1">
+        <v>1</v>
+      </c>
+      <c r="C857" s="1">
+        <v>12</v>
+      </c>
+      <c r="F857" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G857" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H857" s="1">
+        <v>85</v>
+      </c>
+      <c r="N857" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q857" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S857" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="858" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A858" s="1">
+        <v>1</v>
+      </c>
+      <c r="C858" s="1">
+        <v>6</v>
+      </c>
+      <c r="F858" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G858" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H858" s="1">
+        <v>110</v>
+      </c>
+      <c r="N858" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O858" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q858" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S858" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="859" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A859" s="1">
+        <v>1</v>
+      </c>
+      <c r="C859" s="1">
+        <v>6</v>
+      </c>
+      <c r="F859" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G859" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H859" s="1">
+        <v>85</v>
+      </c>
+      <c r="N859" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O859" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q859" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S859" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="860" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A860" s="1">
+        <v>1</v>
+      </c>
+      <c r="C860" s="1">
+        <v>4</v>
+      </c>
+      <c r="F860" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G860" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H860" s="1">
+        <v>60</v>
+      </c>
+      <c r="N860" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O860" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P860" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="Q860" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S860" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="861" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A861" s="1">
+        <v>1</v>
+      </c>
+      <c r="C861" s="1">
+        <v>4</v>
+      </c>
+      <c r="F861" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G861" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H861" s="1">
+        <v>90</v>
+      </c>
+      <c r="N861" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O861" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P861" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q861" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S861" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="862" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A862" s="1">
+        <v>1</v>
+      </c>
+      <c r="C862" s="1">
+        <v>4</v>
+      </c>
+      <c r="F862" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G862" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H862" s="1">
+        <v>95</v>
+      </c>
+      <c r="N862" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O862" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P862" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q862" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S862" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="863" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A863" s="1">
+        <v>1</v>
+      </c>
+      <c r="C863" s="1">
+        <v>3</v>
+      </c>
+      <c r="F863" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G863" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H863" s="1">
+        <v>37</v>
+      </c>
+      <c r="N863" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O863" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P863" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q863" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S863" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="864" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A864" s="1">
+        <v>1</v>
+      </c>
+      <c r="C864" s="1">
+        <v>3</v>
+      </c>
+      <c r="F864" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G864" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H864" s="1">
+        <v>50</v>
+      </c>
+      <c r="N864" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O864" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P864" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q864" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S864" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="865" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A865" s="1">
+        <v>1</v>
+      </c>
+      <c r="C865" s="1">
+        <v>3</v>
+      </c>
+      <c r="F865" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G865" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H865" s="1">
+        <v>50</v>
+      </c>
+      <c r="N865" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O865" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P865" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q865" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S865" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="866" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A866" s="1">
+        <v>1</v>
+      </c>
+      <c r="C866" s="1">
+        <v>3</v>
+      </c>
+      <c r="F866" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G866" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H866" s="1">
+        <v>55</v>
+      </c>
+      <c r="N866" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O866" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P866" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q866" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S866" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="867" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="868" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="869" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="870" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="871" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="872" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="873" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="874" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="875" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="876" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="877" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="878" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="879" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="880" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="881" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="882" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="883" outlineLevel="1" x14ac:dyDescent="0.45"/>

--- a/wine.xlsx
+++ b/wine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0770185a1d4d9fb8/Documents/GitHub/great-books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1940" documentId="8_{B929FCB0-E0C7-431A-BBAD-50753464D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29D56114-B870-4981-9846-2C98C24B3D3B}"/>
+  <xr:revisionPtr revIDLastSave="1941" documentId="8_{B929FCB0-E0C7-431A-BBAD-50753464D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A77E3BB-0E8E-4C6C-BE9B-48130FDA4A45}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{2D3B9375-8A18-42DE-910F-CEC98F840DE9}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7778" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7793" uniqueCount="1090">
   <si>
     <t>Oregon</t>
   </si>
@@ -3341,6 +3341,15 @@
   </si>
   <si>
     <t>2019 Carlisle Zinfandel Carlisle Vineyard</t>
+  </si>
+  <si>
+    <t>Domaine Philippe Gavignet, Bourgogne Pinot Noir Burgundy, France 2019</t>
+  </si>
+  <si>
+    <t>Cote de Nuits</t>
+  </si>
+  <si>
+    <t>Campo Viejo, “Viña Alcorta” Rioja Reserva Rioja, Spain 1994</t>
   </si>
 </sst>
 </file>
@@ -29353,8 +29362,8 @@
   </sheetPr>
   <dimension ref="A1:T975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A840" workbookViewId="0">
+      <selection activeCell="C863" sqref="C863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
@@ -68181,86 +68190,77 @@
     </row>
     <row r="820" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A820" s="1">
-        <v>1</v>
-      </c>
-      <c r="C820" s="7">
+        <v>2</v>
+      </c>
+      <c r="C820" s="1">
         <v>12</v>
       </c>
-      <c r="D820" s="7"/>
-      <c r="E820" s="7"/>
-      <c r="F820" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G820" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="H820" s="7">
-        <v>70</v>
-      </c>
-      <c r="I820" s="17"/>
-      <c r="J820" s="7"/>
-      <c r="L820" s="7"/>
-      <c r="M820" s="7"/>
-      <c r="N820" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O820" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P820" s="7"/>
-      <c r="Q820" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="R820" s="7"/>
-      <c r="S820" s="7" t="s">
+      <c r="F820" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G820" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H820" s="1">
+        <v>39</v>
+      </c>
+      <c r="K820" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="N820" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O820" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P820" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Q820" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S820" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T820" s="7"/>
     </row>
     <row r="821" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A821" s="1">
-        <v>1</v>
-      </c>
-      <c r="C821" s="7">
+        <v>2</v>
+      </c>
+      <c r="C821" s="1">
         <v>6</v>
       </c>
-      <c r="D821" s="7"/>
-      <c r="E821" s="7"/>
-      <c r="F821" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G821" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="H821" s="7">
-        <v>109</v>
-      </c>
-      <c r="I821" s="17"/>
-      <c r="J821" s="7"/>
-      <c r="L821" s="7"/>
-      <c r="M821" s="7"/>
-      <c r="N821" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O821" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P821" s="7"/>
-      <c r="Q821" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="R821" s="7"/>
-      <c r="S821" s="7" t="s">
+      <c r="F821" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G821" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H821" s="1">
+        <v>49</v>
+      </c>
+      <c r="K821" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="N821" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O821" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q821" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="S821" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T821" s="7"/>
     </row>
     <row r="822" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A822" s="1">
         <v>1</v>
       </c>
       <c r="C822" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D822" s="7"/>
       <c r="E822" s="7"/>
@@ -68268,24 +68268,24 @@
         <v>603</v>
       </c>
       <c r="G822" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H822" s="7">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I822" s="17"/>
       <c r="J822" s="7"/>
       <c r="L822" s="7"/>
       <c r="M822" s="7"/>
       <c r="N822" s="7" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="O822" s="7" t="s">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="P822" s="7"/>
       <c r="Q822" s="7" t="s">
-        <v>602</v>
+        <v>75</v>
       </c>
       <c r="R822" s="7"/>
       <c r="S822" s="7" t="s">
@@ -68306,10 +68306,10 @@
         <v>603</v>
       </c>
       <c r="G823" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H823" s="7">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="I823" s="17"/>
       <c r="J823" s="7"/>
@@ -68344,10 +68344,10 @@
         <v>603</v>
       </c>
       <c r="G824" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H824" s="7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I824" s="17"/>
       <c r="J824" s="7"/>
@@ -68369,32 +68369,39 @@
       </c>
       <c r="T824" s="7"/>
     </row>
-    <row r="825" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A825" s="1">
         <v>1</v>
       </c>
       <c r="C825" s="7">
         <v>6</v>
       </c>
+      <c r="D825" s="7"/>
+      <c r="E825" s="7"/>
       <c r="F825" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="G825" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="H825" s="1">
-        <v>80</v>
+      <c r="G825" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="H825" s="7">
+        <v>95</v>
       </c>
       <c r="I825" s="17"/>
-      <c r="N825" s="1" t="s">
+      <c r="J825" s="7"/>
+      <c r="L825" s="7"/>
+      <c r="M825" s="7"/>
+      <c r="N825" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="O825" s="1" t="s">
+      <c r="O825" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="Q825" s="1" t="s">
+      <c r="P825" s="7"/>
+      <c r="Q825" s="7" t="s">
         <v>602</v>
       </c>
+      <c r="R825" s="7"/>
       <c r="S825" s="7" t="s">
         <v>17</v>
       </c>
@@ -68404,108 +68411,107 @@
       <c r="A826" s="1">
         <v>1</v>
       </c>
-      <c r="C826" s="1">
-        <v>12</v>
-      </c>
-      <c r="F826" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G826" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="H826" s="1">
-        <v>105</v>
-      </c>
-      <c r="K826" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="N826" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O826" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P826" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="Q826" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S826" s="1" t="s">
+      <c r="C826" s="7">
+        <v>6</v>
+      </c>
+      <c r="D826" s="7"/>
+      <c r="E826" s="7"/>
+      <c r="F826" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G826" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H826" s="7">
+        <v>130</v>
+      </c>
+      <c r="I826" s="17"/>
+      <c r="J826" s="7"/>
+      <c r="L826" s="7"/>
+      <c r="M826" s="7"/>
+      <c r="N826" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O826" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P826" s="7"/>
+      <c r="Q826" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="R826" s="7"/>
+      <c r="S826" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T826" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="827" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="T826" s="7"/>
+    </row>
+    <row r="827" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A827" s="1">
         <v>1</v>
       </c>
-      <c r="C827" s="1">
-        <v>4</v>
-      </c>
-      <c r="F827" s="1" t="s">
-        <v>720</v>
+      <c r="C827" s="7">
+        <v>6</v>
+      </c>
+      <c r="F827" s="7" t="s">
+        <v>603</v>
       </c>
       <c r="G827" s="1" t="s">
-        <v>722</v>
+        <v>597</v>
       </c>
       <c r="H827" s="1">
-        <v>53</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I827" s="17"/>
       <c r="N827" s="1" t="s">
         <v>115</v>
       </c>
       <c r="O827" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P827" s="1" t="s">
-        <v>630</v>
+        <v>239</v>
       </c>
       <c r="Q827" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S827" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="T827" s="1" t="s">
-        <v>725</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="S827" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T827" s="7"/>
     </row>
     <row r="828" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A828" s="1">
         <v>1</v>
       </c>
       <c r="C828" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F828" s="1" t="s">
-        <v>720</v>
+        <v>475</v>
       </c>
       <c r="G828" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="H828" s="1">
-        <v>53</v>
+        <v>105</v>
+      </c>
+      <c r="K828" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="N828" s="1" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="O828" s="1" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="P828" s="1" t="s">
-        <v>630</v>
+        <v>727</v>
       </c>
       <c r="Q828" s="1" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="S828" s="1" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="T828" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="829" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
@@ -68519,7 +68525,7 @@
         <v>720</v>
       </c>
       <c r="G829" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H829" s="1">
         <v>53</v>
@@ -68548,223 +68554,229 @@
         <v>1</v>
       </c>
       <c r="C830" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F830" s="1" t="s">
-        <v>475</v>
+        <v>720</v>
       </c>
       <c r="G830" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="H830" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="831" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="N830" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O830" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P830" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q830" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S830" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T830" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="831" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A831" s="1">
         <v>1</v>
       </c>
       <c r="C831" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F831" s="1" t="s">
         <v>720</v>
       </c>
       <c r="G831" s="1" t="s">
-        <v>945</v>
+        <v>724</v>
       </c>
       <c r="H831" s="1">
-        <v>140</v>
-      </c>
-      <c r="K831" s="1" t="s">
-        <v>946</v>
+        <v>53</v>
       </c>
       <c r="N831" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O831" s="1" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="P831" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q831" s="47" t="s">
-        <v>947</v>
+        <v>630</v>
+      </c>
+      <c r="Q831" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="S831" s="1" t="s">
-        <v>17</v>
+        <v>147</v>
+      </c>
+      <c r="T831" s="1" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="832" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A832" s="1">
         <v>1</v>
       </c>
-      <c r="C832" s="7">
+      <c r="C832" s="1">
         <v>12</v>
       </c>
-      <c r="D832" s="7"/>
-      <c r="E832" s="7"/>
-      <c r="F832" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="G832" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="H832" s="7">
-        <v>30</v>
-      </c>
-      <c r="I832" s="7"/>
-      <c r="J832" s="7"/>
-      <c r="K832" s="7"/>
-      <c r="L832" s="7"/>
-      <c r="M832" s="7"/>
-      <c r="N832" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O832" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P832" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="Q832" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="R832" s="7"/>
-      <c r="S832" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T832" s="7"/>
-    </row>
-    <row r="833" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="F832" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G832" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="H832" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="833" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A833" s="1">
         <v>1</v>
       </c>
       <c r="C833" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F833" s="1" t="s">
-        <v>781</v>
+        <v>720</v>
       </c>
       <c r="G833" s="1" t="s">
-        <v>979</v>
+        <v>945</v>
       </c>
       <c r="H833" s="1">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="K833" s="1" t="s">
-        <v>453</v>
+        <v>946</v>
       </c>
       <c r="N833" s="1" t="s">
-        <v>981</v>
+        <v>14</v>
       </c>
       <c r="O833" s="1" t="s">
-        <v>371</v>
+        <v>39</v>
+      </c>
+      <c r="P833" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="Q833" s="47" t="s">
-        <v>980</v>
+        <v>947</v>
       </c>
       <c r="S833" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="834" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A834" s="1">
         <v>1</v>
       </c>
-      <c r="C834" s="1">
-        <v>3</v>
-      </c>
-      <c r="F834" s="1" t="s">
+      <c r="C834" s="7">
+        <v>12</v>
+      </c>
+      <c r="D834" s="7"/>
+      <c r="E834" s="7"/>
+      <c r="F834" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="G834" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="H834" s="1">
-        <v>215</v>
-      </c>
-      <c r="N834" s="1" t="s">
+      <c r="G834" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="H834" s="7">
+        <v>30</v>
+      </c>
+      <c r="I834" s="7"/>
+      <c r="J834" s="7"/>
+      <c r="K834" s="7"/>
+      <c r="L834" s="7"/>
+      <c r="M834" s="7"/>
+      <c r="N834" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O834" s="1" t="s">
+      <c r="O834" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P834" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q834" s="1" t="s">
+      <c r="P834" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="Q834" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="S834" s="1" t="s">
+      <c r="R834" s="7"/>
+      <c r="S834" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="835" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="T834" s="7"/>
+    </row>
+    <row r="835" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A835" s="1">
         <v>1</v>
       </c>
       <c r="C835" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F835" s="1" t="s">
-        <v>720</v>
+        <v>781</v>
       </c>
       <c r="G835" s="1" t="s">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="H835" s="1">
-        <v>160</v>
+        <v>45</v>
+      </c>
+      <c r="K835" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="N835" s="1" t="s">
-        <v>14</v>
+        <v>981</v>
       </c>
       <c r="O835" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P835" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q835" s="1" t="s">
-        <v>339</v>
+        <v>371</v>
+      </c>
+      <c r="Q835" s="47" t="s">
+        <v>980</v>
       </c>
       <c r="S835" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="836" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A836" s="1">
         <v>1</v>
       </c>
       <c r="C836" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F836" s="1" t="s">
-        <v>475</v>
+        <v>720</v>
       </c>
       <c r="G836" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H836" s="1">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="N836" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O836" s="1" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="P836" s="1" t="s">
-        <v>999</v>
+        <v>771</v>
       </c>
       <c r="Q836" s="1" t="s">
-        <v>998</v>
+        <v>339</v>
       </c>
       <c r="S836" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="837" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A837" s="1">
         <v>1</v>
       </c>
@@ -68772,31 +68784,31 @@
         <v>6</v>
       </c>
       <c r="F837" s="1" t="s">
-        <v>475</v>
+        <v>720</v>
       </c>
       <c r="G837" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H837" s="1">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N837" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O837" s="1" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="P837" s="1" t="s">
-        <v>999</v>
+        <v>771</v>
       </c>
       <c r="Q837" s="1" t="s">
-        <v>998</v>
+        <v>339</v>
       </c>
       <c r="S837" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="838" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A838" s="1">
         <v>1</v>
       </c>
@@ -68807,10 +68819,10 @@
         <v>475</v>
       </c>
       <c r="G838" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H838" s="1">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N838" s="1" t="s">
         <v>115</v>
@@ -68819,7 +68831,7 @@
         <v>171</v>
       </c>
       <c r="P838" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="Q838" s="1" t="s">
         <v>998</v>
@@ -68828,144 +68840,138 @@
         <v>17</v>
       </c>
     </row>
-    <row r="839" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A839" s="1">
         <v>1</v>
       </c>
       <c r="C839" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F839" s="1" t="s">
-        <v>781</v>
+        <v>475</v>
       </c>
       <c r="G839" s="1" t="s">
-        <v>1039</v>
+        <v>996</v>
       </c>
       <c r="H839" s="1">
-        <v>300</v>
-      </c>
-      <c r="K839" s="1" t="s">
-        <v>1040</v>
+        <v>60</v>
       </c>
       <c r="N839" s="1" t="s">
         <v>115</v>
       </c>
       <c r="O839" s="1" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="P839" s="1" t="s">
-        <v>874</v>
+        <v>999</v>
       </c>
       <c r="Q839" s="1" t="s">
-        <v>1041</v>
+        <v>998</v>
       </c>
       <c r="S839" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="840" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A840" s="1">
         <v>1</v>
       </c>
       <c r="C840" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F840" s="1" t="s">
-        <v>781</v>
+        <v>475</v>
       </c>
       <c r="G840" s="1" t="s">
-        <v>1042</v>
+        <v>997</v>
       </c>
       <c r="H840" s="1">
-        <v>75</v>
-      </c>
-      <c r="K840" s="1" t="s">
-        <v>800</v>
+        <v>42</v>
       </c>
       <c r="N840" s="1" t="s">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="O840" s="1" t="s">
-        <v>385</v>
+        <v>171</v>
+      </c>
+      <c r="P840" s="1" t="s">
+        <v>1000</v>
       </c>
       <c r="Q840" s="1" t="s">
-        <v>394</v>
+        <v>998</v>
       </c>
       <c r="S840" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="841" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A841" s="1">
         <v>1</v>
       </c>
       <c r="C841" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F841" s="1" t="s">
         <v>781</v>
       </c>
       <c r="G841" s="1" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="H841" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K841" s="1" t="s">
-        <v>803</v>
+        <v>1040</v>
       </c>
       <c r="N841" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O841" s="1" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="P841" s="1" t="s">
-        <v>771</v>
+        <v>874</v>
       </c>
       <c r="Q841" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="S841" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="842" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A842" s="1">
         <v>1</v>
       </c>
       <c r="C842" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F842" s="1" t="s">
         <v>781</v>
       </c>
       <c r="G842" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="H842" s="1">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="K842" s="1" t="s">
         <v>800</v>
       </c>
       <c r="N842" s="1" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="O842" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P842" s="1" t="s">
-        <v>771</v>
+        <v>385</v>
       </c>
       <c r="Q842" s="1" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="S842" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="843" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A843" s="1">
         <v>1</v>
       </c>
@@ -68976,13 +68982,13 @@
         <v>781</v>
       </c>
       <c r="G843" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="H843" s="1">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K843" s="1" t="s">
-        <v>1047</v>
+        <v>803</v>
       </c>
       <c r="N843" s="1" t="s">
         <v>14</v>
@@ -68994,13 +69000,13 @@
         <v>771</v>
       </c>
       <c r="Q843" s="1" t="s">
-        <v>339</v>
+        <v>1044</v>
       </c>
       <c r="S843" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="844" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A844" s="1">
         <v>1</v>
       </c>
@@ -69011,13 +69017,13 @@
         <v>781</v>
       </c>
       <c r="G844" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="H844" s="1">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K844" s="1" t="s">
-        <v>449</v>
+        <v>800</v>
       </c>
       <c r="N844" s="1" t="s">
         <v>14</v>
@@ -69029,13 +69035,13 @@
         <v>771</v>
       </c>
       <c r="Q844" s="1" t="s">
-        <v>231</v>
+        <v>339</v>
       </c>
       <c r="S844" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="845" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A845" s="1">
         <v>1</v>
       </c>
@@ -69046,13 +69052,13 @@
         <v>781</v>
       </c>
       <c r="G845" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="H845" s="1">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K845" s="1" t="s">
-        <v>617</v>
+        <v>1047</v>
       </c>
       <c r="N845" s="1" t="s">
         <v>14</v>
@@ -69064,13 +69070,13 @@
         <v>771</v>
       </c>
       <c r="Q845" s="1" t="s">
-        <v>1050</v>
+        <v>339</v>
       </c>
       <c r="S845" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="846" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A846" s="1">
         <v>1</v>
       </c>
@@ -69081,10 +69087,10 @@
         <v>781</v>
       </c>
       <c r="G846" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="H846" s="1">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="K846" s="1" t="s">
         <v>449</v>
@@ -69099,30 +69105,30 @@
         <v>771</v>
       </c>
       <c r="Q846" s="1" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="S846" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="847" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A847" s="1">
         <v>1</v>
       </c>
       <c r="C847" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F847" s="1" t="s">
         <v>781</v>
       </c>
       <c r="G847" s="1" t="s">
-        <v>258</v>
+        <v>1049</v>
       </c>
       <c r="H847" s="1">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="K847" s="1" t="s">
-        <v>449</v>
+        <v>617</v>
       </c>
       <c r="N847" s="1" t="s">
         <v>14</v>
@@ -69134,30 +69140,30 @@
         <v>771</v>
       </c>
       <c r="Q847" s="1" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="S847" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="848" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A848" s="1">
         <v>1</v>
       </c>
       <c r="C848" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F848" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G848" s="1" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="H848" s="1">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="K848" s="1" t="s">
-        <v>938</v>
+        <v>449</v>
       </c>
       <c r="N848" s="1" t="s">
         <v>14</v>
@@ -69169,7 +69175,7 @@
         <v>771</v>
       </c>
       <c r="Q848" s="1" t="s">
-        <v>1057</v>
+        <v>339</v>
       </c>
       <c r="S848" s="1" t="s">
         <v>17</v>
@@ -69180,19 +69186,19 @@
         <v>1</v>
       </c>
       <c r="C849" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F849" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G849" s="1" t="s">
-        <v>1058</v>
+        <v>258</v>
       </c>
       <c r="H849" s="1">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="K849" s="1" t="s">
-        <v>938</v>
+        <v>449</v>
       </c>
       <c r="N849" s="1" t="s">
         <v>14</v>
@@ -69204,7 +69210,7 @@
         <v>771</v>
       </c>
       <c r="Q849" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="S849" s="1" t="s">
         <v>17</v>
@@ -69221,7 +69227,7 @@
         <v>785</v>
       </c>
       <c r="G850" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="H850" s="1">
         <v>75</v>
@@ -69250,22 +69256,31 @@
         <v>1</v>
       </c>
       <c r="C851" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F851" s="1" t="s">
-        <v>720</v>
+        <v>785</v>
       </c>
       <c r="G851" s="1" t="s">
-        <v>1076</v>
+        <v>1058</v>
       </c>
       <c r="H851" s="1">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="K851" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="N851" s="1" t="s">
-        <v>408</v>
+        <v>14</v>
+      </c>
+      <c r="O851" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P851" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="Q851" s="1" t="s">
-        <v>342</v>
+        <v>1057</v>
       </c>
       <c r="S851" s="1" t="s">
         <v>17</v>
@@ -69276,16 +69291,19 @@
         <v>1</v>
       </c>
       <c r="C852" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F852" s="1" t="s">
-        <v>720</v>
+        <v>785</v>
       </c>
       <c r="G852" s="1" t="s">
-        <v>1077</v>
+        <v>1059</v>
       </c>
       <c r="H852" s="1">
-        <v>110</v>
+        <v>75</v>
+      </c>
+      <c r="K852" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="N852" s="1" t="s">
         <v>14</v>
@@ -69293,8 +69311,11 @@
       <c r="O852" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="P852" s="1" t="s">
+        <v>771</v>
+      </c>
       <c r="Q852" s="1" t="s">
-        <v>342</v>
+        <v>1057</v>
       </c>
       <c r="S852" s="1" t="s">
         <v>17</v>
@@ -69305,22 +69326,19 @@
         <v>1</v>
       </c>
       <c r="C853" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F853" s="1" t="s">
         <v>720</v>
       </c>
       <c r="G853" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H853" s="1">
         <v>85</v>
       </c>
       <c r="N853" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O853" s="1" t="s">
-        <v>39</v>
+        <v>408</v>
       </c>
       <c r="Q853" s="1" t="s">
         <v>342</v>
@@ -69334,28 +69352,25 @@
         <v>1</v>
       </c>
       <c r="C854" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F854" s="1" t="s">
         <v>720</v>
       </c>
       <c r="G854" s="1" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H854" s="1">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N854" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O854" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P854" s="1" t="s">
-        <v>1082</v>
+        <v>39</v>
       </c>
       <c r="Q854" s="1" t="s">
-        <v>15</v>
+        <v>342</v>
       </c>
       <c r="S854" s="1" t="s">
         <v>17</v>
@@ -69366,28 +69381,25 @@
         <v>1</v>
       </c>
       <c r="C855" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F855" s="1" t="s">
         <v>720</v>
       </c>
       <c r="G855" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H855" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N855" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O855" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P855" s="1" t="s">
-        <v>689</v>
+        <v>39</v>
       </c>
       <c r="Q855" s="1" t="s">
-        <v>15</v>
+        <v>342</v>
       </c>
       <c r="S855" s="1" t="s">
         <v>17</v>
@@ -69404,10 +69416,10 @@
         <v>720</v>
       </c>
       <c r="G856" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H856" s="1">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="N856" s="1" t="s">
         <v>115</v>
@@ -69416,7 +69428,7 @@
         <v>171</v>
       </c>
       <c r="P856" s="1" t="s">
-        <v>690</v>
+        <v>1082</v>
       </c>
       <c r="Q856" s="1" t="s">
         <v>15</v>
@@ -69430,28 +69442,28 @@
         <v>1</v>
       </c>
       <c r="C857" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F857" s="1" t="s">
         <v>720</v>
       </c>
       <c r="G857" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="H857" s="1">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="N857" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O857" s="1" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="P857" s="1" t="s">
-        <v>754</v>
+        <v>689</v>
       </c>
       <c r="Q857" s="1" t="s">
-        <v>335</v>
+        <v>15</v>
       </c>
       <c r="S857" s="1" t="s">
         <v>17</v>
@@ -69462,28 +69474,28 @@
         <v>1</v>
       </c>
       <c r="C858" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F858" s="1" t="s">
         <v>720</v>
       </c>
       <c r="G858" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="H858" s="1">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N858" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O858" s="1" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="P858" s="1" t="s">
-        <v>754</v>
+        <v>690</v>
       </c>
       <c r="Q858" s="1" t="s">
-        <v>335</v>
+        <v>15</v>
       </c>
       <c r="S858" s="1" t="s">
         <v>17</v>
@@ -69500,10 +69512,10 @@
         <v>720</v>
       </c>
       <c r="G859" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H859" s="1">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="N859" s="1" t="s">
         <v>14</v>
@@ -69532,10 +69544,10 @@
         <v>720</v>
       </c>
       <c r="G860" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H860" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N860" s="1" t="s">
         <v>14</v>
@@ -69553,8 +69565,70 @@
         <v>17</v>
       </c>
     </row>
-    <row r="861" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="862" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="861" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A861" s="1">
+        <v>1</v>
+      </c>
+      <c r="C861" s="1">
+        <v>3</v>
+      </c>
+      <c r="F861" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G861" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H861" s="1">
+        <v>50</v>
+      </c>
+      <c r="N861" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O861" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P861" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q861" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S861" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="862" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A862" s="1">
+        <v>1</v>
+      </c>
+      <c r="C862" s="1">
+        <v>3</v>
+      </c>
+      <c r="F862" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G862" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H862" s="1">
+        <v>55</v>
+      </c>
+      <c r="N862" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O862" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P862" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q862" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S862" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="863" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="864" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="865" outlineLevel="1" x14ac:dyDescent="0.45"/>
@@ -69669,10 +69743,10 @@
     <row r="974" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="975" outlineLevel="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T979">
-    <sortCondition descending="1" ref="A2:A979"/>
-    <sortCondition ref="D2:D979"/>
-    <sortCondition ref="E2:E979"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T976">
+    <sortCondition descending="1" ref="A2:A976"/>
+    <sortCondition ref="D2:D976"/>
+    <sortCondition ref="E2:E976"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/wine.xlsx
+++ b/wine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0770185a1d4d9fb8/Documents/GitHub/great-books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1955" documentId="8_{B929FCB0-E0C7-431A-BBAD-50753464D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AA58073-D651-480B-A3DF-D4C5E634921A}"/>
+  <xr:revisionPtr revIDLastSave="1960" documentId="8_{B929FCB0-E0C7-431A-BBAD-50753464D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{480352DE-192F-4912-8361-C77D82BE78AF}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{2D3B9375-8A18-42DE-910F-CEC98F840DE9}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7919" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7944" uniqueCount="1090">
   <si>
     <t>Oregon</t>
   </si>
@@ -3346,6 +3346,9 @@
   </si>
   <si>
     <t>Locker</t>
+  </si>
+  <si>
+    <t>rbx9</t>
   </si>
 </sst>
 </file>
@@ -29358,8 +29361,8 @@
   </sheetPr>
   <dimension ref="A1:T987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A852" workbookViewId="0">
-      <selection activeCell="A873" sqref="A873"/>
+    <sheetView tabSelected="1" topLeftCell="A830" workbookViewId="0">
+      <selection activeCell="A841" sqref="A841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
@@ -29469,7 +29472,7 @@
         <v>95</v>
       </c>
       <c r="I2" s="37">
-        <f>C2*H2</f>
+        <f t="shared" ref="I2:I14" si="0">C2*H2</f>
         <v>190</v>
       </c>
       <c r="J2" s="6">
@@ -29523,7 +29526,7 @@
         <v>75</v>
       </c>
       <c r="I3" s="37">
-        <f>C3*H3</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="J3" s="6">
@@ -29577,7 +29580,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="37">
-        <f>C4*H4</f>
+        <f t="shared" si="0"/>
         <v>171</v>
       </c>
       <c r="J4" s="6">
@@ -29631,7 +29634,7 @@
         <v>40</v>
       </c>
       <c r="I5" s="37">
-        <f>C5*H5</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="J5" s="6">
@@ -29685,7 +29688,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="37">
-        <f>C6*H6</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="J6" s="6">
@@ -29739,7 +29742,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="37">
-        <f>C7*H7</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="J7" s="6">
@@ -29793,7 +29796,7 @@
         <v>75</v>
       </c>
       <c r="I8" s="37">
-        <f>C8*H8</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="J8" s="6">
@@ -29845,7 +29848,7 @@
         <v>49</v>
       </c>
       <c r="I9" s="37">
-        <f>C9*H9</f>
+        <f t="shared" si="0"/>
         <v>147</v>
       </c>
       <c r="J9" s="6">
@@ -29901,7 +29904,7 @@
         <v>84</v>
       </c>
       <c r="I10" s="37">
-        <f>C10*H10</f>
+        <f t="shared" si="0"/>
         <v>252</v>
       </c>
       <c r="J10" s="6">
@@ -29955,7 +29958,7 @@
         <v>89</v>
       </c>
       <c r="I11" s="37">
-        <f>C11*H11</f>
+        <f t="shared" si="0"/>
         <v>267</v>
       </c>
       <c r="J11" s="6">
@@ -30009,7 +30012,7 @@
         <v>95</v>
       </c>
       <c r="I12" s="37">
-        <f>C12*H12</f>
+        <f t="shared" si="0"/>
         <v>285</v>
       </c>
       <c r="J12" s="6">
@@ -30063,7 +30066,7 @@
         <v>98</v>
       </c>
       <c r="I13" s="37">
-        <f>C13*H13</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="J13" s="6">
@@ -30117,7 +30120,7 @@
         <v>98</v>
       </c>
       <c r="I14" s="37">
-        <f>C14*H14</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="J14" s="6">
@@ -30171,7 +30174,7 @@
         <v>40</v>
       </c>
       <c r="I15" s="26">
-        <f>H15*C15</f>
+        <f t="shared" ref="I15:I43" si="1">H15*C15</f>
         <v>80</v>
       </c>
       <c r="J15" s="6">
@@ -30221,7 +30224,7 @@
         <v>45</v>
       </c>
       <c r="I16" s="26">
-        <f>H16*C16</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="J16" s="6">
@@ -30271,7 +30274,7 @@
         <v>120</v>
       </c>
       <c r="I17" s="26">
-        <f>H17*C17</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="J17" s="6">
@@ -30321,7 +30324,7 @@
         <v>37</v>
       </c>
       <c r="I18" s="26">
-        <f>H18*C18</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="J18" s="6">
@@ -30371,7 +30374,7 @@
         <v>125</v>
       </c>
       <c r="I19" s="26">
-        <f>H19*C19</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="J19" s="6">
@@ -30421,7 +30424,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="26">
-        <f>H20*C20</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J20" s="6">
@@ -30471,7 +30474,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="26">
-        <f>H21*C21</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J21" s="6">
@@ -30521,7 +30524,7 @@
         <v>30</v>
       </c>
       <c r="I22" s="26">
-        <f>H22*C22</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J22" s="6">
@@ -30571,7 +30574,7 @@
         <v>23</v>
       </c>
       <c r="I23" s="26">
-        <f>H23*C23</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="J23" s="6">
@@ -30621,7 +30624,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="26">
-        <f>H24*C24</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J24" s="6">
@@ -30671,7 +30674,7 @@
         <v>59</v>
       </c>
       <c r="I25" s="26">
-        <f>H25*C25</f>
+        <f t="shared" si="1"/>
         <v>236</v>
       </c>
       <c r="J25" s="6">
@@ -30721,7 +30724,7 @@
         <v>20</v>
       </c>
       <c r="I26" s="26">
-        <f>H26*C26</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="J26" s="6">
@@ -30771,7 +30774,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="26">
-        <f>H27*C27</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="J27" s="6">
@@ -30821,7 +30824,7 @@
         <v>38</v>
       </c>
       <c r="I28" s="26">
-        <f>H28*C28</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="J28" s="6">
@@ -30875,7 +30878,7 @@
         <v>21</v>
       </c>
       <c r="I29" s="26">
-        <f>H29*C29</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="J29" s="6">
@@ -30925,7 +30928,7 @@
         <v>40</v>
       </c>
       <c r="I30" s="26">
-        <f>H30*C30</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="J30" s="6">
@@ -30975,7 +30978,7 @@
         <v>19</v>
       </c>
       <c r="I31" s="26">
-        <f>H31*C31</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J31" s="6">
@@ -31025,7 +31028,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="26">
-        <f>H32*C32</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J32" s="6">
@@ -31075,7 +31078,7 @@
         <v>79</v>
       </c>
       <c r="I33" s="26">
-        <f>H33*C33</f>
+        <f t="shared" si="1"/>
         <v>158</v>
       </c>
       <c r="J33" s="6">
@@ -31129,7 +31132,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="26">
-        <f>H34*C34</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="J34" s="6">
@@ -31179,7 +31182,7 @@
         <v>19</v>
       </c>
       <c r="I35" s="26">
-        <f>H35*C35</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J35" s="6">
@@ -31229,7 +31232,7 @@
         <v>40</v>
       </c>
       <c r="I36" s="26">
-        <f>H36*C36</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="J36" s="6">
@@ -31279,7 +31282,7 @@
         <v>25</v>
       </c>
       <c r="I37" s="26">
-        <f>H37*C37</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J37" s="6">
@@ -31329,7 +31332,7 @@
         <v>20</v>
       </c>
       <c r="I38" s="26">
-        <f>H38*C38</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="J38" s="6">
@@ -31379,7 +31382,7 @@
         <v>15</v>
       </c>
       <c r="I39" s="26">
-        <f>H39*C39</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J39" s="6">
@@ -31429,7 +31432,7 @@
         <v>88</v>
       </c>
       <c r="I40" s="26">
-        <f>H40*C40</f>
+        <f t="shared" si="1"/>
         <v>352</v>
       </c>
       <c r="J40" s="6">
@@ -31479,7 +31482,7 @@
         <v>39</v>
       </c>
       <c r="I41" s="26">
-        <f>H41*C41</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="J41" s="6">
@@ -31529,7 +31532,7 @@
         <v>22</v>
       </c>
       <c r="I42" s="26">
-        <f>H42*C42</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="J42" s="6">
@@ -31579,7 +31582,7 @@
         <v>19</v>
       </c>
       <c r="I43" s="26">
-        <f>H43*C43</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J43" s="6">
@@ -36100,7 +36103,7 @@
       </c>
       <c r="T150" s="7"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>4</v>
       </c>
@@ -37233,7 +37236,7 @@
         <v>75</v>
       </c>
       <c r="I175" s="16">
-        <f>C175*H175</f>
+        <f t="shared" ref="I175:I198" si="2">C175*H175</f>
         <v>300</v>
       </c>
       <c r="J175" s="7">
@@ -37287,7 +37290,7 @@
         <v>75</v>
       </c>
       <c r="I176" s="16">
-        <f>C176*H176</f>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="J176" s="7">
@@ -37341,7 +37344,7 @@
         <v>77</v>
       </c>
       <c r="I177" s="16">
-        <f>C177*H177</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="J177" s="7">
@@ -37395,7 +37398,7 @@
         <v>40</v>
       </c>
       <c r="I178" s="16">
-        <f>C178*H178</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="J178" s="7">
@@ -37449,7 +37452,7 @@
         <v>42</v>
       </c>
       <c r="I179" s="16">
-        <f>C179*H179</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="J179" s="7">
@@ -37503,7 +37506,7 @@
         <v>75</v>
       </c>
       <c r="I180" s="16">
-        <f>C180*H180</f>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="J180" s="7">
@@ -37557,7 +37560,7 @@
         <v>50</v>
       </c>
       <c r="I181" s="16">
-        <f>C181*H181</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J181" s="7">
@@ -37611,7 +37614,7 @@
         <v>49</v>
       </c>
       <c r="I182" s="16">
-        <f>C182*H182</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="J182" s="7">
@@ -37665,7 +37668,7 @@
         <v>59</v>
       </c>
       <c r="I183" s="16">
-        <f>C183*H183</f>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="J183" s="7">
@@ -37719,7 +37722,7 @@
         <v>77</v>
       </c>
       <c r="I184" s="16">
-        <f>C184*H184</f>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="J184" s="7">
@@ -37773,7 +37776,7 @@
         <v>110</v>
       </c>
       <c r="I185" s="16">
-        <f>C185*H185</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="J185" s="7">
@@ -37827,7 +37830,7 @@
         <v>69</v>
       </c>
       <c r="I186" s="16">
-        <f>C186*H186</f>
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="J186" s="7">
@@ -37881,7 +37884,7 @@
         <v>50</v>
       </c>
       <c r="I187" s="16">
-        <f>C187*H187</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="J187" s="7">
@@ -37935,7 +37938,7 @@
         <v>65</v>
       </c>
       <c r="I188" s="16">
-        <f>C188*H188</f>
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
       <c r="J188" s="7">
@@ -37989,7 +37992,7 @@
         <v>70</v>
       </c>
       <c r="I189" s="16">
-        <f>C189*H189</f>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="J189" s="7">
@@ -38041,7 +38044,7 @@
         <v>45</v>
       </c>
       <c r="I190" s="16">
-        <f>C190*H190</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="J190" s="7">
@@ -38095,7 +38098,7 @@
         <v>57</v>
       </c>
       <c r="I191" s="16">
-        <f>C191*H191</f>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="J191" s="7">
@@ -38149,7 +38152,7 @@
         <v>80</v>
       </c>
       <c r="I192" s="16">
-        <f>C192*H192</f>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="J192" s="7">
@@ -38203,7 +38206,7 @@
         <v>69</v>
       </c>
       <c r="I193" s="16">
-        <f>C193*H193</f>
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="J193" s="7">
@@ -38257,7 +38260,7 @@
         <v>59</v>
       </c>
       <c r="I194" s="16">
-        <f>C194*H194</f>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="J194" s="7">
@@ -38311,7 +38314,7 @@
         <v>67</v>
       </c>
       <c r="I195" s="16">
-        <f>C195*H195</f>
+        <f t="shared" si="2"/>
         <v>201</v>
       </c>
       <c r="J195" s="7">
@@ -38365,7 +38368,7 @@
         <v>99</v>
       </c>
       <c r="I196" s="16">
-        <f>C196*H196</f>
+        <f t="shared" si="2"/>
         <v>297</v>
       </c>
       <c r="J196" s="7">
@@ -38419,7 +38422,7 @@
         <v>49</v>
       </c>
       <c r="I197" s="16">
-        <f>C197*H197</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="J197" s="7">
@@ -38473,7 +38476,7 @@
         <v>79</v>
       </c>
       <c r="I198" s="16">
-        <f>C198*H198</f>
+        <f t="shared" si="2"/>
         <v>237</v>
       </c>
       <c r="J198" s="7">
@@ -38527,7 +38530,7 @@
         <v>150</v>
       </c>
       <c r="I199" s="17">
-        <f>H199*C199</f>
+        <f t="shared" ref="I199:I229" si="3">H199*C199</f>
         <v>300</v>
       </c>
       <c r="J199" s="7">
@@ -38577,7 +38580,7 @@
         <v>38</v>
       </c>
       <c r="I200" s="17">
-        <f>H200*C200</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="J200" s="7">
@@ -38627,7 +38630,7 @@
         <v>100</v>
       </c>
       <c r="I201" s="2">
-        <f>H201*C201</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="J201" s="1">
@@ -38672,7 +38675,7 @@
         <v>20</v>
       </c>
       <c r="I202" s="2">
-        <f>H202*C202</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J202" s="1">
@@ -38717,7 +38720,7 @@
         <v>45</v>
       </c>
       <c r="I203" s="2">
-        <f>H203*C203</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="J203" s="1">
@@ -38762,7 +38765,7 @@
         <v>20</v>
       </c>
       <c r="I204" s="17">
-        <f>H204*C204</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J204" s="7">
@@ -38812,7 +38815,7 @@
         <v>49</v>
       </c>
       <c r="I205" s="17">
-        <f>H205*C205</f>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="J205" s="7">
@@ -38862,7 +38865,7 @@
         <v>19</v>
       </c>
       <c r="I206" s="2">
-        <f>H206*C206</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J206" s="1">
@@ -38907,7 +38910,7 @@
         <v>15</v>
       </c>
       <c r="I207" s="2">
-        <f>H207*C207</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J207" s="1">
@@ -38952,7 +38955,7 @@
         <v>45</v>
       </c>
       <c r="I208" s="17">
-        <f>H208*C208</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="J208" s="7">
@@ -39002,7 +39005,7 @@
         <v>28</v>
       </c>
       <c r="I209" s="2">
-        <f>H209*C209</f>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="J209" s="1">
@@ -39047,7 +39050,7 @@
         <v>19</v>
       </c>
       <c r="I210" s="2">
-        <f>H210*C210</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J210" s="1">
@@ -39092,7 +39095,7 @@
         <v>15</v>
       </c>
       <c r="I211" s="2">
-        <f>H211*C211</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J211" s="1">
@@ -39137,7 +39140,7 @@
         <v>25</v>
       </c>
       <c r="I212" s="17">
-        <f>H212*C212</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="J212" s="7">
@@ -39187,7 +39190,7 @@
         <v>15</v>
       </c>
       <c r="I213" s="2">
-        <f>H213*C213</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="J213" s="1">
@@ -39232,7 +39235,7 @@
         <v>19</v>
       </c>
       <c r="I214" s="2">
-        <f>H214*C214</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J214" s="1">
@@ -39277,7 +39280,7 @@
         <v>16</v>
       </c>
       <c r="I215" s="17">
-        <f>H215*C215</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="J215" s="7">
@@ -39327,7 +39330,7 @@
         <v>25</v>
       </c>
       <c r="I216" s="17">
-        <f>H216*C216</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="J216" s="7">
@@ -39377,7 +39380,7 @@
         <v>19</v>
       </c>
       <c r="I217" s="17">
-        <f>H217*C217</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J217" s="7">
@@ -39427,7 +39430,7 @@
         <v>21</v>
       </c>
       <c r="I218" s="2">
-        <f>H218*C218</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="J218" s="1">
@@ -39472,7 +39475,7 @@
         <v>15</v>
       </c>
       <c r="I219" s="2">
-        <f>H219*C219</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J219" s="1">
@@ -39517,7 +39520,7 @@
         <v>30</v>
       </c>
       <c r="I220" s="17">
-        <f>H220*C220</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="J220" s="7">
@@ -39567,7 +39570,7 @@
         <v>40</v>
       </c>
       <c r="I221" s="17">
-        <f>H221*C221</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J221" s="7">
@@ -39617,7 +39620,7 @@
         <v>23</v>
       </c>
       <c r="I222" s="2">
-        <f>H222*C222</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="J222" s="1">
@@ -39662,7 +39665,7 @@
         <v>30</v>
       </c>
       <c r="I223" s="2">
-        <f>H223*C223</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="J223" s="1">
@@ -39707,7 +39710,7 @@
         <v>19</v>
       </c>
       <c r="I224" s="2">
-        <f>H224*C224</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J224" s="1">
@@ -39752,7 +39755,7 @@
         <v>15</v>
       </c>
       <c r="I225" s="2">
-        <f>H225*C225</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J225" s="1">
@@ -39797,7 +39800,7 @@
         <v>55</v>
       </c>
       <c r="I226" s="17">
-        <f>H226*C226</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="J226" s="7">
@@ -39847,7 +39850,7 @@
         <v>38</v>
       </c>
       <c r="I227" s="17">
-        <f>H227*C227</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="J227" s="7">
@@ -39901,7 +39904,7 @@
         <v>38</v>
       </c>
       <c r="I228" s="2">
-        <f>H228*C228</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="J228" s="1">
@@ -39952,7 +39955,7 @@
         <v>23</v>
       </c>
       <c r="I229" s="2">
-        <f>H229*C229</f>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="J229" s="1">
@@ -43911,7 +43914,7 @@
       </c>
       <c r="T323" s="7"/>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A324" s="1">
         <v>4</v>
       </c>
@@ -44809,7 +44812,7 @@
         <v>69</v>
       </c>
       <c r="I343" s="16">
-        <f>C343*H343</f>
+        <f t="shared" ref="I343:I358" si="4">C343*H343</f>
         <v>207</v>
       </c>
       <c r="J343" s="7">
@@ -44863,7 +44866,7 @@
         <v>39</v>
       </c>
       <c r="I344" s="16">
-        <f>C344*H344</f>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="J344" s="7">
@@ -44917,7 +44920,7 @@
         <v>69</v>
       </c>
       <c r="I345" s="16">
-        <f>C345*H345</f>
+        <f t="shared" si="4"/>
         <v>207</v>
       </c>
       <c r="J345" s="7">
@@ -44971,7 +44974,7 @@
         <v>67</v>
       </c>
       <c r="I346" s="16">
-        <f>C346*H346</f>
+        <f t="shared" si="4"/>
         <v>201</v>
       </c>
       <c r="J346" s="7">
@@ -45025,7 +45028,7 @@
         <v>49</v>
       </c>
       <c r="I347" s="16">
-        <f>C347*H347</f>
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="J347" s="7">
@@ -45077,7 +45080,7 @@
         <v>90</v>
       </c>
       <c r="I348" s="16">
-        <f>C348*H348</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="J348" s="7">
@@ -45131,7 +45134,7 @@
         <v>58</v>
       </c>
       <c r="I349" s="16">
-        <f>C349*H349</f>
+        <f t="shared" si="4"/>
         <v>174</v>
       </c>
       <c r="J349" s="7">
@@ -45183,7 +45186,7 @@
         <v>65</v>
       </c>
       <c r="I350" s="16">
-        <f>C350*H350</f>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
       <c r="J350" s="7">
@@ -45237,7 +45240,7 @@
         <v>35</v>
       </c>
       <c r="I351" s="16">
-        <f>C351*H351</f>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="J351" s="7">
@@ -45291,7 +45294,7 @@
         <v>89</v>
       </c>
       <c r="I352" s="16">
-        <f>C352*H352</f>
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="J352" s="7">
@@ -45345,7 +45348,7 @@
         <v>22</v>
       </c>
       <c r="I353" s="16">
-        <f>C353*H353</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="J353" s="7">
@@ -45397,7 +45400,7 @@
         <v>110</v>
       </c>
       <c r="I354" s="16">
-        <f>C354*H354</f>
+        <f t="shared" si="4"/>
         <v>330</v>
       </c>
       <c r="J354" s="7">
@@ -45451,7 +45454,7 @@
         <v>110</v>
       </c>
       <c r="I355" s="16">
-        <f>C355*H355</f>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="J355" s="7">
@@ -45505,7 +45508,7 @@
         <v>69</v>
       </c>
       <c r="I356" s="16">
-        <f>C356*H356</f>
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="J356" s="7">
@@ -45557,7 +45560,7 @@
         <v>79</v>
       </c>
       <c r="I357" s="16">
-        <f>C357*H357</f>
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
       <c r="J357" s="7">
@@ -45611,7 +45614,7 @@
         <v>89</v>
       </c>
       <c r="I358" s="16">
-        <f>C358*H358</f>
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="J358" s="7">
@@ -45710,7 +45713,7 @@
         <v>21</v>
       </c>
       <c r="I360" s="17">
-        <f>H360*C360</f>
+        <f t="shared" ref="I360:I396" si="5">H360*C360</f>
         <v>42</v>
       </c>
       <c r="J360" s="7">
@@ -45760,7 +45763,7 @@
         <v>18</v>
       </c>
       <c r="I361" s="17">
-        <f>H361*C361</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="J361" s="7">
@@ -45810,7 +45813,7 @@
         <v>19</v>
       </c>
       <c r="I362" s="17">
-        <f>H362*C362</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J362" s="7">
@@ -45860,7 +45863,7 @@
         <v>15</v>
       </c>
       <c r="I363" s="17">
-        <f>H363*C363</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="J363" s="7">
@@ -45910,7 +45913,7 @@
         <v>19</v>
       </c>
       <c r="I364" s="17">
-        <f>H364*C364</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J364" s="7">
@@ -45960,7 +45963,7 @@
         <v>95</v>
       </c>
       <c r="I365" s="17">
-        <f>H365*C365</f>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="J365" s="7">
@@ -46010,7 +46013,7 @@
         <v>79</v>
       </c>
       <c r="I366" s="17">
-        <f>H366*C366</f>
+        <f t="shared" si="5"/>
         <v>158</v>
       </c>
       <c r="J366" s="7">
@@ -46064,7 +46067,7 @@
         <v>20</v>
       </c>
       <c r="I367" s="2">
-        <f>H367*C367</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="J367" s="1">
@@ -46109,7 +46112,7 @@
         <v>23</v>
       </c>
       <c r="I368" s="2">
-        <f>H368*C368</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="J368" s="1">
@@ -46154,7 +46157,7 @@
         <v>22</v>
       </c>
       <c r="I369" s="17">
-        <f>H369*C369</f>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="J369" s="7">
@@ -46204,7 +46207,7 @@
         <v>20</v>
       </c>
       <c r="I370" s="17">
-        <f>H370*C370</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="J370" s="7">
@@ -46254,7 +46257,7 @@
         <v>19</v>
       </c>
       <c r="I371" s="2">
-        <f>H371*C371</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J371" s="1">
@@ -46299,7 +46302,7 @@
         <v>19</v>
       </c>
       <c r="I372" s="2">
-        <f>H372*C372</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J372" s="1">
@@ -46344,7 +46347,7 @@
         <v>32</v>
       </c>
       <c r="I373" s="17">
-        <f>H373*C373</f>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="J373" s="7">
@@ -46394,7 +46397,7 @@
         <v>88</v>
       </c>
       <c r="I374" s="17">
-        <f>H374*C374</f>
+        <f t="shared" si="5"/>
         <v>352</v>
       </c>
       <c r="J374" s="7">
@@ -46444,7 +46447,7 @@
         <v>39</v>
       </c>
       <c r="I375" s="17">
-        <f>H375*C375</f>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="J375" s="7">
@@ -46494,7 +46497,7 @@
         <v>38</v>
       </c>
       <c r="I376" s="17">
-        <f>H376*C376</f>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="J376" s="7">
@@ -46544,7 +46547,7 @@
         <v>88</v>
       </c>
       <c r="I377" s="17">
-        <f>H377*C377</f>
+        <f t="shared" si="5"/>
         <v>352</v>
       </c>
       <c r="J377" s="7">
@@ -46594,7 +46597,7 @@
         <v>100</v>
       </c>
       <c r="I378" s="2">
-        <f>H378*C378</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="J378" s="1">
@@ -46639,7 +46642,7 @@
         <v>19</v>
       </c>
       <c r="I379" s="2">
-        <f>H379*C379</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J379" s="1">
@@ -46684,7 +46687,7 @@
         <v>59</v>
       </c>
       <c r="I380" s="2">
-        <f>H380*C380</f>
+        <f t="shared" si="5"/>
         <v>236</v>
       </c>
       <c r="J380" s="1">
@@ -46729,7 +46732,7 @@
         <v>21</v>
       </c>
       <c r="I381" s="2">
-        <f>H381*C381</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="J381" s="1">
@@ -46774,7 +46777,7 @@
         <v>15</v>
       </c>
       <c r="I382" s="2">
-        <f>H382*C382</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="J382" s="1">
@@ -46819,7 +46822,7 @@
         <v>49</v>
       </c>
       <c r="I383" s="2">
-        <f>H383*C383</f>
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
       <c r="J383" s="1">
@@ -46864,7 +46867,7 @@
         <v>15</v>
       </c>
       <c r="I384" s="2">
-        <f>H384*C384</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="J384" s="1">
@@ -46909,7 +46912,7 @@
         <v>19</v>
       </c>
       <c r="I385" s="17">
-        <f>H385*C385</f>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="J385" s="7">
@@ -46959,7 +46962,7 @@
         <v>22</v>
       </c>
       <c r="I386" s="2">
-        <f>H386*C386</f>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="J386" s="1">
@@ -47004,7 +47007,7 @@
         <v>19</v>
       </c>
       <c r="I387" s="2">
-        <f>H387*C387</f>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="J387" s="1">
@@ -47049,7 +47052,7 @@
         <v>65</v>
       </c>
       <c r="I388" s="17">
-        <f>H388*C388</f>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="J388" s="7">
@@ -47099,7 +47102,7 @@
         <v>45</v>
       </c>
       <c r="I389" s="17">
-        <f>H389*C389</f>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="J389" s="7">
@@ -47149,7 +47152,7 @@
         <v>40</v>
       </c>
       <c r="I390" s="17">
-        <f>H390*C390</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="J390" s="7">
@@ -47199,7 +47202,7 @@
         <v>25</v>
       </c>
       <c r="I391" s="17">
-        <f>H391*C391</f>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="J391" s="7">
@@ -47249,7 +47252,7 @@
         <v>23</v>
       </c>
       <c r="I392" s="2">
-        <f>H392*C392</f>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="J392" s="1">
@@ -47294,7 +47297,7 @@
         <v>19</v>
       </c>
       <c r="I393" s="2">
-        <f>H393*C393</f>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="J393" s="1">
@@ -47339,7 +47342,7 @@
         <v>16</v>
       </c>
       <c r="I394" s="17">
-        <f>H394*C394</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="J394" s="7">
@@ -47389,7 +47392,7 @@
         <v>20</v>
       </c>
       <c r="I395" s="17">
-        <f>H395*C395</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="J395" s="7">
@@ -47439,7 +47442,7 @@
         <v>18</v>
       </c>
       <c r="I396" s="2">
-        <f>H396*C396</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="J396" s="1">
@@ -51208,7 +51211,7 @@
       </c>
       <c r="T481" s="7"/>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A482" s="1">
         <v>4</v>
       </c>
@@ -51589,7 +51592,7 @@
         <v>49</v>
       </c>
       <c r="I490" s="16">
-        <f>C490*H490</f>
+        <f t="shared" ref="I490:I497" si="6">C490*H490</f>
         <v>98</v>
       </c>
       <c r="J490" s="7">
@@ -51641,7 +51644,7 @@
         <v>60</v>
       </c>
       <c r="I491" s="16">
-        <f>C491*H491</f>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="J491" s="7">
@@ -51695,7 +51698,7 @@
         <v>93</v>
       </c>
       <c r="I492" s="16">
-        <f>C492*H492</f>
+        <f t="shared" si="6"/>
         <v>279</v>
       </c>
       <c r="J492" s="7">
@@ -51749,7 +51752,7 @@
         <v>68</v>
       </c>
       <c r="I493" s="16">
-        <f>C493*H493</f>
+        <f t="shared" si="6"/>
         <v>272</v>
       </c>
       <c r="J493" s="7">
@@ -51801,7 +51804,7 @@
         <v>95</v>
       </c>
       <c r="I494" s="16">
-        <f>C494*H494</f>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="J494" s="7">
@@ -51855,7 +51858,7 @@
         <v>74</v>
       </c>
       <c r="I495" s="16">
-        <f>C495*H495</f>
+        <f t="shared" si="6"/>
         <v>222</v>
       </c>
       <c r="J495" s="7">
@@ -51909,7 +51912,7 @@
         <v>55</v>
       </c>
       <c r="I496" s="16">
-        <f>C496*H496</f>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="J496" s="7">
@@ -51963,7 +51966,7 @@
         <v>87</v>
       </c>
       <c r="I497" s="16">
-        <f>C497*H497</f>
+        <f t="shared" si="6"/>
         <v>348</v>
       </c>
       <c r="J497" s="7">
@@ -52017,7 +52020,7 @@
         <v>28</v>
       </c>
       <c r="I498" s="17">
-        <f>H498*C498</f>
+        <f t="shared" ref="I498:I518" si="7">H498*C498</f>
         <v>112</v>
       </c>
       <c r="J498" s="7">
@@ -52067,7 +52070,7 @@
         <v>19</v>
       </c>
       <c r="I499" s="17">
-        <f>H499*C499</f>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="J499" s="7">
@@ -52117,7 +52120,7 @@
         <v>19</v>
       </c>
       <c r="I500" s="2">
-        <f>H500*C500</f>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="J500" s="1">
@@ -52162,7 +52165,7 @@
         <v>150</v>
       </c>
       <c r="I501" s="17">
-        <f>H501*C501</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="J501" s="7">
@@ -52212,7 +52215,7 @@
         <v>95</v>
       </c>
       <c r="I502" s="17">
-        <f>H502*C502</f>
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
       <c r="J502" s="7">
@@ -52262,7 +52265,7 @@
         <v>38</v>
       </c>
       <c r="I503" s="17">
-        <f>H503*C503</f>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="J503" s="7">
@@ -52316,7 +52319,7 @@
         <v>100</v>
       </c>
       <c r="I504" s="2">
-        <f>H504*C504</f>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="J504" s="1">
@@ -52361,7 +52364,7 @@
         <v>23</v>
       </c>
       <c r="I505" s="2">
-        <f>H505*C505</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="J505" s="1">
@@ -52406,7 +52409,7 @@
         <v>88</v>
       </c>
       <c r="I506" s="17">
-        <f>H506*C506</f>
+        <f t="shared" si="7"/>
         <v>352</v>
       </c>
       <c r="J506" s="7">
@@ -52456,7 +52459,7 @@
         <v>45</v>
       </c>
       <c r="I507" s="2">
-        <f>H507*C507</f>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="J507" s="1">
@@ -52501,7 +52504,7 @@
         <v>23</v>
       </c>
       <c r="I508" s="2">
-        <f>H508*C508</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="J508" s="1">
@@ -52546,7 +52549,7 @@
         <v>15</v>
       </c>
       <c r="I509" s="17">
-        <f>H509*C509</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="J509" s="7">
@@ -52596,7 +52599,7 @@
         <v>16</v>
       </c>
       <c r="I510" s="17">
-        <f>H510*C510</f>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="J510" s="7">
@@ -52646,7 +52649,7 @@
         <v>20</v>
       </c>
       <c r="I511" s="2">
-        <f>H511*C511</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="J511" s="1">
@@ -52691,7 +52694,7 @@
         <v>18</v>
       </c>
       <c r="I512" s="2">
-        <f>H512*C512</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="J512" s="1">
@@ -52736,7 +52739,7 @@
         <v>19</v>
       </c>
       <c r="I513" s="2">
-        <f>H513*C513</f>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="J513" s="1">
@@ -52781,7 +52784,7 @@
         <v>55</v>
       </c>
       <c r="I514" s="17">
-        <f>H514*C514</f>
+        <f t="shared" si="7"/>
         <v>220</v>
       </c>
       <c r="J514" s="7">
@@ -52831,7 +52834,7 @@
         <v>45</v>
       </c>
       <c r="I515" s="17">
-        <f>H515*C515</f>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="J515" s="7">
@@ -52881,7 +52884,7 @@
         <v>60</v>
       </c>
       <c r="I516" s="17">
-        <f>H516*C516</f>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="J516" s="7">
@@ -52931,7 +52934,7 @@
         <v>45</v>
       </c>
       <c r="I517" s="17">
-        <f>H517*C517</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="J517" s="7">
@@ -52983,7 +52986,7 @@
         <v>15</v>
       </c>
       <c r="I518" s="17">
-        <f>H518*C518</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="J518" s="7">
@@ -55219,7 +55222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="571" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A571" s="1">
         <v>4</v>
       </c>
@@ -55910,7 +55913,7 @@
         <v>40</v>
       </c>
       <c r="I585" s="17">
-        <f>H585*C585</f>
+        <f t="shared" ref="I585:I598" si="8">H585*C585</f>
         <v>160</v>
       </c>
       <c r="J585" s="7">
@@ -55960,7 +55963,7 @@
         <v>49</v>
       </c>
       <c r="I586" s="17">
-        <f>H586*C586</f>
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
       <c r="J586" s="7">
@@ -56010,7 +56013,7 @@
         <v>22</v>
       </c>
       <c r="I587" s="2">
-        <f>H587*C587</f>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="J587" s="1">
@@ -56055,7 +56058,7 @@
         <v>22</v>
       </c>
       <c r="I588" s="17">
-        <f>H588*C588</f>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="J588" s="7">
@@ -56105,7 +56108,7 @@
         <v>37</v>
       </c>
       <c r="I589" s="17">
-        <f>H589*C589</f>
+        <f t="shared" si="8"/>
         <v>148</v>
       </c>
       <c r="J589" s="7">
@@ -56155,7 +56158,7 @@
         <v>21</v>
       </c>
       <c r="I590" s="2">
-        <f>H590*C590</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="J590" s="1">
@@ -56200,7 +56203,7 @@
         <v>23</v>
       </c>
       <c r="I591" s="2">
-        <f>H591*C591</f>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="J591" s="1">
@@ -56245,7 +56248,7 @@
         <v>79</v>
       </c>
       <c r="I592" s="17">
-        <f>H592*C592</f>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="J592" s="7">
@@ -56299,7 +56302,7 @@
         <v>100</v>
       </c>
       <c r="I593" s="2">
-        <f>H593*C593</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="J593" s="1">
@@ -56344,7 +56347,7 @@
         <v>28</v>
       </c>
       <c r="I594" s="2">
-        <f>H594*C594</f>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="J594" s="1">
@@ -56389,7 +56392,7 @@
         <v>59</v>
       </c>
       <c r="I595" s="2">
-        <f>H595*C595</f>
+        <f t="shared" si="8"/>
         <v>236</v>
       </c>
       <c r="J595" s="1">
@@ -56434,7 +56437,7 @@
         <v>32</v>
       </c>
       <c r="I596" s="17">
-        <f>H596*C596</f>
+        <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="J596" s="7">
@@ -56484,7 +56487,7 @@
         <v>39</v>
       </c>
       <c r="I597" s="17">
-        <f>H597*C597</f>
+        <f t="shared" si="8"/>
         <v>156</v>
       </c>
       <c r="J597" s="7">
@@ -56534,7 +56537,7 @@
         <v>49</v>
       </c>
       <c r="I598" s="17">
-        <f>H598*C598</f>
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
       <c r="J598" s="7">
@@ -58346,7 +58349,7 @@
       </c>
       <c r="T639" s="7"/>
     </row>
-    <row r="640" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A640" s="1">
         <v>4</v>
       </c>
@@ -59091,7 +59094,7 @@
         <v>88</v>
       </c>
       <c r="I656" s="17">
-        <f>H656*C656</f>
+        <f t="shared" ref="I656:I670" si="9">H656*C656</f>
         <v>352</v>
       </c>
       <c r="J656" s="7">
@@ -59141,7 +59144,7 @@
         <v>95</v>
       </c>
       <c r="I657" s="17">
-        <f>H657*C657</f>
+        <f t="shared" si="9"/>
         <v>380</v>
       </c>
       <c r="J657" s="7">
@@ -59191,7 +59194,7 @@
         <v>100</v>
       </c>
       <c r="I658" s="2">
-        <f>H658*C658</f>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="J658" s="1">
@@ -59236,7 +59239,7 @@
         <v>45</v>
       </c>
       <c r="I659" s="2">
-        <f>H659*C659</f>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="J659" s="1">
@@ -59281,7 +59284,7 @@
         <v>45</v>
       </c>
       <c r="I660" s="17">
-        <f>H660*C660</f>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="J660" s="7">
@@ -59333,7 +59336,7 @@
         <v>150</v>
       </c>
       <c r="I661" s="17">
-        <f>H661*C661</f>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="J661" s="7">
@@ -59383,7 +59386,7 @@
         <v>38</v>
       </c>
       <c r="I662" s="17">
-        <f>H662*C662</f>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="J662" s="7">
@@ -59437,7 +59440,7 @@
         <v>23</v>
       </c>
       <c r="I663" s="2">
-        <f>H663*C663</f>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
       <c r="J663" s="1">
@@ -59482,7 +59485,7 @@
         <v>55</v>
       </c>
       <c r="I664" s="17">
-        <f>H664*C664</f>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="J664" s="7">
@@ -59532,7 +59535,7 @@
         <v>150</v>
       </c>
       <c r="I665" s="17">
-        <f>H665*C665</f>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="J665" s="7">
@@ -59582,7 +59585,7 @@
         <v>39</v>
       </c>
       <c r="I666" s="17">
-        <f>H666*C666</f>
+        <f t="shared" si="9"/>
         <v>156</v>
       </c>
       <c r="J666" s="7">
@@ -59632,7 +59635,7 @@
         <v>23</v>
       </c>
       <c r="I667" s="2">
-        <f>H667*C667</f>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="J667" s="1">
@@ -59677,7 +59680,7 @@
         <v>65</v>
       </c>
       <c r="I668" s="17">
-        <f>H668*C668</f>
+        <f t="shared" si="9"/>
         <v>260</v>
       </c>
       <c r="J668" s="7">
@@ -59727,7 +59730,7 @@
         <v>60</v>
       </c>
       <c r="I669" s="17">
-        <f>H669*C669</f>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="J669" s="7">
@@ -59777,7 +59780,7 @@
         <v>28</v>
       </c>
       <c r="I670" s="17">
-        <f>H670*C670</f>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="J670" s="7">
@@ -61108,7 +61111,7 @@
         <v>20</v>
       </c>
       <c r="I701" s="17">
-        <f>H701*C701</f>
+        <f t="shared" ref="I701:I707" si="10">H701*C701</f>
         <v>80</v>
       </c>
       <c r="J701" s="7">
@@ -61158,7 +61161,7 @@
         <v>79</v>
       </c>
       <c r="I702" s="17">
-        <f>H702*C702</f>
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
       <c r="J702" s="7">
@@ -61212,7 +61215,7 @@
         <v>49</v>
       </c>
       <c r="I703" s="2">
-        <f>H703*C703</f>
+        <f t="shared" si="10"/>
         <v>196</v>
       </c>
       <c r="J703" s="1">
@@ -61257,7 +61260,7 @@
         <v>23</v>
       </c>
       <c r="I704" s="2">
-        <f>H704*C704</f>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="J704" s="1">
@@ -61302,7 +61305,7 @@
         <v>37</v>
       </c>
       <c r="I705" s="17">
-        <f>H705*C705</f>
+        <f t="shared" si="10"/>
         <v>148</v>
       </c>
       <c r="J705" s="7">
@@ -61352,7 +61355,7 @@
         <v>49</v>
       </c>
       <c r="I706" s="17">
-        <f>H706*C706</f>
+        <f t="shared" si="10"/>
         <v>196</v>
       </c>
       <c r="J706" s="7">
@@ -61402,7 +61405,7 @@
         <v>20</v>
       </c>
       <c r="I707" s="2">
-        <f>H707*C707</f>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="J707" s="1">
@@ -62563,7 +62566,7 @@
         <v>45</v>
       </c>
       <c r="I733" s="17">
-        <f>H733*C733</f>
+        <f t="shared" ref="I733:I743" si="11">H733*C733</f>
         <v>180</v>
       </c>
       <c r="J733" s="7">
@@ -62615,7 +62618,7 @@
         <v>37</v>
       </c>
       <c r="I734" s="17">
-        <f>H734*C734</f>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="J734" s="7">
@@ -62665,7 +62668,7 @@
         <v>65</v>
       </c>
       <c r="I735" s="17">
-        <f>H735*C735</f>
+        <f t="shared" si="11"/>
         <v>260</v>
       </c>
       <c r="J735" s="7">
@@ -62715,7 +62718,7 @@
         <v>60</v>
       </c>
       <c r="I736" s="17">
-        <f>H736*C736</f>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="J736" s="7">
@@ -62765,7 +62768,7 @@
         <v>95</v>
       </c>
       <c r="I737" s="17">
-        <f>H737*C737</f>
+        <f t="shared" si="11"/>
         <v>380</v>
       </c>
       <c r="J737" s="7">
@@ -62815,7 +62818,7 @@
         <v>28</v>
       </c>
       <c r="I738" s="2">
-        <f>H738*C738</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="J738" s="1">
@@ -62860,7 +62863,7 @@
         <v>45</v>
       </c>
       <c r="I739" s="2">
-        <f>H739*C739</f>
+        <f t="shared" si="11"/>
         <v>180</v>
       </c>
       <c r="J739" s="1">
@@ -62905,7 +62908,7 @@
         <v>88</v>
       </c>
       <c r="I740" s="17">
-        <f>H740*C740</f>
+        <f t="shared" si="11"/>
         <v>176</v>
       </c>
       <c r="J740" s="7">
@@ -62955,7 +62958,7 @@
         <v>79</v>
       </c>
       <c r="I741" s="17">
-        <f>H741*C741</f>
+        <f t="shared" si="11"/>
         <v>316</v>
       </c>
       <c r="J741" s="7">
@@ -63009,7 +63012,7 @@
         <v>100</v>
       </c>
       <c r="I742" s="2">
-        <f>H742*C742</f>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="J742" s="1">
@@ -63054,7 +63057,7 @@
         <v>20</v>
       </c>
       <c r="I743" s="2">
-        <f>H743*C743</f>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="J743" s="1">
@@ -66639,7 +66642,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="822" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A822" s="1">
         <v>4</v>
       </c>
@@ -66924,7 +66927,7 @@
       </c>
       <c r="T828" s="7"/>
     </row>
-    <row r="829" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A829" s="1">
         <v>3</v>
       </c>
@@ -67443,162 +67446,174 @@
     </row>
     <row r="841" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A841" s="1">
-        <v>1</v>
-      </c>
-      <c r="C841" s="7">
-        <v>12</v>
-      </c>
-      <c r="D841" s="7"/>
-      <c r="E841" s="7"/>
-      <c r="F841" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G841" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="H841" s="7">
-        <v>70</v>
-      </c>
-      <c r="I841" s="17"/>
-      <c r="J841" s="7"/>
-      <c r="L841" s="7"/>
-      <c r="M841" s="7"/>
-      <c r="N841" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O841" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P841" s="7"/>
-      <c r="Q841" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C841" s="1">
+        <v>2</v>
+      </c>
+      <c r="D841" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E841" s="1">
+        <v>69</v>
+      </c>
+      <c r="F841" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G841" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H841" s="1">
         <v>75</v>
       </c>
-      <c r="R841" s="7"/>
-      <c r="S841" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T841" s="7"/>
+      <c r="K841" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="N841" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O841" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P841" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q841" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S841" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="842" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A842" s="1">
-        <v>1</v>
-      </c>
-      <c r="C842" s="7">
-        <v>6</v>
-      </c>
-      <c r="D842" s="7"/>
-      <c r="E842" s="7"/>
-      <c r="F842" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G842" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="H842" s="7">
-        <v>109</v>
-      </c>
-      <c r="I842" s="17"/>
-      <c r="J842" s="7"/>
-      <c r="L842" s="7"/>
-      <c r="M842" s="7"/>
-      <c r="N842" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O842" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P842" s="7"/>
-      <c r="Q842" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="R842" s="7"/>
-      <c r="S842" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T842" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="C842" s="1">
+        <v>2</v>
+      </c>
+      <c r="D842" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E842" s="1">
+        <v>69</v>
+      </c>
+      <c r="F842" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G842" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H842" s="1">
+        <v>75</v>
+      </c>
+      <c r="K842" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="N842" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O842" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P842" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q842" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S842" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="843" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A843" s="1">
-        <v>1</v>
-      </c>
-      <c r="C843" s="7">
-        <v>6</v>
-      </c>
-      <c r="D843" s="7"/>
-      <c r="E843" s="7"/>
-      <c r="F843" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G843" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="H843" s="7">
-        <v>100</v>
-      </c>
-      <c r="I843" s="17"/>
-      <c r="J843" s="7"/>
-      <c r="L843" s="7"/>
-      <c r="M843" s="7"/>
-      <c r="N843" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O843" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P843" s="7"/>
-      <c r="Q843" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="R843" s="7"/>
-      <c r="S843" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T843" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="C843" s="1">
+        <v>2</v>
+      </c>
+      <c r="D843" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E843" s="1">
+        <v>69</v>
+      </c>
+      <c r="F843" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G843" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H843" s="1">
+        <v>75</v>
+      </c>
+      <c r="K843" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="N843" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O843" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P843" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q843" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S843" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="844" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A844" s="1">
-        <v>1</v>
-      </c>
-      <c r="C844" s="7">
-        <v>6</v>
-      </c>
-      <c r="D844" s="7"/>
-      <c r="E844" s="7"/>
-      <c r="F844" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G844" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="H844" s="7">
-        <v>95</v>
-      </c>
-      <c r="I844" s="17"/>
-      <c r="J844" s="7"/>
-      <c r="L844" s="7"/>
-      <c r="M844" s="7"/>
-      <c r="N844" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O844" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P844" s="7"/>
-      <c r="Q844" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="R844" s="7"/>
-      <c r="S844" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T844" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C844" s="1">
+        <v>12</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F844" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G844" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H844" s="1">
+        <v>105</v>
+      </c>
+      <c r="K844" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="N844" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O844" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P844" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q844" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S844" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T844" s="1" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="845" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A845" s="1">
         <v>1</v>
       </c>
       <c r="C845" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D845" s="7"/>
       <c r="E845" s="7"/>
@@ -67606,24 +67621,24 @@
         <v>603</v>
       </c>
       <c r="G845" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H845" s="7">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="I845" s="17"/>
       <c r="J845" s="7"/>
       <c r="L845" s="7"/>
       <c r="M845" s="7"/>
       <c r="N845" s="7" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="O845" s="7" t="s">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="P845" s="7"/>
       <c r="Q845" s="7" t="s">
-        <v>602</v>
+        <v>75</v>
       </c>
       <c r="R845" s="7"/>
       <c r="S845" s="7" t="s">
@@ -67638,25 +67653,32 @@
       <c r="C846" s="7">
         <v>6</v>
       </c>
+      <c r="D846" s="7"/>
+      <c r="E846" s="7"/>
       <c r="F846" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="G846" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="H846" s="1">
-        <v>80</v>
+      <c r="G846" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="H846" s="7">
+        <v>109</v>
       </c>
       <c r="I846" s="17"/>
-      <c r="N846" s="1" t="s">
+      <c r="J846" s="7"/>
+      <c r="L846" s="7"/>
+      <c r="M846" s="7"/>
+      <c r="N846" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="O846" s="1" t="s">
+      <c r="O846" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="Q846" s="1" t="s">
+      <c r="P846" s="7"/>
+      <c r="Q846" s="7" t="s">
         <v>602</v>
       </c>
+      <c r="R846" s="7"/>
       <c r="S846" s="7" t="s">
         <v>17</v>
       </c>
@@ -67664,162 +67686,182 @@
     </row>
     <row r="847" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A847" s="1">
-        <v>2</v>
-      </c>
-      <c r="C847" s="1">
-        <v>12</v>
-      </c>
-      <c r="F847" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G847" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="H847" s="1">
-        <v>105</v>
-      </c>
-      <c r="K847" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="N847" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O847" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P847" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="Q847" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S847" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T847" s="1" t="s">
-        <v>728</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C847" s="7">
+        <v>6</v>
+      </c>
+      <c r="D847" s="7"/>
+      <c r="E847" s="7"/>
+      <c r="F847" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G847" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="H847" s="7">
+        <v>100</v>
+      </c>
+      <c r="I847" s="17"/>
+      <c r="J847" s="7"/>
+      <c r="L847" s="7"/>
+      <c r="M847" s="7"/>
+      <c r="N847" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O847" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P847" s="7"/>
+      <c r="Q847" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="R847" s="7"/>
+      <c r="S847" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T847" s="7"/>
     </row>
     <row r="848" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A848" s="1">
         <v>1</v>
       </c>
-      <c r="C848" s="1">
-        <v>4</v>
-      </c>
-      <c r="F848" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G848" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="H848" s="1">
-        <v>53</v>
-      </c>
-      <c r="N848" s="1" t="s">
+      <c r="C848" s="7">
+        <v>6</v>
+      </c>
+      <c r="D848" s="7"/>
+      <c r="E848" s="7"/>
+      <c r="F848" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G848" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="H848" s="7">
+        <v>95</v>
+      </c>
+      <c r="I848" s="17"/>
+      <c r="J848" s="7"/>
+      <c r="L848" s="7"/>
+      <c r="M848" s="7"/>
+      <c r="N848" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="O848" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P848" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q848" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S848" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="T848" s="1" t="s">
-        <v>725</v>
-      </c>
+      <c r="O848" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P848" s="7"/>
+      <c r="Q848" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="R848" s="7"/>
+      <c r="S848" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T848" s="7"/>
     </row>
     <row r="849" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A849" s="1">
         <v>1</v>
       </c>
-      <c r="C849" s="1">
-        <v>4</v>
-      </c>
-      <c r="F849" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G849" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="H849" s="1">
-        <v>53</v>
-      </c>
-      <c r="N849" s="1" t="s">
+      <c r="C849" s="7">
+        <v>6</v>
+      </c>
+      <c r="D849" s="7"/>
+      <c r="E849" s="7"/>
+      <c r="F849" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G849" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H849" s="7">
+        <v>130</v>
+      </c>
+      <c r="I849" s="17"/>
+      <c r="J849" s="7"/>
+      <c r="L849" s="7"/>
+      <c r="M849" s="7"/>
+      <c r="N849" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="O849" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P849" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q849" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S849" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="T849" s="1" t="s">
-        <v>725</v>
-      </c>
+      <c r="O849" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P849" s="7"/>
+      <c r="Q849" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="R849" s="7"/>
+      <c r="S849" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T849" s="7"/>
     </row>
     <row r="850" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A850" s="1">
         <v>1</v>
       </c>
-      <c r="C850" s="1">
-        <v>4</v>
-      </c>
-      <c r="F850" s="1" t="s">
-        <v>720</v>
+      <c r="C850" s="7">
+        <v>6</v>
+      </c>
+      <c r="F850" s="7" t="s">
+        <v>603</v>
       </c>
       <c r="G850" s="1" t="s">
-        <v>724</v>
+        <v>597</v>
       </c>
       <c r="H850" s="1">
-        <v>53</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I850" s="17"/>
       <c r="N850" s="1" t="s">
         <v>115</v>
       </c>
       <c r="O850" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P850" s="1" t="s">
-        <v>630</v>
+        <v>239</v>
       </c>
       <c r="Q850" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S850" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="T850" s="1" t="s">
-        <v>725</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="S850" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T850" s="7"/>
     </row>
     <row r="851" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A851" s="1">
         <v>1</v>
       </c>
       <c r="C851" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F851" s="1" t="s">
-        <v>475</v>
+        <v>720</v>
       </c>
       <c r="G851" s="1" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="H851" s="1">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="N851" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O851" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P851" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q851" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S851" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T851" s="1" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="852" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
@@ -67827,110 +67869,89 @@
         <v>1</v>
       </c>
       <c r="C852" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F852" s="1" t="s">
         <v>720</v>
       </c>
       <c r="G852" s="1" t="s">
-        <v>945</v>
+        <v>723</v>
       </c>
       <c r="H852" s="1">
-        <v>140</v>
-      </c>
-      <c r="K852" s="1" t="s">
-        <v>946</v>
+        <v>53</v>
       </c>
       <c r="N852" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O852" s="1" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="P852" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q852" s="47" t="s">
-        <v>947</v>
+        <v>630</v>
+      </c>
+      <c r="Q852" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="S852" s="1" t="s">
-        <v>17</v>
+        <v>147</v>
+      </c>
+      <c r="T852" s="1" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="853" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A853" s="1">
         <v>1</v>
       </c>
-      <c r="C853" s="7">
-        <v>12</v>
-      </c>
-      <c r="D853" s="7"/>
-      <c r="E853" s="7"/>
-      <c r="F853" s="7" t="s">
+      <c r="C853" s="1">
+        <v>4</v>
+      </c>
+      <c r="F853" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="G853" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="H853" s="7">
-        <v>30</v>
-      </c>
-      <c r="I853" s="7"/>
-      <c r="J853" s="7"/>
-      <c r="K853" s="7"/>
-      <c r="L853" s="7"/>
-      <c r="M853" s="7"/>
-      <c r="N853" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O853" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P853" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="Q853" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="R853" s="7"/>
-      <c r="S853" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T853" s="7"/>
+      <c r="G853" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="H853" s="1">
+        <v>53</v>
+      </c>
+      <c r="N853" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O853" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P853" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q853" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S853" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T853" s="1" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="854" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A854" s="1">
         <v>1</v>
       </c>
       <c r="C854" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F854" s="1" t="s">
-        <v>720</v>
+        <v>475</v>
       </c>
       <c r="G854" s="1" t="s">
-        <v>991</v>
+        <v>729</v>
       </c>
       <c r="H854" s="1">
-        <v>215</v>
-      </c>
-      <c r="N854" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O854" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P854" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q854" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="S854" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="855" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="855" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A855" s="1">
         <v>1</v>
       </c>
@@ -67941,10 +67962,13 @@
         <v>720</v>
       </c>
       <c r="G855" s="1" t="s">
-        <v>992</v>
+        <v>945</v>
       </c>
       <c r="H855" s="1">
-        <v>160</v>
+        <v>140</v>
+      </c>
+      <c r="K855" s="1" t="s">
+        <v>946</v>
       </c>
       <c r="N855" s="1" t="s">
         <v>14</v>
@@ -67953,10 +67977,10 @@
         <v>39</v>
       </c>
       <c r="P855" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q855" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
+      </c>
+      <c r="Q855" s="47" t="s">
+        <v>947</v>
       </c>
       <c r="S855" s="1" t="s">
         <v>17</v>
@@ -67966,61 +67990,70 @@
       <c r="A856" s="1">
         <v>1</v>
       </c>
-      <c r="C856" s="1">
-        <v>6</v>
-      </c>
-      <c r="F856" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G856" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="H856" s="1">
-        <v>100</v>
-      </c>
-      <c r="N856" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O856" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P856" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="Q856" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="S856" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C856" s="7">
+        <v>12</v>
+      </c>
+      <c r="D856" s="7"/>
+      <c r="E856" s="7"/>
+      <c r="F856" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="G856" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="H856" s="7">
+        <v>30</v>
+      </c>
+      <c r="I856" s="7"/>
+      <c r="J856" s="7"/>
+      <c r="K856" s="7"/>
+      <c r="L856" s="7"/>
+      <c r="M856" s="7"/>
+      <c r="N856" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O856" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P856" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q856" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="R856" s="7"/>
+      <c r="S856" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T856" s="7"/>
     </row>
     <row r="857" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A857" s="1">
         <v>1</v>
       </c>
       <c r="C857" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F857" s="1" t="s">
-        <v>475</v>
+        <v>720</v>
       </c>
       <c r="G857" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="H857" s="1">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="N857" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O857" s="1" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="P857" s="1" t="s">
-        <v>997</v>
+        <v>771</v>
       </c>
       <c r="Q857" s="1" t="s">
-        <v>996</v>
+        <v>339</v>
       </c>
       <c r="S857" s="1" t="s">
         <v>17</v>
@@ -68034,25 +68067,25 @@
         <v>6</v>
       </c>
       <c r="F858" s="1" t="s">
-        <v>475</v>
+        <v>720</v>
       </c>
       <c r="G858" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="H858" s="1">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="N858" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O858" s="1" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="P858" s="1" t="s">
-        <v>998</v>
+        <v>771</v>
       </c>
       <c r="Q858" s="1" t="s">
-        <v>996</v>
+        <v>339</v>
       </c>
       <c r="S858" s="1" t="s">
         <v>17</v>
@@ -68063,31 +68096,28 @@
         <v>1</v>
       </c>
       <c r="C859" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F859" s="1" t="s">
-        <v>781</v>
+        <v>475</v>
       </c>
       <c r="G859" s="1" t="s">
-        <v>1037</v>
+        <v>993</v>
       </c>
       <c r="H859" s="1">
-        <v>300</v>
-      </c>
-      <c r="K859" s="1" t="s">
-        <v>1038</v>
+        <v>100</v>
       </c>
       <c r="N859" s="1" t="s">
         <v>115</v>
       </c>
       <c r="O859" s="1" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="P859" s="1" t="s">
-        <v>874</v>
+        <v>997</v>
       </c>
       <c r="Q859" s="1" t="s">
-        <v>1039</v>
+        <v>996</v>
       </c>
       <c r="S859" s="1" t="s">
         <v>17</v>
@@ -68098,31 +68128,28 @@
         <v>1</v>
       </c>
       <c r="C860" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F860" s="1" t="s">
-        <v>781</v>
+        <v>475</v>
       </c>
       <c r="G860" s="1" t="s">
-        <v>258</v>
+        <v>994</v>
       </c>
       <c r="H860" s="1">
-        <v>28</v>
-      </c>
-      <c r="K860" s="1" t="s">
-        <v>449</v>
+        <v>60</v>
       </c>
       <c r="N860" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O860" s="1" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="P860" s="1" t="s">
-        <v>771</v>
+        <v>997</v>
       </c>
       <c r="Q860" s="1" t="s">
-        <v>1053</v>
+        <v>996</v>
       </c>
       <c r="S860" s="1" t="s">
         <v>17</v>
@@ -68133,31 +68160,28 @@
         <v>1</v>
       </c>
       <c r="C861" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F861" s="1" t="s">
-        <v>785</v>
+        <v>475</v>
       </c>
       <c r="G861" s="1" t="s">
-        <v>1054</v>
+        <v>995</v>
       </c>
       <c r="H861" s="1">
-        <v>75</v>
-      </c>
-      <c r="K861" s="1" t="s">
-        <v>938</v>
+        <v>42</v>
       </c>
       <c r="N861" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O861" s="1" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="P861" s="1" t="s">
-        <v>771</v>
+        <v>998</v>
       </c>
       <c r="Q861" s="1" t="s">
-        <v>1055</v>
+        <v>996</v>
       </c>
       <c r="S861" s="1" t="s">
         <v>17</v>
@@ -68168,31 +68192,31 @@
         <v>1</v>
       </c>
       <c r="C862" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F862" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G862" s="1" t="s">
-        <v>1056</v>
+        <v>1037</v>
       </c>
       <c r="H862" s="1">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="K862" s="1" t="s">
-        <v>938</v>
+        <v>1038</v>
       </c>
       <c r="N862" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O862" s="1" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="P862" s="1" t="s">
-        <v>771</v>
+        <v>874</v>
       </c>
       <c r="Q862" s="1" t="s">
-        <v>1055</v>
+        <v>1039</v>
       </c>
       <c r="S862" s="1" t="s">
         <v>17</v>
@@ -68203,19 +68227,19 @@
         <v>1</v>
       </c>
       <c r="C863" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F863" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G863" s="1" t="s">
-        <v>1057</v>
+        <v>258</v>
       </c>
       <c r="H863" s="1">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="K863" s="1" t="s">
-        <v>938</v>
+        <v>449</v>
       </c>
       <c r="N863" s="1" t="s">
         <v>14</v>
@@ -68227,7 +68251,7 @@
         <v>771</v>
       </c>
       <c r="Q863" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="S863" s="1" t="s">
         <v>17</v>
@@ -68656,10 +68680,10 @@
     <row r="986" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="987" outlineLevel="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T997">
-    <sortCondition descending="1" ref="A2:A997"/>
-    <sortCondition ref="D2:D997"/>
-    <sortCondition ref="E2:E997"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T988">
+    <sortCondition descending="1" ref="A2:A988"/>
+    <sortCondition ref="D2:D988"/>
+    <sortCondition ref="E2:E988"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="34" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -68669,10 +68693,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A13F511-5042-4309-B3DD-2F9650B0072B}">
-  <dimension ref="A1:T118"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H94" sqref="H1:H1048576"/>
+      <selection activeCell="A119" sqref="A119:XFD121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
@@ -73577,6 +73601,111 @@
         <v>1048</v>
       </c>
       <c r="S118" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="1">
+        <v>2</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H119" s="1">
+        <v>75</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S119" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="1">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H120" s="1">
+        <v>75</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" s="1" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="1">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H121" s="1">
+        <v>75</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S121" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/wine.xlsx
+++ b/wine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0770185a1d4d9fb8/Documents/GitHub/great-books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1961" documentId="8_{B929FCB0-E0C7-431A-BBAD-50753464D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82ECE1A9-F00F-4D1A-A5E1-DEC1E708B55F}"/>
+  <xr:revisionPtr revIDLastSave="1965" documentId="8_{B929FCB0-E0C7-431A-BBAD-50753464D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24DC87A4-3A3E-4E0A-9521-70D0BF7088D9}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{2D3B9375-8A18-42DE-910F-CEC98F840DE9}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8000" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8001" uniqueCount="1107">
   <si>
     <t>Oregon</t>
   </si>
@@ -3397,6 +3397,9 @@
   </si>
   <si>
     <t>Domaine Fabrice Vigot, Vosne-Romanée “Les Damaudes” Côte de Nuits, Burgundy, France 2019</t>
+  </si>
+  <si>
+    <t>rbx10</t>
   </si>
 </sst>
 </file>
@@ -29409,8 +29412,8 @@
   </sheetPr>
   <dimension ref="A1:T987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A850" workbookViewId="0">
-      <selection activeCell="A855" sqref="A855"/>
+    <sheetView tabSelected="1" topLeftCell="A828" workbookViewId="0">
+      <selection activeCell="D834" sqref="D834"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
@@ -58529,7 +58532,7 @@
       </c>
       <c r="T642" s="7"/>
     </row>
-    <row r="643" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A643" s="1">
         <v>4</v>
       </c>
@@ -66828,7 +66831,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="825" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A825" s="1">
         <v>4</v>
       </c>
@@ -67199,90 +67202,65 @@
       <c r="A834" s="1">
         <v>3</v>
       </c>
+      <c r="B834" s="1">
+        <v>35</v>
+      </c>
       <c r="C834" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E834" s="1" t="s">
-        <v>974</v>
+        <v>1106</v>
       </c>
       <c r="F834" s="1" t="s">
-        <v>781</v>
+        <v>475</v>
       </c>
       <c r="G834" s="1" t="s">
-        <v>934</v>
+        <v>729</v>
       </c>
       <c r="H834" s="1">
-        <v>125</v>
-      </c>
-      <c r="K834" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="N834" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O834" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P834" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q834" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="R834" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="S834" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="835" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A835" s="1">
         <v>3</v>
       </c>
-      <c r="C835" s="7">
-        <v>1</v>
-      </c>
-      <c r="D835" s="7"/>
+      <c r="C835" s="1">
+        <v>6</v>
+      </c>
       <c r="E835" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="F835" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G835" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="H835" s="17">
-        <f>1994/24</f>
-        <v>83.083333333333329</v>
-      </c>
-      <c r="I835" s="17"/>
-      <c r="J835" s="7"/>
-      <c r="K835" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="L835" s="7"/>
-      <c r="M835" s="7"/>
-      <c r="N835" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O835" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P835" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q835" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R835" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="S835" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T835" s="7"/>
+      <c r="F835" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="G835" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="H835" s="1">
+        <v>125</v>
+      </c>
+      <c r="K835" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="N835" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O835" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P835" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q835" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="R835" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="S835" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="836" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A836" s="1">
@@ -67298,17 +67276,17 @@
       <c r="F836" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="G836" s="7" t="s">
-        <v>425</v>
+      <c r="G836" s="38" t="s">
+        <v>428</v>
       </c>
       <c r="H836" s="17">
-        <f>1278/12</f>
-        <v>106.5</v>
+        <f>1994/24</f>
+        <v>83.083333333333329</v>
       </c>
       <c r="I836" s="17"/>
       <c r="J836" s="7"/>
       <c r="K836" s="7" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="L836" s="7"/>
       <c r="M836" s="7"/>
@@ -67316,15 +67294,17 @@
         <v>115</v>
       </c>
       <c r="O836" s="7" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="P836" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="Q836" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="R836" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="R836" s="7" t="s">
+        <v>623</v>
+      </c>
       <c r="S836" s="7" t="s">
         <v>17</v>
       </c>
@@ -67338,36 +67318,37 @@
         <v>1</v>
       </c>
       <c r="D837" s="7"/>
-      <c r="E837" s="7" t="s">
+      <c r="E837" s="1" t="s">
         <v>974</v>
       </c>
       <c r="F837" s="7" t="s">
-        <v>781</v>
+        <v>436</v>
       </c>
       <c r="G837" s="7" t="s">
-        <v>965</v>
-      </c>
-      <c r="H837" s="7">
-        <v>100</v>
-      </c>
-      <c r="I837" s="7"/>
+        <v>425</v>
+      </c>
+      <c r="H837" s="17">
+        <f>1278/12</f>
+        <v>106.5</v>
+      </c>
+      <c r="I837" s="17"/>
       <c r="J837" s="7"/>
       <c r="K837" s="7" t="s">
-        <v>770</v>
+        <v>426</v>
       </c>
       <c r="L837" s="7"/>
       <c r="M837" s="7"/>
       <c r="N837" s="7" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O837" s="7" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="P837" s="7" t="s">
-        <v>334</v>
+        <v>624</v>
       </c>
       <c r="Q837" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="R837" s="7"/>
       <c r="S837" s="7" t="s">
@@ -67390,33 +67371,31 @@
         <v>781</v>
       </c>
       <c r="G838" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H838" s="7">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="I838" s="7"/>
       <c r="J838" s="7"/>
       <c r="K838" s="7" t="s">
-        <v>968</v>
+        <v>770</v>
       </c>
       <c r="L838" s="7"/>
       <c r="M838" s="7"/>
       <c r="N838" s="7" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O838" s="7" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="P838" s="7" t="s">
-        <v>969</v>
+        <v>334</v>
       </c>
       <c r="Q838" s="7" t="s">
-        <v>970</v>
-      </c>
-      <c r="R838" s="7" t="s">
-        <v>971</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="R838" s="7"/>
       <c r="S838" s="7" t="s">
         <v>17</v>
       </c>
@@ -67437,31 +67416,33 @@
         <v>781</v>
       </c>
       <c r="G839" s="7" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="H839" s="7">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="I839" s="7"/>
       <c r="J839" s="7"/>
       <c r="K839" s="7" t="s">
-        <v>494</v>
+        <v>968</v>
       </c>
       <c r="L839" s="7"/>
       <c r="M839" s="7"/>
       <c r="N839" s="7" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="O839" s="7" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="P839" s="7" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="Q839" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="R839" s="7"/>
+        <v>970</v>
+      </c>
+      <c r="R839" s="7" t="s">
+        <v>971</v>
+      </c>
       <c r="S839" s="7" t="s">
         <v>17</v>
       </c>
@@ -67479,17 +67460,19 @@
         <v>974</v>
       </c>
       <c r="F840" s="7" t="s">
-        <v>720</v>
+        <v>781</v>
       </c>
       <c r="G840" s="7" t="s">
-        <v>709</v>
+        <v>972</v>
       </c>
       <c r="H840" s="7">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I840" s="7"/>
       <c r="J840" s="7"/>
-      <c r="K840" s="7"/>
+      <c r="K840" s="7" t="s">
+        <v>494</v>
+      </c>
       <c r="L840" s="7"/>
       <c r="M840" s="7"/>
       <c r="N840" s="7" t="s">
@@ -67499,7 +67482,7 @@
         <v>85</v>
       </c>
       <c r="P840" s="7" t="s">
-        <v>776</v>
+        <v>973</v>
       </c>
       <c r="Q840" s="7" t="s">
         <v>86</v>
@@ -67508,216 +67491,221 @@
       <c r="S840" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T840" s="7" t="s">
-        <v>779</v>
-      </c>
+      <c r="T840" s="7"/>
     </row>
     <row r="841" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A841" s="1">
         <v>3</v>
       </c>
-      <c r="C841" s="1">
-        <v>2</v>
-      </c>
-      <c r="E841" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F841" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G841" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H841" s="1">
-        <v>175</v>
-      </c>
-      <c r="N841" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O841" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P841" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q841" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="S841" s="1" t="s">
-        <v>17</v>
+      <c r="C841" s="7">
+        <v>1</v>
+      </c>
+      <c r="D841" s="7"/>
+      <c r="E841" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="F841" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="G841" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="H841" s="7">
+        <v>80</v>
+      </c>
+      <c r="I841" s="7"/>
+      <c r="J841" s="7"/>
+      <c r="K841" s="7"/>
+      <c r="L841" s="7"/>
+      <c r="M841" s="7"/>
+      <c r="N841" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O841" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P841" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q841" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R841" s="7"/>
+      <c r="S841" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T841" s="7" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="842" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A842" s="1">
         <v>3</v>
       </c>
-      <c r="C842" s="7">
-        <v>6</v>
-      </c>
-      <c r="D842" s="7"/>
-      <c r="E842" s="7" t="s">
+      <c r="C842" s="1">
+        <v>2</v>
+      </c>
+      <c r="E842" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="F842" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="G842" s="7" t="s">
-        <v>925</v>
-      </c>
-      <c r="H842" s="7">
-        <v>50</v>
-      </c>
-      <c r="I842" s="7"/>
-      <c r="J842" s="7"/>
-      <c r="K842" s="7" t="s">
-        <v>911</v>
-      </c>
-      <c r="L842" s="7"/>
-      <c r="M842" s="7"/>
-      <c r="N842" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O842" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P842" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="Q842" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="R842" s="7"/>
-      <c r="S842" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T842" s="7"/>
+      <c r="F842" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G842" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H842" s="1">
+        <v>175</v>
+      </c>
+      <c r="N842" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O842" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P842" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q842" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="S842" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="843" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A843" s="1">
         <v>3</v>
       </c>
-      <c r="C843" s="1">
-        <v>4</v>
-      </c>
-      <c r="E843" s="1" t="s">
+      <c r="C843" s="7">
+        <v>6</v>
+      </c>
+      <c r="D843" s="7"/>
+      <c r="E843" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="F843" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="G843" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="H843" s="1">
-        <v>52</v>
-      </c>
-      <c r="K843" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="N843" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O843" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q843" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="S843" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T843" s="1" t="s">
-        <v>801</v>
-      </c>
+      <c r="F843" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="G843" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="H843" s="7">
+        <v>50</v>
+      </c>
+      <c r="I843" s="7"/>
+      <c r="J843" s="7"/>
+      <c r="K843" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="L843" s="7"/>
+      <c r="M843" s="7"/>
+      <c r="N843" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O843" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P843" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q843" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="R843" s="7"/>
+      <c r="S843" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T843" s="7"/>
     </row>
     <row r="844" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A844" s="1">
         <v>3</v>
       </c>
-      <c r="B844" s="1">
-        <v>35</v>
-      </c>
       <c r="C844" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E844" s="1" t="s">
-        <v>1089</v>
+        <v>1052</v>
       </c>
       <c r="F844" s="1" t="s">
-        <v>475</v>
+        <v>785</v>
       </c>
       <c r="G844" s="1" t="s">
-        <v>726</v>
+        <v>799</v>
       </c>
       <c r="H844" s="1">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="K844" s="1" t="s">
-        <v>445</v>
+        <v>800</v>
       </c>
       <c r="N844" s="1" t="s">
         <v>72</v>
       </c>
       <c r="O844" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P844" s="1" t="s">
-        <v>727</v>
+        <v>354</v>
       </c>
       <c r="Q844" s="1" t="s">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="S844" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T844" s="1" t="s">
-        <v>728</v>
+        <v>801</v>
       </c>
     </row>
     <row r="845" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A845" s="1">
-        <v>1</v>
-      </c>
-      <c r="C845" s="7">
+        <v>3</v>
+      </c>
+      <c r="B845" s="1">
+        <v>35</v>
+      </c>
+      <c r="C845" s="1">
         <v>12</v>
       </c>
-      <c r="D845" s="7"/>
-      <c r="E845" s="7"/>
-      <c r="F845" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G845" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="H845" s="7">
-        <v>70</v>
-      </c>
-      <c r="I845" s="17"/>
-      <c r="J845" s="7"/>
-      <c r="L845" s="7"/>
-      <c r="M845" s="7"/>
-      <c r="N845" s="7" t="s">
+      <c r="E845" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F845" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G845" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H845" s="1">
+        <v>105</v>
+      </c>
+      <c r="K845" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="N845" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O845" s="7" t="s">
+      <c r="O845" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P845" s="7"/>
-      <c r="Q845" s="7" t="s">
+      <c r="P845" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q845" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R845" s="7"/>
-      <c r="S845" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T845" s="7"/>
+      <c r="S845" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T845" s="1" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="846" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A846" s="1">
         <v>1</v>
       </c>
       <c r="C846" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D846" s="7"/>
       <c r="E846" s="7"/>
@@ -67725,24 +67713,24 @@
         <v>603</v>
       </c>
       <c r="G846" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H846" s="7">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="I846" s="17"/>
       <c r="J846" s="7"/>
       <c r="L846" s="7"/>
       <c r="M846" s="7"/>
       <c r="N846" s="7" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="O846" s="7" t="s">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="P846" s="7"/>
       <c r="Q846" s="7" t="s">
-        <v>602</v>
+        <v>75</v>
       </c>
       <c r="R846" s="7"/>
       <c r="S846" s="7" t="s">
@@ -67763,10 +67751,10 @@
         <v>603</v>
       </c>
       <c r="G847" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H847" s="7">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I847" s="17"/>
       <c r="J847" s="7"/>
@@ -67801,10 +67789,10 @@
         <v>603</v>
       </c>
       <c r="G848" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H848" s="7">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I848" s="17"/>
       <c r="J848" s="7"/>
@@ -67839,10 +67827,10 @@
         <v>603</v>
       </c>
       <c r="G849" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="H849" s="7">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="I849" s="17"/>
       <c r="J849" s="7"/>
@@ -67871,25 +67859,32 @@
       <c r="C850" s="7">
         <v>6</v>
       </c>
+      <c r="D850" s="7"/>
+      <c r="E850" s="7"/>
       <c r="F850" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="G850" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="H850" s="1">
-        <v>80</v>
+      <c r="G850" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H850" s="7">
+        <v>130</v>
       </c>
       <c r="I850" s="17"/>
-      <c r="N850" s="1" t="s">
+      <c r="J850" s="7"/>
+      <c r="L850" s="7"/>
+      <c r="M850" s="7"/>
+      <c r="N850" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="O850" s="1" t="s">
+      <c r="O850" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="Q850" s="1" t="s">
+      <c r="P850" s="7"/>
+      <c r="Q850" s="7" t="s">
         <v>602</v>
       </c>
+      <c r="R850" s="7"/>
       <c r="S850" s="7" t="s">
         <v>17</v>
       </c>
@@ -67899,36 +67894,32 @@
       <c r="A851" s="1">
         <v>1</v>
       </c>
-      <c r="C851" s="1">
-        <v>4</v>
-      </c>
-      <c r="F851" s="1" t="s">
-        <v>720</v>
+      <c r="C851" s="7">
+        <v>6</v>
+      </c>
+      <c r="F851" s="7" t="s">
+        <v>603</v>
       </c>
       <c r="G851" s="1" t="s">
-        <v>722</v>
+        <v>597</v>
       </c>
       <c r="H851" s="1">
-        <v>53</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I851" s="17"/>
       <c r="N851" s="1" t="s">
         <v>115</v>
       </c>
       <c r="O851" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P851" s="1" t="s">
-        <v>630</v>
+        <v>239</v>
       </c>
       <c r="Q851" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S851" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="T851" s="1" t="s">
-        <v>725</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="S851" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T851" s="7"/>
     </row>
     <row r="852" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A852" s="1">
@@ -67941,7 +67932,7 @@
         <v>720</v>
       </c>
       <c r="G852" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H852" s="1">
         <v>53</v>
@@ -67976,7 +67967,7 @@
         <v>720</v>
       </c>
       <c r="G853" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H853" s="1">
         <v>53</v>
@@ -68002,19 +67993,37 @@
     </row>
     <row r="854" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A854" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C854" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F854" s="1" t="s">
-        <v>475</v>
+        <v>720</v>
       </c>
       <c r="G854" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="H854" s="1">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="N854" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O854" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P854" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q854" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S854" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T854" s="1" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="855" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">

--- a/wine.xlsx
+++ b/wine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0770185a1d4d9fb8/Documents/GitHub/great-books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1965" documentId="8_{B929FCB0-E0C7-431A-BBAD-50753464D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24DC87A4-3A3E-4E0A-9521-70D0BF7088D9}"/>
+  <xr:revisionPtr revIDLastSave="1966" documentId="8_{B929FCB0-E0C7-431A-BBAD-50753464D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0F3A9FC-3BB1-4FB9-B769-85270A85638B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{2D3B9375-8A18-42DE-910F-CEC98F840DE9}"/>
   </bookViews>
@@ -29412,8 +29412,8 @@
   </sheetPr>
   <dimension ref="A1:T987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A828" workbookViewId="0">
-      <selection activeCell="D834" sqref="D834"/>
+    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
+      <selection activeCell="B551" sqref="B551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
@@ -29523,7 +29523,7 @@
         <v>95</v>
       </c>
       <c r="I2" s="37">
-        <f>C2*H2</f>
+        <f t="shared" ref="I2:I14" si="0">C2*H2</f>
         <v>190</v>
       </c>
       <c r="J2" s="6">
@@ -29577,7 +29577,7 @@
         <v>75</v>
       </c>
       <c r="I3" s="37">
-        <f>C3*H3</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="J3" s="6">
@@ -29631,7 +29631,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="37">
-        <f>C4*H4</f>
+        <f t="shared" si="0"/>
         <v>171</v>
       </c>
       <c r="J4" s="6">
@@ -29685,7 +29685,7 @@
         <v>40</v>
       </c>
       <c r="I5" s="37">
-        <f>C5*H5</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="J5" s="6">
@@ -29739,7 +29739,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="37">
-        <f>C6*H6</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="J6" s="6">
@@ -29793,7 +29793,7 @@
         <v>35</v>
       </c>
       <c r="I7" s="37">
-        <f>C7*H7</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="J7" s="6">
@@ -29847,7 +29847,7 @@
         <v>75</v>
       </c>
       <c r="I8" s="37">
-        <f>C8*H8</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="J8" s="6">
@@ -29899,7 +29899,7 @@
         <v>49</v>
       </c>
       <c r="I9" s="37">
-        <f>C9*H9</f>
+        <f t="shared" si="0"/>
         <v>147</v>
       </c>
       <c r="J9" s="6">
@@ -29955,7 +29955,7 @@
         <v>84</v>
       </c>
       <c r="I10" s="37">
-        <f>C10*H10</f>
+        <f t="shared" si="0"/>
         <v>252</v>
       </c>
       <c r="J10" s="6">
@@ -30009,7 +30009,7 @@
         <v>89</v>
       </c>
       <c r="I11" s="37">
-        <f>C11*H11</f>
+        <f t="shared" si="0"/>
         <v>267</v>
       </c>
       <c r="J11" s="6">
@@ -30063,7 +30063,7 @@
         <v>95</v>
       </c>
       <c r="I12" s="37">
-        <f>C12*H12</f>
+        <f t="shared" si="0"/>
         <v>285</v>
       </c>
       <c r="J12" s="6">
@@ -30117,7 +30117,7 @@
         <v>98</v>
       </c>
       <c r="I13" s="37">
-        <f>C13*H13</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="J13" s="6">
@@ -30171,7 +30171,7 @@
         <v>98</v>
       </c>
       <c r="I14" s="37">
-        <f>C14*H14</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="J14" s="6">
@@ -30225,7 +30225,7 @@
         <v>40</v>
       </c>
       <c r="I15" s="26">
-        <f>H15*C15</f>
+        <f t="shared" ref="I15:I43" si="1">H15*C15</f>
         <v>80</v>
       </c>
       <c r="J15" s="6">
@@ -30275,7 +30275,7 @@
         <v>45</v>
       </c>
       <c r="I16" s="26">
-        <f>H16*C16</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="J16" s="6">
@@ -30325,7 +30325,7 @@
         <v>120</v>
       </c>
       <c r="I17" s="26">
-        <f>H17*C17</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="J17" s="6">
@@ -30375,7 +30375,7 @@
         <v>37</v>
       </c>
       <c r="I18" s="26">
-        <f>H18*C18</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="J18" s="6">
@@ -30425,7 +30425,7 @@
         <v>125</v>
       </c>
       <c r="I19" s="26">
-        <f>H19*C19</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="J19" s="6">
@@ -30475,7 +30475,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="26">
-        <f>H20*C20</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J20" s="6">
@@ -30525,7 +30525,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="26">
-        <f>H21*C21</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J21" s="6">
@@ -30575,7 +30575,7 @@
         <v>30</v>
       </c>
       <c r="I22" s="26">
-        <f>H22*C22</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J22" s="6">
@@ -30625,7 +30625,7 @@
         <v>23</v>
       </c>
       <c r="I23" s="26">
-        <f>H23*C23</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="J23" s="6">
@@ -30675,7 +30675,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="26">
-        <f>H24*C24</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J24" s="6">
@@ -30725,7 +30725,7 @@
         <v>59</v>
       </c>
       <c r="I25" s="26">
-        <f>H25*C25</f>
+        <f t="shared" si="1"/>
         <v>236</v>
       </c>
       <c r="J25" s="6">
@@ -30775,7 +30775,7 @@
         <v>20</v>
       </c>
       <c r="I26" s="26">
-        <f>H26*C26</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="J26" s="6">
@@ -30825,7 +30825,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="26">
-        <f>H27*C27</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="J27" s="6">
@@ -30875,7 +30875,7 @@
         <v>38</v>
       </c>
       <c r="I28" s="26">
-        <f>H28*C28</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="J28" s="6">
@@ -30929,7 +30929,7 @@
         <v>21</v>
       </c>
       <c r="I29" s="26">
-        <f>H29*C29</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="J29" s="6">
@@ -30979,7 +30979,7 @@
         <v>40</v>
       </c>
       <c r="I30" s="26">
-        <f>H30*C30</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="J30" s="6">
@@ -31029,7 +31029,7 @@
         <v>19</v>
       </c>
       <c r="I31" s="26">
-        <f>H31*C31</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J31" s="6">
@@ -31079,7 +31079,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="26">
-        <f>H32*C32</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J32" s="6">
@@ -31129,7 +31129,7 @@
         <v>79</v>
       </c>
       <c r="I33" s="26">
-        <f>H33*C33</f>
+        <f t="shared" si="1"/>
         <v>158</v>
       </c>
       <c r="J33" s="6">
@@ -31183,7 +31183,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="26">
-        <f>H34*C34</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="J34" s="6">
@@ -31233,7 +31233,7 @@
         <v>19</v>
       </c>
       <c r="I35" s="26">
-        <f>H35*C35</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J35" s="6">
@@ -31283,7 +31283,7 @@
         <v>40</v>
       </c>
       <c r="I36" s="26">
-        <f>H36*C36</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="J36" s="6">
@@ -31333,7 +31333,7 @@
         <v>25</v>
       </c>
       <c r="I37" s="26">
-        <f>H37*C37</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J37" s="6">
@@ -31383,7 +31383,7 @@
         <v>20</v>
       </c>
       <c r="I38" s="26">
-        <f>H38*C38</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="J38" s="6">
@@ -31433,7 +31433,7 @@
         <v>15</v>
       </c>
       <c r="I39" s="26">
-        <f>H39*C39</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J39" s="6">
@@ -31483,7 +31483,7 @@
         <v>88</v>
       </c>
       <c r="I40" s="26">
-        <f>H40*C40</f>
+        <f t="shared" si="1"/>
         <v>352</v>
       </c>
       <c r="J40" s="6">
@@ -31533,7 +31533,7 @@
         <v>39</v>
       </c>
       <c r="I41" s="26">
-        <f>H41*C41</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="J41" s="6">
@@ -31583,7 +31583,7 @@
         <v>22</v>
       </c>
       <c r="I42" s="26">
-        <f>H42*C42</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="J42" s="6">
@@ -31633,7 +31633,7 @@
         <v>19</v>
       </c>
       <c r="I43" s="26">
-        <f>H43*C43</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J43" s="6">
@@ -37287,7 +37287,7 @@
         <v>75</v>
       </c>
       <c r="I175" s="16">
-        <f>C175*H175</f>
+        <f t="shared" ref="I175:I198" si="2">C175*H175</f>
         <v>300</v>
       </c>
       <c r="J175" s="7">
@@ -37341,7 +37341,7 @@
         <v>75</v>
       </c>
       <c r="I176" s="16">
-        <f>C176*H176</f>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="J176" s="7">
@@ -37395,7 +37395,7 @@
         <v>77</v>
       </c>
       <c r="I177" s="16">
-        <f>C177*H177</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="J177" s="7">
@@ -37449,7 +37449,7 @@
         <v>40</v>
       </c>
       <c r="I178" s="16">
-        <f>C178*H178</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="J178" s="7">
@@ -37503,7 +37503,7 @@
         <v>42</v>
       </c>
       <c r="I179" s="16">
-        <f>C179*H179</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="J179" s="7">
@@ -37557,7 +37557,7 @@
         <v>75</v>
       </c>
       <c r="I180" s="16">
-        <f>C180*H180</f>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="J180" s="7">
@@ -37611,7 +37611,7 @@
         <v>50</v>
       </c>
       <c r="I181" s="16">
-        <f>C181*H181</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J181" s="7">
@@ -37665,7 +37665,7 @@
         <v>49</v>
       </c>
       <c r="I182" s="16">
-        <f>C182*H182</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="J182" s="7">
@@ -37719,7 +37719,7 @@
         <v>59</v>
       </c>
       <c r="I183" s="16">
-        <f>C183*H183</f>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="J183" s="7">
@@ -37773,7 +37773,7 @@
         <v>77</v>
       </c>
       <c r="I184" s="16">
-        <f>C184*H184</f>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="J184" s="7">
@@ -37827,7 +37827,7 @@
         <v>110</v>
       </c>
       <c r="I185" s="16">
-        <f>C185*H185</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="J185" s="7">
@@ -37881,7 +37881,7 @@
         <v>69</v>
       </c>
       <c r="I186" s="16">
-        <f>C186*H186</f>
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="J186" s="7">
@@ -37935,7 +37935,7 @@
         <v>50</v>
       </c>
       <c r="I187" s="16">
-        <f>C187*H187</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="J187" s="7">
@@ -37989,7 +37989,7 @@
         <v>65</v>
       </c>
       <c r="I188" s="16">
-        <f>C188*H188</f>
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
       <c r="J188" s="7">
@@ -38043,7 +38043,7 @@
         <v>70</v>
       </c>
       <c r="I189" s="16">
-        <f>C189*H189</f>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="J189" s="7">
@@ -38095,7 +38095,7 @@
         <v>45</v>
       </c>
       <c r="I190" s="16">
-        <f>C190*H190</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="J190" s="7">
@@ -38149,7 +38149,7 @@
         <v>57</v>
       </c>
       <c r="I191" s="16">
-        <f>C191*H191</f>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="J191" s="7">
@@ -38203,7 +38203,7 @@
         <v>80</v>
       </c>
       <c r="I192" s="16">
-        <f>C192*H192</f>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="J192" s="7">
@@ -38257,7 +38257,7 @@
         <v>69</v>
       </c>
       <c r="I193" s="16">
-        <f>C193*H193</f>
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="J193" s="7">
@@ -38311,7 +38311,7 @@
         <v>59</v>
       </c>
       <c r="I194" s="16">
-        <f>C194*H194</f>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="J194" s="7">
@@ -38365,7 +38365,7 @@
         <v>67</v>
       </c>
       <c r="I195" s="16">
-        <f>C195*H195</f>
+        <f t="shared" si="2"/>
         <v>201</v>
       </c>
       <c r="J195" s="7">
@@ -38419,7 +38419,7 @@
         <v>99</v>
       </c>
       <c r="I196" s="16">
-        <f>C196*H196</f>
+        <f t="shared" si="2"/>
         <v>297</v>
       </c>
       <c r="J196" s="7">
@@ -38473,7 +38473,7 @@
         <v>49</v>
       </c>
       <c r="I197" s="16">
-        <f>C197*H197</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="J197" s="7">
@@ -38527,7 +38527,7 @@
         <v>79</v>
       </c>
       <c r="I198" s="16">
-        <f>C198*H198</f>
+        <f t="shared" si="2"/>
         <v>237</v>
       </c>
       <c r="J198" s="7">
@@ -38581,7 +38581,7 @@
         <v>150</v>
       </c>
       <c r="I199" s="17">
-        <f>H199*C199</f>
+        <f t="shared" ref="I199:I229" si="3">H199*C199</f>
         <v>300</v>
       </c>
       <c r="J199" s="7">
@@ -38631,7 +38631,7 @@
         <v>38</v>
       </c>
       <c r="I200" s="17">
-        <f>H200*C200</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="J200" s="7">
@@ -38681,7 +38681,7 @@
         <v>100</v>
       </c>
       <c r="I201" s="2">
-        <f>H201*C201</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="J201" s="1">
@@ -38726,7 +38726,7 @@
         <v>20</v>
       </c>
       <c r="I202" s="2">
-        <f>H202*C202</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J202" s="1">
@@ -38771,7 +38771,7 @@
         <v>45</v>
       </c>
       <c r="I203" s="2">
-        <f>H203*C203</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="J203" s="1">
@@ -38816,7 +38816,7 @@
         <v>20</v>
       </c>
       <c r="I204" s="17">
-        <f>H204*C204</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J204" s="7">
@@ -38866,7 +38866,7 @@
         <v>49</v>
       </c>
       <c r="I205" s="17">
-        <f>H205*C205</f>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="J205" s="7">
@@ -38916,7 +38916,7 @@
         <v>19</v>
       </c>
       <c r="I206" s="2">
-        <f>H206*C206</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J206" s="1">
@@ -38961,7 +38961,7 @@
         <v>15</v>
       </c>
       <c r="I207" s="2">
-        <f>H207*C207</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J207" s="1">
@@ -39006,7 +39006,7 @@
         <v>45</v>
       </c>
       <c r="I208" s="17">
-        <f>H208*C208</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="J208" s="7">
@@ -39056,7 +39056,7 @@
         <v>28</v>
       </c>
       <c r="I209" s="2">
-        <f>H209*C209</f>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="J209" s="1">
@@ -39101,7 +39101,7 @@
         <v>19</v>
       </c>
       <c r="I210" s="2">
-        <f>H210*C210</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J210" s="1">
@@ -39146,7 +39146,7 @@
         <v>15</v>
       </c>
       <c r="I211" s="2">
-        <f>H211*C211</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J211" s="1">
@@ -39191,7 +39191,7 @@
         <v>25</v>
       </c>
       <c r="I212" s="17">
-        <f>H212*C212</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="J212" s="7">
@@ -39241,7 +39241,7 @@
         <v>15</v>
       </c>
       <c r="I213" s="2">
-        <f>H213*C213</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="J213" s="1">
@@ -39286,7 +39286,7 @@
         <v>19</v>
       </c>
       <c r="I214" s="2">
-        <f>H214*C214</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J214" s="1">
@@ -39331,7 +39331,7 @@
         <v>16</v>
       </c>
       <c r="I215" s="17">
-        <f>H215*C215</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="J215" s="7">
@@ -39381,7 +39381,7 @@
         <v>25</v>
       </c>
       <c r="I216" s="17">
-        <f>H216*C216</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="J216" s="7">
@@ -39431,7 +39431,7 @@
         <v>19</v>
       </c>
       <c r="I217" s="17">
-        <f>H217*C217</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J217" s="7">
@@ -39481,7 +39481,7 @@
         <v>21</v>
       </c>
       <c r="I218" s="2">
-        <f>H218*C218</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="J218" s="1">
@@ -39526,7 +39526,7 @@
         <v>15</v>
       </c>
       <c r="I219" s="2">
-        <f>H219*C219</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J219" s="1">
@@ -39571,7 +39571,7 @@
         <v>30</v>
       </c>
       <c r="I220" s="17">
-        <f>H220*C220</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="J220" s="7">
@@ -39621,7 +39621,7 @@
         <v>40</v>
       </c>
       <c r="I221" s="17">
-        <f>H221*C221</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J221" s="7">
@@ -39671,7 +39671,7 @@
         <v>23</v>
       </c>
       <c r="I222" s="2">
-        <f>H222*C222</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="J222" s="1">
@@ -39716,7 +39716,7 @@
         <v>30</v>
       </c>
       <c r="I223" s="2">
-        <f>H223*C223</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="J223" s="1">
@@ -39761,7 +39761,7 @@
         <v>19</v>
       </c>
       <c r="I224" s="2">
-        <f>H224*C224</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J224" s="1">
@@ -39806,7 +39806,7 @@
         <v>15</v>
       </c>
       <c r="I225" s="2">
-        <f>H225*C225</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J225" s="1">
@@ -39851,7 +39851,7 @@
         <v>55</v>
       </c>
       <c r="I226" s="17">
-        <f>H226*C226</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="J226" s="7">
@@ -39901,7 +39901,7 @@
         <v>38</v>
       </c>
       <c r="I227" s="17">
-        <f>H227*C227</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="J227" s="7">
@@ -39955,7 +39955,7 @@
         <v>38</v>
       </c>
       <c r="I228" s="2">
-        <f>H228*C228</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="J228" s="1">
@@ -40006,7 +40006,7 @@
         <v>23</v>
       </c>
       <c r="I229" s="2">
-        <f>H229*C229</f>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="J229" s="1">
@@ -44863,7 +44863,7 @@
         <v>69</v>
       </c>
       <c r="I343" s="16">
-        <f>C343*H343</f>
+        <f t="shared" ref="I343:I358" si="4">C343*H343</f>
         <v>207</v>
       </c>
       <c r="J343" s="7">
@@ -44917,7 +44917,7 @@
         <v>39</v>
       </c>
       <c r="I344" s="16">
-        <f>C344*H344</f>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="J344" s="7">
@@ -44971,7 +44971,7 @@
         <v>69</v>
       </c>
       <c r="I345" s="16">
-        <f>C345*H345</f>
+        <f t="shared" si="4"/>
         <v>207</v>
       </c>
       <c r="J345" s="7">
@@ -45025,7 +45025,7 @@
         <v>67</v>
       </c>
       <c r="I346" s="16">
-        <f>C346*H346</f>
+        <f t="shared" si="4"/>
         <v>201</v>
       </c>
       <c r="J346" s="7">
@@ -45079,7 +45079,7 @@
         <v>49</v>
       </c>
       <c r="I347" s="16">
-        <f>C347*H347</f>
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="J347" s="7">
@@ -45131,7 +45131,7 @@
         <v>90</v>
       </c>
       <c r="I348" s="16">
-        <f>C348*H348</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="J348" s="7">
@@ -45185,7 +45185,7 @@
         <v>58</v>
       </c>
       <c r="I349" s="16">
-        <f>C349*H349</f>
+        <f t="shared" si="4"/>
         <v>174</v>
       </c>
       <c r="J349" s="7">
@@ -45237,7 +45237,7 @@
         <v>65</v>
       </c>
       <c r="I350" s="16">
-        <f>C350*H350</f>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
       <c r="J350" s="7">
@@ -45291,7 +45291,7 @@
         <v>35</v>
       </c>
       <c r="I351" s="16">
-        <f>C351*H351</f>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="J351" s="7">
@@ -45345,7 +45345,7 @@
         <v>89</v>
       </c>
       <c r="I352" s="16">
-        <f>C352*H352</f>
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="J352" s="7">
@@ -45399,7 +45399,7 @@
         <v>22</v>
       </c>
       <c r="I353" s="16">
-        <f>C353*H353</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="J353" s="7">
@@ -45451,7 +45451,7 @@
         <v>110</v>
       </c>
       <c r="I354" s="16">
-        <f>C354*H354</f>
+        <f t="shared" si="4"/>
         <v>330</v>
       </c>
       <c r="J354" s="7">
@@ -45505,7 +45505,7 @@
         <v>110</v>
       </c>
       <c r="I355" s="16">
-        <f>C355*H355</f>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="J355" s="7">
@@ -45559,7 +45559,7 @@
         <v>69</v>
       </c>
       <c r="I356" s="16">
-        <f>C356*H356</f>
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="J356" s="7">
@@ -45611,7 +45611,7 @@
         <v>79</v>
       </c>
       <c r="I357" s="16">
-        <f>C357*H357</f>
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
       <c r="J357" s="7">
@@ -45665,7 +45665,7 @@
         <v>89</v>
       </c>
       <c r="I358" s="16">
-        <f>C358*H358</f>
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="J358" s="7">
@@ -45764,7 +45764,7 @@
         <v>21</v>
       </c>
       <c r="I360" s="17">
-        <f>H360*C360</f>
+        <f t="shared" ref="I360:I396" si="5">H360*C360</f>
         <v>42</v>
       </c>
       <c r="J360" s="7">
@@ -45814,7 +45814,7 @@
         <v>18</v>
       </c>
       <c r="I361" s="17">
-        <f>H361*C361</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="J361" s="7">
@@ -45864,7 +45864,7 @@
         <v>19</v>
       </c>
       <c r="I362" s="17">
-        <f>H362*C362</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J362" s="7">
@@ -45914,7 +45914,7 @@
         <v>15</v>
       </c>
       <c r="I363" s="17">
-        <f>H363*C363</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="J363" s="7">
@@ -45964,7 +45964,7 @@
         <v>19</v>
       </c>
       <c r="I364" s="17">
-        <f>H364*C364</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J364" s="7">
@@ -46014,7 +46014,7 @@
         <v>95</v>
       </c>
       <c r="I365" s="17">
-        <f>H365*C365</f>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="J365" s="7">
@@ -46064,7 +46064,7 @@
         <v>79</v>
       </c>
       <c r="I366" s="17">
-        <f>H366*C366</f>
+        <f t="shared" si="5"/>
         <v>158</v>
       </c>
       <c r="J366" s="7">
@@ -46118,7 +46118,7 @@
         <v>20</v>
       </c>
       <c r="I367" s="2">
-        <f>H367*C367</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="J367" s="1">
@@ -46163,7 +46163,7 @@
         <v>23</v>
       </c>
       <c r="I368" s="2">
-        <f>H368*C368</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="J368" s="1">
@@ -46208,7 +46208,7 @@
         <v>22</v>
       </c>
       <c r="I369" s="17">
-        <f>H369*C369</f>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="J369" s="7">
@@ -46258,7 +46258,7 @@
         <v>20</v>
       </c>
       <c r="I370" s="17">
-        <f>H370*C370</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="J370" s="7">
@@ -46308,7 +46308,7 @@
         <v>19</v>
       </c>
       <c r="I371" s="2">
-        <f>H371*C371</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J371" s="1">
@@ -46353,7 +46353,7 @@
         <v>19</v>
       </c>
       <c r="I372" s="2">
-        <f>H372*C372</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J372" s="1">
@@ -46398,7 +46398,7 @@
         <v>32</v>
       </c>
       <c r="I373" s="17">
-        <f>H373*C373</f>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="J373" s="7">
@@ -46448,7 +46448,7 @@
         <v>88</v>
       </c>
       <c r="I374" s="17">
-        <f>H374*C374</f>
+        <f t="shared" si="5"/>
         <v>352</v>
       </c>
       <c r="J374" s="7">
@@ -46498,7 +46498,7 @@
         <v>39</v>
       </c>
       <c r="I375" s="17">
-        <f>H375*C375</f>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="J375" s="7">
@@ -46548,7 +46548,7 @@
         <v>38</v>
       </c>
       <c r="I376" s="17">
-        <f>H376*C376</f>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="J376" s="7">
@@ -46598,7 +46598,7 @@
         <v>88</v>
       </c>
       <c r="I377" s="17">
-        <f>H377*C377</f>
+        <f t="shared" si="5"/>
         <v>352</v>
       </c>
       <c r="J377" s="7">
@@ -46648,7 +46648,7 @@
         <v>100</v>
       </c>
       <c r="I378" s="2">
-        <f>H378*C378</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="J378" s="1">
@@ -46693,7 +46693,7 @@
         <v>19</v>
       </c>
       <c r="I379" s="2">
-        <f>H379*C379</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="J379" s="1">
@@ -46738,7 +46738,7 @@
         <v>59</v>
       </c>
       <c r="I380" s="2">
-        <f>H380*C380</f>
+        <f t="shared" si="5"/>
         <v>236</v>
       </c>
       <c r="J380" s="1">
@@ -46783,7 +46783,7 @@
         <v>21</v>
       </c>
       <c r="I381" s="2">
-        <f>H381*C381</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="J381" s="1">
@@ -46828,7 +46828,7 @@
         <v>15</v>
       </c>
       <c r="I382" s="2">
-        <f>H382*C382</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="J382" s="1">
@@ -46873,7 +46873,7 @@
         <v>49</v>
       </c>
       <c r="I383" s="2">
-        <f>H383*C383</f>
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
       <c r="J383" s="1">
@@ -46918,7 +46918,7 @@
         <v>15</v>
       </c>
       <c r="I384" s="2">
-        <f>H384*C384</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="J384" s="1">
@@ -46963,7 +46963,7 @@
         <v>19</v>
       </c>
       <c r="I385" s="17">
-        <f>H385*C385</f>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="J385" s="7">
@@ -47013,7 +47013,7 @@
         <v>22</v>
       </c>
       <c r="I386" s="2">
-        <f>H386*C386</f>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="J386" s="1">
@@ -47058,7 +47058,7 @@
         <v>19</v>
       </c>
       <c r="I387" s="2">
-        <f>H387*C387</f>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="J387" s="1">
@@ -47103,7 +47103,7 @@
         <v>65</v>
       </c>
       <c r="I388" s="17">
-        <f>H388*C388</f>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="J388" s="7">
@@ -47153,7 +47153,7 @@
         <v>45</v>
       </c>
       <c r="I389" s="17">
-        <f>H389*C389</f>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="J389" s="7">
@@ -47203,7 +47203,7 @@
         <v>40</v>
       </c>
       <c r="I390" s="17">
-        <f>H390*C390</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="J390" s="7">
@@ -47253,7 +47253,7 @@
         <v>25</v>
       </c>
       <c r="I391" s="17">
-        <f>H391*C391</f>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="J391" s="7">
@@ -47303,7 +47303,7 @@
         <v>23</v>
       </c>
       <c r="I392" s="2">
-        <f>H392*C392</f>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="J392" s="1">
@@ -47348,7 +47348,7 @@
         <v>19</v>
       </c>
       <c r="I393" s="2">
-        <f>H393*C393</f>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="J393" s="1">
@@ -47393,7 +47393,7 @@
         <v>16</v>
       </c>
       <c r="I394" s="17">
-        <f>H394*C394</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="J394" s="7">
@@ -47443,7 +47443,7 @@
         <v>20</v>
       </c>
       <c r="I395" s="17">
-        <f>H395*C395</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="J395" s="7">
@@ -47493,7 +47493,7 @@
         <v>18</v>
       </c>
       <c r="I396" s="2">
-        <f>H396*C396</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="J396" s="1">
@@ -51643,7 +51643,7 @@
         <v>49</v>
       </c>
       <c r="I490" s="16">
-        <f>C490*H490</f>
+        <f t="shared" ref="I490:I497" si="6">C490*H490</f>
         <v>98</v>
       </c>
       <c r="J490" s="7">
@@ -51695,7 +51695,7 @@
         <v>60</v>
       </c>
       <c r="I491" s="16">
-        <f>C491*H491</f>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="J491" s="7">
@@ -51749,7 +51749,7 @@
         <v>93</v>
       </c>
       <c r="I492" s="16">
-        <f>C492*H492</f>
+        <f t="shared" si="6"/>
         <v>279</v>
       </c>
       <c r="J492" s="7">
@@ -51803,7 +51803,7 @@
         <v>68</v>
       </c>
       <c r="I493" s="16">
-        <f>C493*H493</f>
+        <f t="shared" si="6"/>
         <v>272</v>
       </c>
       <c r="J493" s="7">
@@ -51855,7 +51855,7 @@
         <v>95</v>
       </c>
       <c r="I494" s="16">
-        <f>C494*H494</f>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="J494" s="7">
@@ -51909,7 +51909,7 @@
         <v>74</v>
       </c>
       <c r="I495" s="16">
-        <f>C495*H495</f>
+        <f t="shared" si="6"/>
         <v>222</v>
       </c>
       <c r="J495" s="7">
@@ -51963,7 +51963,7 @@
         <v>55</v>
       </c>
       <c r="I496" s="16">
-        <f>C496*H496</f>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="J496" s="7">
@@ -52017,7 +52017,7 @@
         <v>87</v>
       </c>
       <c r="I497" s="16">
-        <f>C497*H497</f>
+        <f t="shared" si="6"/>
         <v>348</v>
       </c>
       <c r="J497" s="7">
@@ -52071,7 +52071,7 @@
         <v>28</v>
       </c>
       <c r="I498" s="17">
-        <f>H498*C498</f>
+        <f t="shared" ref="I498:I518" si="7">H498*C498</f>
         <v>112</v>
       </c>
       <c r="J498" s="7">
@@ -52121,7 +52121,7 @@
         <v>19</v>
       </c>
       <c r="I499" s="17">
-        <f>H499*C499</f>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="J499" s="7">
@@ -52171,7 +52171,7 @@
         <v>19</v>
       </c>
       <c r="I500" s="2">
-        <f>H500*C500</f>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="J500" s="1">
@@ -52216,7 +52216,7 @@
         <v>150</v>
       </c>
       <c r="I501" s="17">
-        <f>H501*C501</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="J501" s="7">
@@ -52266,7 +52266,7 @@
         <v>95</v>
       </c>
       <c r="I502" s="17">
-        <f>H502*C502</f>
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
       <c r="J502" s="7">
@@ -52316,7 +52316,7 @@
         <v>38</v>
       </c>
       <c r="I503" s="17">
-        <f>H503*C503</f>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="J503" s="7">
@@ -52370,7 +52370,7 @@
         <v>100</v>
       </c>
       <c r="I504" s="2">
-        <f>H504*C504</f>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="J504" s="1">
@@ -52415,7 +52415,7 @@
         <v>23</v>
       </c>
       <c r="I505" s="2">
-        <f>H505*C505</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="J505" s="1">
@@ -52460,7 +52460,7 @@
         <v>88</v>
       </c>
       <c r="I506" s="17">
-        <f>H506*C506</f>
+        <f t="shared" si="7"/>
         <v>352</v>
       </c>
       <c r="J506" s="7">
@@ -52510,7 +52510,7 @@
         <v>45</v>
       </c>
       <c r="I507" s="2">
-        <f>H507*C507</f>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="J507" s="1">
@@ -52555,7 +52555,7 @@
         <v>23</v>
       </c>
       <c r="I508" s="2">
-        <f>H508*C508</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="J508" s="1">
@@ -52600,7 +52600,7 @@
         <v>15</v>
       </c>
       <c r="I509" s="17">
-        <f>H509*C509</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="J509" s="7">
@@ -52650,7 +52650,7 @@
         <v>16</v>
       </c>
       <c r="I510" s="17">
-        <f>H510*C510</f>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="J510" s="7">
@@ -52700,7 +52700,7 @@
         <v>20</v>
       </c>
       <c r="I511" s="2">
-        <f>H511*C511</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="J511" s="1">
@@ -52745,7 +52745,7 @@
         <v>18</v>
       </c>
       <c r="I512" s="2">
-        <f>H512*C512</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="J512" s="1">
@@ -52790,7 +52790,7 @@
         <v>19</v>
       </c>
       <c r="I513" s="2">
-        <f>H513*C513</f>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="J513" s="1">
@@ -52835,7 +52835,7 @@
         <v>55</v>
       </c>
       <c r="I514" s="17">
-        <f>H514*C514</f>
+        <f t="shared" si="7"/>
         <v>220</v>
       </c>
       <c r="J514" s="7">
@@ -52885,7 +52885,7 @@
         <v>45</v>
       </c>
       <c r="I515" s="17">
-        <f>H515*C515</f>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="J515" s="7">
@@ -52935,7 +52935,7 @@
         <v>60</v>
       </c>
       <c r="I516" s="17">
-        <f>H516*C516</f>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="J516" s="7">
@@ -52985,7 +52985,7 @@
         <v>45</v>
       </c>
       <c r="I517" s="17">
-        <f>H517*C517</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="J517" s="7">
@@ -53037,7 +53037,7 @@
         <v>15</v>
       </c>
       <c r="I518" s="17">
-        <f>H518*C518</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="J518" s="7">
@@ -54524,6 +54524,9 @@
       <c r="A552" s="1">
         <v>4</v>
       </c>
+      <c r="B552" s="1">
+        <v>32</v>
+      </c>
       <c r="C552" s="1">
         <v>2</v>
       </c>
@@ -54565,6 +54568,9 @@
       <c r="A553" s="1">
         <v>4</v>
       </c>
+      <c r="B553" s="1">
+        <v>32</v>
+      </c>
       <c r="C553" s="1">
         <v>2</v>
       </c>
@@ -54606,6 +54612,9 @@
       <c r="A554" s="1">
         <v>4</v>
       </c>
+      <c r="B554" s="1">
+        <v>32</v>
+      </c>
       <c r="C554" s="1">
         <v>2</v>
       </c>
@@ -54644,6 +54653,9 @@
       <c r="A555" s="1">
         <v>4</v>
       </c>
+      <c r="B555" s="1">
+        <v>32</v>
+      </c>
       <c r="C555" s="1">
         <v>1</v>
       </c>
@@ -54688,6 +54700,9 @@
       <c r="A556" s="1">
         <v>4</v>
       </c>
+      <c r="B556" s="1">
+        <v>32</v>
+      </c>
       <c r="C556" s="1">
         <v>2</v>
       </c>
@@ -54729,6 +54744,9 @@
       <c r="A557" s="1">
         <v>4</v>
       </c>
+      <c r="B557" s="1">
+        <v>32</v>
+      </c>
       <c r="C557" s="1">
         <v>3</v>
       </c>
@@ -54767,6 +54785,9 @@
       <c r="A558" s="1">
         <v>4</v>
       </c>
+      <c r="B558" s="1">
+        <v>32</v>
+      </c>
       <c r="C558" s="1">
         <v>4</v>
       </c>
@@ -54805,6 +54826,9 @@
       <c r="A559" s="1">
         <v>4</v>
       </c>
+      <c r="B559" s="1">
+        <v>32</v>
+      </c>
       <c r="C559" s="1">
         <v>3</v>
       </c>
@@ -54843,6 +54867,9 @@
       <c r="A560" s="1">
         <v>4</v>
       </c>
+      <c r="B560" s="1">
+        <v>32</v>
+      </c>
       <c r="C560" s="1">
         <v>2</v>
       </c>
@@ -54884,6 +54911,9 @@
       <c r="A561" s="1">
         <v>4</v>
       </c>
+      <c r="B561" s="1">
+        <v>32</v>
+      </c>
       <c r="C561" s="1">
         <v>1</v>
       </c>
@@ -54921,6 +54951,9 @@
     <row r="562" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A562" s="1">
         <v>4</v>
+      </c>
+      <c r="B562" s="1">
+        <v>32</v>
       </c>
       <c r="C562" s="1">
         <v>2</v>
@@ -56096,7 +56129,7 @@
         <v>40</v>
       </c>
       <c r="I588" s="17">
-        <f>H588*C588</f>
+        <f t="shared" ref="I588:I601" si="8">H588*C588</f>
         <v>160</v>
       </c>
       <c r="J588" s="7">
@@ -56146,7 +56179,7 @@
         <v>49</v>
       </c>
       <c r="I589" s="17">
-        <f>H589*C589</f>
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
       <c r="J589" s="7">
@@ -56196,7 +56229,7 @@
         <v>22</v>
       </c>
       <c r="I590" s="2">
-        <f>H590*C590</f>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="J590" s="1">
@@ -56241,7 +56274,7 @@
         <v>22</v>
       </c>
       <c r="I591" s="17">
-        <f>H591*C591</f>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="J591" s="7">
@@ -56291,7 +56324,7 @@
         <v>37</v>
       </c>
       <c r="I592" s="17">
-        <f>H592*C592</f>
+        <f t="shared" si="8"/>
         <v>148</v>
       </c>
       <c r="J592" s="7">
@@ -56341,7 +56374,7 @@
         <v>21</v>
       </c>
       <c r="I593" s="2">
-        <f>H593*C593</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="J593" s="1">
@@ -56386,7 +56419,7 @@
         <v>23</v>
       </c>
       <c r="I594" s="2">
-        <f>H594*C594</f>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="J594" s="1">
@@ -56431,7 +56464,7 @@
         <v>79</v>
       </c>
       <c r="I595" s="17">
-        <f>H595*C595</f>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="J595" s="7">
@@ -56485,7 +56518,7 @@
         <v>100</v>
       </c>
       <c r="I596" s="2">
-        <f>H596*C596</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="J596" s="1">
@@ -56530,7 +56563,7 @@
         <v>28</v>
       </c>
       <c r="I597" s="2">
-        <f>H597*C597</f>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="J597" s="1">
@@ -56575,7 +56608,7 @@
         <v>59</v>
       </c>
       <c r="I598" s="2">
-        <f>H598*C598</f>
+        <f t="shared" si="8"/>
         <v>236</v>
       </c>
       <c r="J598" s="1">
@@ -56620,7 +56653,7 @@
         <v>32</v>
       </c>
       <c r="I599" s="17">
-        <f>H599*C599</f>
+        <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="J599" s="7">
@@ -56670,7 +56703,7 @@
         <v>39</v>
       </c>
       <c r="I600" s="17">
-        <f>H600*C600</f>
+        <f t="shared" si="8"/>
         <v>156</v>
       </c>
       <c r="J600" s="7">
@@ -56720,7 +56753,7 @@
         <v>49</v>
       </c>
       <c r="I601" s="17">
-        <f>H601*C601</f>
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
       <c r="J601" s="7">
@@ -57142,6 +57175,9 @@
       <c r="A610" s="1">
         <v>4</v>
       </c>
+      <c r="B610" s="1">
+        <v>32</v>
+      </c>
       <c r="C610" s="7">
         <v>2</v>
       </c>
@@ -57188,6 +57224,9 @@
       <c r="A611" s="1">
         <v>4</v>
       </c>
+      <c r="B611" s="1">
+        <v>32</v>
+      </c>
       <c r="C611" s="1">
         <v>2</v>
       </c>
@@ -57227,6 +57266,9 @@
       <c r="A612" s="1">
         <v>4</v>
       </c>
+      <c r="B612" s="1">
+        <v>32</v>
+      </c>
       <c r="C612" s="1">
         <v>2</v>
       </c>
@@ -57265,6 +57307,9 @@
     <row r="613" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A613" s="1">
         <v>4</v>
+      </c>
+      <c r="B613" s="1">
+        <v>32</v>
       </c>
       <c r="C613" s="7">
         <v>2</v>
@@ -57312,6 +57357,9 @@
       <c r="A614" s="1">
         <v>4</v>
       </c>
+      <c r="B614" s="1">
+        <v>32</v>
+      </c>
       <c r="C614" s="1">
         <v>2</v>
       </c>
@@ -57351,6 +57399,9 @@
       <c r="A615" s="1">
         <v>4</v>
       </c>
+      <c r="B615" s="1">
+        <v>32</v>
+      </c>
       <c r="C615" s="1">
         <v>2</v>
       </c>
@@ -57390,6 +57441,9 @@
       <c r="A616" s="1">
         <v>4</v>
       </c>
+      <c r="B616" s="1">
+        <v>32</v>
+      </c>
       <c r="C616" s="1">
         <v>3</v>
       </c>
@@ -57428,6 +57482,9 @@
     <row r="617" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A617" s="1">
         <v>4</v>
+      </c>
+      <c r="B617" s="1">
+        <v>32</v>
       </c>
       <c r="C617" s="1">
         <v>2</v>
@@ -57975,6 +58032,9 @@
       <c r="A630" s="1">
         <v>4</v>
       </c>
+      <c r="B630" s="1">
+        <v>32</v>
+      </c>
       <c r="C630" s="7">
         <v>2</v>
       </c>
@@ -58023,6 +58083,9 @@
       <c r="A631" s="1">
         <v>4</v>
       </c>
+      <c r="B631" s="1">
+        <v>32</v>
+      </c>
       <c r="C631" s="7">
         <v>2</v>
       </c>
@@ -58071,6 +58134,9 @@
       <c r="A632" s="1">
         <v>4</v>
       </c>
+      <c r="B632" s="1">
+        <v>32</v>
+      </c>
       <c r="C632" s="1">
         <v>1</v>
       </c>
@@ -58115,6 +58181,9 @@
       <c r="A633" s="1">
         <v>4</v>
       </c>
+      <c r="B633" s="1">
+        <v>32</v>
+      </c>
       <c r="C633" s="1">
         <v>2</v>
       </c>
@@ -58156,6 +58225,9 @@
       <c r="A634" s="1">
         <v>4</v>
       </c>
+      <c r="B634" s="1">
+        <v>32</v>
+      </c>
       <c r="C634" s="1">
         <v>2</v>
       </c>
@@ -58193,6 +58265,9 @@
     <row r="635" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A635" s="1">
         <v>4</v>
+      </c>
+      <c r="B635" s="1">
+        <v>32</v>
       </c>
       <c r="C635" s="1">
         <v>2</v>
@@ -59258,6 +59333,9 @@
       <c r="A659" s="1">
         <v>4</v>
       </c>
+      <c r="B659" s="1">
+        <v>32</v>
+      </c>
       <c r="C659" s="7">
         <v>4</v>
       </c>
@@ -59277,7 +59355,7 @@
         <v>88</v>
       </c>
       <c r="I659" s="17">
-        <f>H659*C659</f>
+        <f t="shared" ref="I659:I673" si="9">H659*C659</f>
         <v>352</v>
       </c>
       <c r="J659" s="7">
@@ -59308,6 +59386,9 @@
       <c r="A660" s="1">
         <v>4</v>
       </c>
+      <c r="B660" s="1">
+        <v>32</v>
+      </c>
       <c r="C660" s="7">
         <v>4</v>
       </c>
@@ -59327,7 +59408,7 @@
         <v>95</v>
       </c>
       <c r="I660" s="17">
-        <f>H660*C660</f>
+        <f t="shared" si="9"/>
         <v>380</v>
       </c>
       <c r="J660" s="7">
@@ -59358,6 +59439,9 @@
       <c r="A661" s="1">
         <v>4</v>
       </c>
+      <c r="B661" s="1">
+        <v>32</v>
+      </c>
       <c r="C661" s="1">
         <v>2</v>
       </c>
@@ -59377,7 +59461,7 @@
         <v>100</v>
       </c>
       <c r="I661" s="2">
-        <f>H661*C661</f>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="J661" s="1">
@@ -59403,6 +59487,9 @@
       <c r="A662" s="1">
         <v>4</v>
       </c>
+      <c r="B662" s="1">
+        <v>32</v>
+      </c>
       <c r="C662" s="1">
         <v>2</v>
       </c>
@@ -59422,7 +59509,7 @@
         <v>45</v>
       </c>
       <c r="I662" s="2">
-        <f>H662*C662</f>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="J662" s="1">
@@ -59448,6 +59535,9 @@
       <c r="A663" s="1">
         <v>4</v>
       </c>
+      <c r="B663" s="1">
+        <v>32</v>
+      </c>
       <c r="C663" s="14">
         <v>4</v>
       </c>
@@ -59467,7 +59557,7 @@
         <v>45</v>
       </c>
       <c r="I663" s="17">
-        <f>H663*C663</f>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="J663" s="7">
@@ -59500,6 +59590,9 @@
       <c r="A664" s="1">
         <v>4</v>
       </c>
+      <c r="B664" s="1">
+        <v>32</v>
+      </c>
       <c r="C664" s="14">
         <v>2</v>
       </c>
@@ -59519,7 +59612,7 @@
         <v>150</v>
       </c>
       <c r="I664" s="17">
-        <f>H664*C664</f>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="J664" s="7">
@@ -59550,6 +59643,9 @@
       <c r="A665" s="1">
         <v>4</v>
       </c>
+      <c r="B665" s="1">
+        <v>32</v>
+      </c>
       <c r="C665" s="14">
         <v>2</v>
       </c>
@@ -59569,7 +59665,7 @@
         <v>38</v>
       </c>
       <c r="I665" s="17">
-        <f>H665*C665</f>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="J665" s="7">
@@ -59604,6 +59700,9 @@
       <c r="A666" s="1">
         <v>4</v>
       </c>
+      <c r="B666" s="1">
+        <v>32</v>
+      </c>
       <c r="C666" s="11">
         <v>4</v>
       </c>
@@ -59623,7 +59722,7 @@
         <v>23</v>
       </c>
       <c r="I666" s="2">
-        <f>H666*C666</f>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
       <c r="J666" s="1">
@@ -59649,6 +59748,9 @@
       <c r="A667" s="1">
         <v>4</v>
       </c>
+      <c r="B667" s="1">
+        <v>32</v>
+      </c>
       <c r="C667" s="7">
         <v>4</v>
       </c>
@@ -59668,7 +59770,7 @@
         <v>55</v>
       </c>
       <c r="I667" s="17">
-        <f>H667*C667</f>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="J667" s="7">
@@ -59699,6 +59801,9 @@
       <c r="A668" s="1">
         <v>4</v>
       </c>
+      <c r="B668" s="1">
+        <v>32</v>
+      </c>
       <c r="C668" s="7">
         <v>2</v>
       </c>
@@ -59718,7 +59823,7 @@
         <v>150</v>
       </c>
       <c r="I668" s="17">
-        <f>H668*C668</f>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="J668" s="7">
@@ -59749,6 +59854,9 @@
       <c r="A669" s="1">
         <v>4</v>
       </c>
+      <c r="B669" s="1">
+        <v>32</v>
+      </c>
       <c r="C669" s="7">
         <v>4</v>
       </c>
@@ -59768,7 +59876,7 @@
         <v>39</v>
       </c>
       <c r="I669" s="17">
-        <f>H669*C669</f>
+        <f t="shared" si="9"/>
         <v>156</v>
       </c>
       <c r="J669" s="7">
@@ -59799,6 +59907,9 @@
       <c r="A670" s="1">
         <v>4</v>
       </c>
+      <c r="B670" s="1">
+        <v>32</v>
+      </c>
       <c r="C670" s="1">
         <v>2</v>
       </c>
@@ -59818,7 +59929,7 @@
         <v>23</v>
       </c>
       <c r="I670" s="2">
-        <f>H670*C670</f>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="J670" s="1">
@@ -59844,6 +59955,9 @@
       <c r="A671" s="1">
         <v>4</v>
       </c>
+      <c r="B671" s="1">
+        <v>32</v>
+      </c>
       <c r="C671" s="7">
         <v>4</v>
       </c>
@@ -59863,7 +59977,7 @@
         <v>65</v>
       </c>
       <c r="I671" s="17">
-        <f>H671*C671</f>
+        <f t="shared" si="9"/>
         <v>260</v>
       </c>
       <c r="J671" s="7">
@@ -59894,6 +60008,9 @@
       <c r="A672" s="1">
         <v>4</v>
       </c>
+      <c r="B672" s="1">
+        <v>32</v>
+      </c>
       <c r="C672" s="7">
         <v>4</v>
       </c>
@@ -59913,7 +60030,7 @@
         <v>60</v>
       </c>
       <c r="I672" s="17">
-        <f>H672*C672</f>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="J672" s="7">
@@ -59944,6 +60061,9 @@
       <c r="A673" s="1">
         <v>4</v>
       </c>
+      <c r="B673" s="1">
+        <v>32</v>
+      </c>
       <c r="C673" s="7">
         <v>4</v>
       </c>
@@ -59963,7 +60083,7 @@
         <v>28</v>
       </c>
       <c r="I673" s="17">
-        <f>H673*C673</f>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="J673" s="7">
@@ -60195,6 +60315,9 @@
       <c r="A678" s="1">
         <v>4</v>
       </c>
+      <c r="B678" s="1">
+        <v>32</v>
+      </c>
       <c r="C678" s="7">
         <v>3</v>
       </c>
@@ -60241,6 +60364,9 @@
       <c r="A679" s="1">
         <v>4</v>
       </c>
+      <c r="B679" s="1">
+        <v>32</v>
+      </c>
       <c r="C679" s="1">
         <v>3</v>
       </c>
@@ -60285,6 +60411,9 @@
     <row r="680" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A680" s="1">
         <v>4</v>
+      </c>
+      <c r="B680" s="1">
+        <v>32</v>
       </c>
       <c r="C680" s="7">
         <v>2</v>
@@ -60335,6 +60464,9 @@
       <c r="A681" s="1">
         <v>4</v>
       </c>
+      <c r="B681" s="1">
+        <v>32</v>
+      </c>
       <c r="C681" s="1">
         <v>2</v>
       </c>
@@ -60374,6 +60506,9 @@
       <c r="A682" s="1">
         <v>4</v>
       </c>
+      <c r="B682" s="1">
+        <v>32</v>
+      </c>
       <c r="C682" s="1">
         <v>3</v>
       </c>
@@ -60412,6 +60547,9 @@
     <row r="683" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A683" s="1">
         <v>4</v>
+      </c>
+      <c r="B683" s="1">
+        <v>32</v>
       </c>
       <c r="C683" s="7">
         <v>3</v>
@@ -60458,6 +60596,9 @@
       <c r="A684" s="1">
         <v>4</v>
       </c>
+      <c r="B684" s="1">
+        <v>32</v>
+      </c>
       <c r="C684" s="1">
         <v>3</v>
       </c>
@@ -60497,6 +60638,9 @@
       <c r="A685" s="1">
         <v>4</v>
       </c>
+      <c r="B685" s="1">
+        <v>32</v>
+      </c>
       <c r="C685" s="1">
         <v>3</v>
       </c>
@@ -60535,6 +60679,9 @@
     <row r="686" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A686" s="1">
         <v>4</v>
+      </c>
+      <c r="B686" s="1">
+        <v>32</v>
       </c>
       <c r="C686" s="7">
         <v>2</v>
@@ -60580,6 +60727,9 @@
       <c r="A687" s="1">
         <v>4</v>
       </c>
+      <c r="B687" s="1">
+        <v>32</v>
+      </c>
       <c r="C687" s="1">
         <v>2</v>
       </c>
@@ -60621,6 +60771,9 @@
       <c r="A688" s="1">
         <v>4</v>
       </c>
+      <c r="B688" s="1">
+        <v>32</v>
+      </c>
       <c r="C688" s="1">
         <v>2</v>
       </c>
@@ -60665,6 +60818,9 @@
       <c r="A689" s="1">
         <v>4</v>
       </c>
+      <c r="B689" s="1">
+        <v>32</v>
+      </c>
       <c r="C689" s="1">
         <v>2</v>
       </c>
@@ -60705,6 +60861,9 @@
     <row r="690" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A690" s="1">
         <v>4</v>
+      </c>
+      <c r="B690" s="1">
+        <v>32</v>
       </c>
       <c r="C690" s="7">
         <v>2</v>
@@ -60754,6 +60913,9 @@
       <c r="A691" s="1">
         <v>4</v>
       </c>
+      <c r="B691" s="1">
+        <v>32</v>
+      </c>
       <c r="C691" s="7">
         <v>2</v>
       </c>
@@ -60802,6 +60964,9 @@
       <c r="A692" s="1">
         <v>4</v>
       </c>
+      <c r="B692" s="1">
+        <v>32</v>
+      </c>
       <c r="C692" s="1">
         <v>2</v>
       </c>
@@ -60843,6 +61008,9 @@
       <c r="A693" s="1">
         <v>4</v>
       </c>
+      <c r="B693" s="1">
+        <v>32</v>
+      </c>
       <c r="C693" s="1">
         <v>2</v>
       </c>
@@ -60884,6 +61052,9 @@
       <c r="A694" s="1">
         <v>4</v>
       </c>
+      <c r="B694" s="1">
+        <v>32</v>
+      </c>
       <c r="C694" s="1">
         <v>2</v>
       </c>
@@ -60925,6 +61096,9 @@
       <c r="A695" s="1">
         <v>4</v>
       </c>
+      <c r="B695" s="1">
+        <v>35</v>
+      </c>
       <c r="C695" s="1">
         <v>2</v>
       </c>
@@ -60963,6 +61137,9 @@
       <c r="A696" s="1">
         <v>4</v>
       </c>
+      <c r="B696" s="1">
+        <v>35</v>
+      </c>
       <c r="C696" s="1">
         <v>2</v>
       </c>
@@ -61001,6 +61178,9 @@
       <c r="A697" s="1">
         <v>4</v>
       </c>
+      <c r="B697" s="1">
+        <v>35</v>
+      </c>
       <c r="C697" s="1">
         <v>2</v>
       </c>
@@ -61039,6 +61219,9 @@
       <c r="A698" s="1">
         <v>4</v>
       </c>
+      <c r="B698" s="1">
+        <v>35</v>
+      </c>
       <c r="C698" s="1">
         <v>2</v>
       </c>
@@ -61077,6 +61260,9 @@
       <c r="A699" s="1">
         <v>4</v>
       </c>
+      <c r="B699" s="1">
+        <v>35</v>
+      </c>
       <c r="C699" s="1">
         <v>2</v>
       </c>
@@ -61114,6 +61300,9 @@
     <row r="700" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A700" s="1">
         <v>4</v>
+      </c>
+      <c r="B700" s="1">
+        <v>35</v>
       </c>
       <c r="C700" s="1">
         <v>2</v>
@@ -61225,9 +61414,7 @@
       <c r="D703" s="7">
         <v>2028</v>
       </c>
-      <c r="E703" s="21">
-        <v>1</v>
-      </c>
+      <c r="E703" s="21"/>
       <c r="F703" s="7" t="s">
         <v>390</v>
       </c>
@@ -61275,6 +61462,9 @@
       <c r="A704" s="1">
         <v>4</v>
       </c>
+      <c r="B704" s="1">
+        <v>32</v>
+      </c>
       <c r="C704" s="7">
         <v>4</v>
       </c>
@@ -61294,7 +61484,7 @@
         <v>20</v>
       </c>
       <c r="I704" s="17">
-        <f>H704*C704</f>
+        <f t="shared" ref="I704:I710" si="10">H704*C704</f>
         <v>80</v>
       </c>
       <c r="J704" s="7">
@@ -61325,6 +61515,9 @@
       <c r="A705" s="1">
         <v>4</v>
       </c>
+      <c r="B705" s="1">
+        <v>32</v>
+      </c>
       <c r="C705" s="7">
         <v>2</v>
       </c>
@@ -61344,7 +61537,7 @@
         <v>79</v>
       </c>
       <c r="I705" s="17">
-        <f>H705*C705</f>
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
       <c r="J705" s="7">
@@ -61379,6 +61572,9 @@
       <c r="A706" s="1">
         <v>4</v>
       </c>
+      <c r="B706" s="1">
+        <v>32</v>
+      </c>
       <c r="C706" s="1">
         <v>4</v>
       </c>
@@ -61398,7 +61594,7 @@
         <v>49</v>
       </c>
       <c r="I706" s="2">
-        <f>H706*C706</f>
+        <f t="shared" si="10"/>
         <v>196</v>
       </c>
       <c r="J706" s="1">
@@ -61424,6 +61620,9 @@
       <c r="A707" s="1">
         <v>4</v>
       </c>
+      <c r="B707" s="1">
+        <v>32</v>
+      </c>
       <c r="C707" s="1">
         <v>2</v>
       </c>
@@ -61443,7 +61642,7 @@
         <v>23</v>
       </c>
       <c r="I707" s="2">
-        <f>H707*C707</f>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="J707" s="1">
@@ -61469,6 +61668,9 @@
       <c r="A708" s="1">
         <v>4</v>
       </c>
+      <c r="B708" s="1">
+        <v>32</v>
+      </c>
       <c r="C708" s="7">
         <v>4</v>
       </c>
@@ -61488,7 +61690,7 @@
         <v>37</v>
       </c>
       <c r="I708" s="17">
-        <f>H708*C708</f>
+        <f t="shared" si="10"/>
         <v>148</v>
       </c>
       <c r="J708" s="7">
@@ -61519,6 +61721,9 @@
       <c r="A709" s="1">
         <v>4</v>
       </c>
+      <c r="B709" s="1">
+        <v>32</v>
+      </c>
       <c r="C709" s="7">
         <v>4</v>
       </c>
@@ -61538,7 +61743,7 @@
         <v>49</v>
       </c>
       <c r="I709" s="17">
-        <f>H709*C709</f>
+        <f t="shared" si="10"/>
         <v>196</v>
       </c>
       <c r="J709" s="7">
@@ -61569,6 +61774,9 @@
       <c r="A710" s="1">
         <v>4</v>
       </c>
+      <c r="B710" s="1">
+        <v>32</v>
+      </c>
       <c r="C710" s="11">
         <v>4</v>
       </c>
@@ -61588,7 +61796,7 @@
         <v>20</v>
       </c>
       <c r="I710" s="2">
-        <f>H710*C710</f>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="J710" s="1">
@@ -61813,6 +62021,9 @@
       <c r="A715" s="1">
         <v>4</v>
       </c>
+      <c r="B715" s="1">
+        <v>32</v>
+      </c>
       <c r="C715" s="1">
         <v>3</v>
       </c>
@@ -61852,6 +62063,9 @@
       <c r="A716" s="1">
         <v>4</v>
       </c>
+      <c r="B716" s="1">
+        <v>32</v>
+      </c>
       <c r="C716" s="1">
         <v>3</v>
       </c>
@@ -61890,6 +62104,9 @@
     <row r="717" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A717" s="1">
         <v>4</v>
+      </c>
+      <c r="B717" s="1">
+        <v>32</v>
       </c>
       <c r="C717" s="7">
         <v>3</v>
@@ -61941,6 +62158,9 @@
       <c r="A718" s="1">
         <v>4</v>
       </c>
+      <c r="B718" s="1">
+        <v>32</v>
+      </c>
       <c r="C718" s="1">
         <v>2</v>
       </c>
@@ -61986,6 +62206,9 @@
       <c r="A719" s="1">
         <v>4</v>
       </c>
+      <c r="B719" s="1">
+        <v>32</v>
+      </c>
       <c r="C719" s="1">
         <v>3</v>
       </c>
@@ -62025,6 +62248,9 @@
       <c r="A720" s="1">
         <v>4</v>
       </c>
+      <c r="B720" s="1">
+        <v>32</v>
+      </c>
       <c r="C720" s="1">
         <v>3</v>
       </c>
@@ -62063,6 +62289,9 @@
     <row r="721" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A721" s="1">
         <v>4</v>
+      </c>
+      <c r="B721" s="1">
+        <v>32</v>
       </c>
       <c r="C721" s="7">
         <v>2</v>
@@ -62112,6 +62341,9 @@
       <c r="A722" s="1">
         <v>4</v>
       </c>
+      <c r="B722" s="1">
+        <v>32</v>
+      </c>
       <c r="C722" s="1">
         <v>2</v>
       </c>
@@ -62153,6 +62385,9 @@
       <c r="A723" s="1">
         <v>4</v>
       </c>
+      <c r="B723" s="1">
+        <v>32</v>
+      </c>
       <c r="C723" s="1">
         <v>1</v>
       </c>
@@ -62194,6 +62429,9 @@
       <c r="A724" s="1">
         <v>4</v>
       </c>
+      <c r="B724" s="1">
+        <v>32</v>
+      </c>
       <c r="C724" s="1">
         <v>3</v>
       </c>
@@ -62232,6 +62470,9 @@
       <c r="A725" s="1">
         <v>4</v>
       </c>
+      <c r="B725" s="1">
+        <v>32</v>
+      </c>
       <c r="C725" s="1">
         <v>1</v>
       </c>
@@ -62273,6 +62514,9 @@
       <c r="A726" s="1">
         <v>4</v>
       </c>
+      <c r="B726" s="1">
+        <v>32</v>
+      </c>
       <c r="C726" s="1">
         <v>2</v>
       </c>
@@ -62316,6 +62560,9 @@
     <row r="727" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A727" s="1">
         <v>4</v>
+      </c>
+      <c r="B727" s="1">
+        <v>32</v>
       </c>
       <c r="C727" s="1">
         <v>1</v>
@@ -62730,6 +62977,9 @@
       <c r="A736" s="1">
         <v>4</v>
       </c>
+      <c r="B736" s="1">
+        <v>32</v>
+      </c>
       <c r="C736" s="7">
         <v>4</v>
       </c>
@@ -62749,7 +62999,7 @@
         <v>45</v>
       </c>
       <c r="I736" s="17">
-        <f>H736*C736</f>
+        <f t="shared" ref="I736:I746" si="11">H736*C736</f>
         <v>180</v>
       </c>
       <c r="J736" s="7">
@@ -62782,6 +63032,9 @@
       <c r="A737" s="1">
         <v>4</v>
       </c>
+      <c r="B737" s="1">
+        <v>32</v>
+      </c>
       <c r="C737" s="7">
         <v>2</v>
       </c>
@@ -62801,7 +63054,7 @@
         <v>37</v>
       </c>
       <c r="I737" s="17">
-        <f>H737*C737</f>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="J737" s="7">
@@ -62832,6 +63085,9 @@
       <c r="A738" s="1">
         <v>4</v>
       </c>
+      <c r="B738" s="1">
+        <v>32</v>
+      </c>
       <c r="C738" s="7">
         <v>4</v>
       </c>
@@ -62851,7 +63107,7 @@
         <v>65</v>
       </c>
       <c r="I738" s="17">
-        <f>H738*C738</f>
+        <f t="shared" si="11"/>
         <v>260</v>
       </c>
       <c r="J738" s="7">
@@ -62882,6 +63138,9 @@
       <c r="A739" s="1">
         <v>4</v>
       </c>
+      <c r="B739" s="1">
+        <v>32</v>
+      </c>
       <c r="C739" s="7">
         <v>2</v>
       </c>
@@ -62901,7 +63160,7 @@
         <v>60</v>
       </c>
       <c r="I739" s="17">
-        <f>H739*C739</f>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="J739" s="7">
@@ -62932,6 +63191,9 @@
       <c r="A740" s="1">
         <v>4</v>
       </c>
+      <c r="B740" s="1">
+        <v>32</v>
+      </c>
       <c r="C740" s="7">
         <v>4</v>
       </c>
@@ -62951,7 +63213,7 @@
         <v>95</v>
       </c>
       <c r="I740" s="17">
-        <f>H740*C740</f>
+        <f t="shared" si="11"/>
         <v>380</v>
       </c>
       <c r="J740" s="7">
@@ -62982,6 +63244,9 @@
       <c r="A741" s="1">
         <v>4</v>
       </c>
+      <c r="B741" s="1">
+        <v>32</v>
+      </c>
       <c r="C741" s="1">
         <v>4</v>
       </c>
@@ -63001,7 +63266,7 @@
         <v>28</v>
       </c>
       <c r="I741" s="2">
-        <f>H741*C741</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="J741" s="1">
@@ -63027,6 +63292,9 @@
       <c r="A742" s="1">
         <v>4</v>
       </c>
+      <c r="B742" s="1">
+        <v>32</v>
+      </c>
       <c r="C742" s="1">
         <v>4</v>
       </c>
@@ -63046,7 +63314,7 @@
         <v>45</v>
       </c>
       <c r="I742" s="2">
-        <f>H742*C742</f>
+        <f t="shared" si="11"/>
         <v>180</v>
       </c>
       <c r="J742" s="1">
@@ -63072,6 +63340,9 @@
       <c r="A743" s="1">
         <v>4</v>
       </c>
+      <c r="B743" s="1">
+        <v>32</v>
+      </c>
       <c r="C743" s="38">
         <v>2</v>
       </c>
@@ -63091,7 +63362,7 @@
         <v>88</v>
       </c>
       <c r="I743" s="17">
-        <f>H743*C743</f>
+        <f t="shared" si="11"/>
         <v>176</v>
       </c>
       <c r="J743" s="7">
@@ -63122,6 +63393,9 @@
       <c r="A744" s="1">
         <v>4</v>
       </c>
+      <c r="B744" s="1">
+        <v>32</v>
+      </c>
       <c r="C744" s="38">
         <v>4</v>
       </c>
@@ -63141,7 +63415,7 @@
         <v>79</v>
       </c>
       <c r="I744" s="17">
-        <f>H744*C744</f>
+        <f t="shared" si="11"/>
         <v>316</v>
       </c>
       <c r="J744" s="7">
@@ -63176,6 +63450,9 @@
       <c r="A745" s="1">
         <v>4</v>
       </c>
+      <c r="B745" s="1">
+        <v>32</v>
+      </c>
       <c r="C745" s="12">
         <v>2</v>
       </c>
@@ -63195,7 +63472,7 @@
         <v>100</v>
       </c>
       <c r="I745" s="2">
-        <f>H745*C745</f>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="J745" s="1">
@@ -63221,6 +63498,9 @@
       <c r="A746" s="1">
         <v>4</v>
       </c>
+      <c r="B746" s="1">
+        <v>32</v>
+      </c>
       <c r="C746" s="12">
         <v>4</v>
       </c>
@@ -63240,7 +63520,7 @@
         <v>20</v>
       </c>
       <c r="I746" s="2">
-        <f>H746*C746</f>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="J746" s="1">
@@ -63464,6 +63744,9 @@
       <c r="A751" s="1">
         <v>4</v>
       </c>
+      <c r="B751" s="1">
+        <v>32</v>
+      </c>
       <c r="C751" s="7">
         <v>3</v>
       </c>
@@ -63509,6 +63792,9 @@
       <c r="A752" s="1">
         <v>4</v>
       </c>
+      <c r="B752" s="1">
+        <v>32</v>
+      </c>
       <c r="C752" s="6">
         <v>3</v>
       </c>
@@ -63559,6 +63845,9 @@
       <c r="A753" s="1">
         <v>4</v>
       </c>
+      <c r="B753" s="1">
+        <v>32</v>
+      </c>
       <c r="C753" s="6">
         <v>2</v>
       </c>
@@ -63608,6 +63897,9 @@
       <c r="A754" s="1">
         <v>4</v>
       </c>
+      <c r="B754" s="1">
+        <v>32</v>
+      </c>
       <c r="C754" s="6">
         <v>2</v>
       </c>
@@ -63653,6 +63945,9 @@
       <c r="A755" s="1">
         <v>4</v>
       </c>
+      <c r="B755" s="1">
+        <v>32</v>
+      </c>
       <c r="C755" s="6">
         <v>3</v>
       </c>
@@ -63698,6 +63993,9 @@
       <c r="A756" s="1">
         <v>4</v>
       </c>
+      <c r="B756" s="1">
+        <v>32</v>
+      </c>
       <c r="C756" s="6">
         <v>3</v>
       </c>
@@ -63743,6 +64041,9 @@
       <c r="A757" s="1">
         <v>4</v>
       </c>
+      <c r="B757" s="1">
+        <v>32</v>
+      </c>
       <c r="C757" s="7">
         <v>2</v>
       </c>
@@ -63790,6 +64091,9 @@
       <c r="A758" s="1">
         <v>4</v>
       </c>
+      <c r="B758" s="1">
+        <v>32</v>
+      </c>
       <c r="C758" s="7">
         <v>4</v>
       </c>
@@ -63837,6 +64141,9 @@
       <c r="A759" s="1">
         <v>4</v>
       </c>
+      <c r="B759" s="1">
+        <v>32</v>
+      </c>
       <c r="C759" s="7">
         <v>2</v>
       </c>
@@ -63882,6 +64189,9 @@
       <c r="A760" s="1">
         <v>4</v>
       </c>
+      <c r="B760" s="1">
+        <v>32</v>
+      </c>
       <c r="C760" s="1">
         <v>2</v>
       </c>
@@ -63926,6 +64236,9 @@
       <c r="A761" s="1">
         <v>4</v>
       </c>
+      <c r="B761" s="1">
+        <v>32</v>
+      </c>
       <c r="C761" s="1">
         <v>2</v>
       </c>
@@ -63967,6 +64280,9 @@
       <c r="A762" s="1">
         <v>4</v>
       </c>
+      <c r="B762" s="1">
+        <v>35</v>
+      </c>
       <c r="C762" s="1">
         <v>2</v>
       </c>
@@ -64005,6 +64321,9 @@
       <c r="A763" s="1">
         <v>4</v>
       </c>
+      <c r="B763" s="1">
+        <v>35</v>
+      </c>
       <c r="C763" s="1">
         <v>2</v>
       </c>
@@ -64042,6 +64361,9 @@
     <row r="764" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A764" s="1">
         <v>4</v>
+      </c>
+      <c r="B764" s="1">
+        <v>35</v>
       </c>
       <c r="C764" s="7">
         <v>2</v>
@@ -64088,6 +64410,9 @@
       <c r="A765" s="1">
         <v>4</v>
       </c>
+      <c r="B765" s="1">
+        <v>35</v>
+      </c>
       <c r="C765" s="7">
         <v>2</v>
       </c>
@@ -64134,6 +64459,9 @@
     <row r="766" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A766" s="1">
         <v>4</v>
+      </c>
+      <c r="B766" s="1">
+        <v>35</v>
       </c>
       <c r="C766" s="7">
         <v>2</v>
@@ -64180,6 +64508,9 @@
       <c r="A767" s="1">
         <v>4</v>
       </c>
+      <c r="B767" s="1">
+        <v>35</v>
+      </c>
       <c r="C767" s="7">
         <v>2</v>
       </c>
@@ -64323,6 +64654,9 @@
       <c r="A770" s="1">
         <v>4</v>
       </c>
+      <c r="B770" s="1">
+        <v>35</v>
+      </c>
       <c r="C770" s="7">
         <v>3</v>
       </c>
@@ -64373,6 +64707,9 @@
       <c r="A771" s="1">
         <v>4</v>
       </c>
+      <c r="B771" s="1">
+        <v>35</v>
+      </c>
       <c r="C771" s="7">
         <v>3</v>
       </c>
@@ -64422,6 +64759,9 @@
       <c r="A772" s="1">
         <v>4</v>
       </c>
+      <c r="B772" s="1">
+        <v>35</v>
+      </c>
       <c r="C772" s="7">
         <v>3</v>
       </c>
@@ -64467,6 +64807,9 @@
       <c r="A773" s="1">
         <v>4</v>
       </c>
+      <c r="B773" s="1">
+        <v>35</v>
+      </c>
       <c r="C773" s="7">
         <v>3</v>
       </c>
@@ -64513,6 +64856,9 @@
       <c r="A774" s="1">
         <v>4</v>
       </c>
+      <c r="B774" s="1">
+        <v>35</v>
+      </c>
       <c r="C774" s="7">
         <v>3</v>
       </c>
@@ -64562,6 +64908,9 @@
       <c r="A775" s="1">
         <v>4</v>
       </c>
+      <c r="B775" s="1">
+        <v>35</v>
+      </c>
       <c r="C775" s="7">
         <v>3</v>
       </c>
@@ -64608,6 +64957,9 @@
       <c r="A776" s="1">
         <v>4</v>
       </c>
+      <c r="B776" s="1">
+        <v>35</v>
+      </c>
       <c r="C776" s="7">
         <v>3</v>
       </c>
@@ -64653,6 +65005,9 @@
       <c r="A777" s="1">
         <v>4</v>
       </c>
+      <c r="B777" s="1">
+        <v>35</v>
+      </c>
       <c r="C777" s="7">
         <v>3</v>
       </c>
@@ -64703,6 +65058,9 @@
       <c r="A778" s="1">
         <v>4</v>
       </c>
+      <c r="B778" s="1">
+        <v>35</v>
+      </c>
       <c r="C778" s="7">
         <v>3</v>
       </c>
@@ -64748,6 +65106,9 @@
       <c r="A779" s="1">
         <v>4</v>
       </c>
+      <c r="B779" s="1">
+        <v>35</v>
+      </c>
       <c r="C779" s="1">
         <v>2</v>
       </c>
@@ -64786,6 +65147,9 @@
     <row r="780" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A780" s="1">
         <v>4</v>
+      </c>
+      <c r="B780" s="1">
+        <v>35</v>
       </c>
       <c r="C780" s="7">
         <v>3</v>
@@ -64832,6 +65196,9 @@
       <c r="A781" s="1">
         <v>4</v>
       </c>
+      <c r="B781" s="1">
+        <v>35</v>
+      </c>
       <c r="C781" s="7">
         <v>2</v>
       </c>
@@ -64881,6 +65248,9 @@
       <c r="A782" s="1">
         <v>4</v>
       </c>
+      <c r="B782" s="1">
+        <v>35</v>
+      </c>
       <c r="C782" s="7">
         <v>3</v>
       </c>
@@ -64935,6 +65305,9 @@
       <c r="A783" s="1">
         <v>4</v>
       </c>
+      <c r="B783" s="1">
+        <v>35</v>
+      </c>
       <c r="C783" s="7">
         <v>3</v>
       </c>
@@ -64985,6 +65358,9 @@
       <c r="A784" s="1">
         <v>4</v>
       </c>
+      <c r="B784" s="1">
+        <v>35</v>
+      </c>
       <c r="C784" s="7">
         <v>3</v>
       </c>
@@ -65030,6 +65406,9 @@
       <c r="A785" s="1">
         <v>4</v>
       </c>
+      <c r="B785" s="1">
+        <v>35</v>
+      </c>
       <c r="C785" s="7">
         <v>3</v>
       </c>
@@ -65076,6 +65455,9 @@
       <c r="A786" s="1">
         <v>4</v>
       </c>
+      <c r="B786" s="1">
+        <v>35</v>
+      </c>
       <c r="C786" s="7">
         <v>3</v>
       </c>
@@ -65125,6 +65507,9 @@
       <c r="A787" s="1">
         <v>4</v>
       </c>
+      <c r="B787" s="1">
+        <v>35</v>
+      </c>
       <c r="C787" s="7">
         <v>2</v>
       </c>
@@ -65367,6 +65752,9 @@
       <c r="A792" s="1">
         <v>4</v>
       </c>
+      <c r="B792" s="1">
+        <v>35</v>
+      </c>
       <c r="C792" s="7">
         <v>3</v>
       </c>
@@ -65414,6 +65802,9 @@
       <c r="A793" s="1">
         <v>4</v>
       </c>
+      <c r="B793" s="1">
+        <v>35</v>
+      </c>
       <c r="C793" s="7">
         <v>3</v>
       </c>
@@ -65461,6 +65852,9 @@
       <c r="A794" s="1">
         <v>4</v>
       </c>
+      <c r="B794" s="1">
+        <v>35</v>
+      </c>
       <c r="C794" s="7">
         <v>3</v>
       </c>
@@ -65507,6 +65901,9 @@
       <c r="A795" s="1">
         <v>4</v>
       </c>
+      <c r="B795" s="1">
+        <v>35</v>
+      </c>
       <c r="C795" s="1">
         <v>2</v>
       </c>
@@ -65546,6 +65943,9 @@
       <c r="A796" s="1">
         <v>4</v>
       </c>
+      <c r="B796" s="1">
+        <v>35</v>
+      </c>
       <c r="C796" s="1">
         <v>3</v>
       </c>
@@ -65585,6 +65985,9 @@
       <c r="A797" s="1">
         <v>4</v>
       </c>
+      <c r="B797" s="1">
+        <v>35</v>
+      </c>
       <c r="C797" s="1">
         <v>3</v>
       </c>
@@ -65624,6 +66027,9 @@
       <c r="A798" s="1">
         <v>4</v>
       </c>
+      <c r="B798" s="1">
+        <v>35</v>
+      </c>
       <c r="C798" s="1">
         <v>3</v>
       </c>
@@ -65662,6 +66068,9 @@
     <row r="799" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A799" s="1">
         <v>4</v>
+      </c>
+      <c r="B799" s="1">
+        <v>35</v>
       </c>
       <c r="C799" s="7">
         <v>2</v>
@@ -65712,6 +66121,9 @@
       <c r="A800" s="1">
         <v>4</v>
       </c>
+      <c r="B800" s="1">
+        <v>35</v>
+      </c>
       <c r="C800" s="7">
         <v>3</v>
       </c>
@@ -65766,6 +66178,9 @@
       <c r="A801" s="1">
         <v>4</v>
       </c>
+      <c r="B801" s="1">
+        <v>35</v>
+      </c>
       <c r="C801" s="7">
         <v>3</v>
       </c>
@@ -65816,6 +66231,9 @@
       <c r="A802" s="1">
         <v>4</v>
       </c>
+      <c r="B802" s="1">
+        <v>35</v>
+      </c>
       <c r="C802" s="7">
         <v>3</v>
       </c>
@@ -65862,6 +66280,9 @@
       <c r="A803" s="1">
         <v>4</v>
       </c>
+      <c r="B803" s="1">
+        <v>35</v>
+      </c>
       <c r="C803" s="7">
         <v>3</v>
       </c>
@@ -65908,6 +66329,9 @@
       <c r="A804" s="1">
         <v>4</v>
       </c>
+      <c r="B804" s="1">
+        <v>35</v>
+      </c>
       <c r="C804" s="7">
         <v>3</v>
       </c>
@@ -65953,6 +66377,9 @@
       <c r="A805" s="1">
         <v>4</v>
       </c>
+      <c r="B805" s="1">
+        <v>35</v>
+      </c>
       <c r="C805" s="1">
         <v>2</v>
       </c>
@@ -65992,6 +66419,9 @@
       <c r="A806" s="1">
         <v>4</v>
       </c>
+      <c r="B806" s="1">
+        <v>35</v>
+      </c>
       <c r="C806" s="1">
         <v>3</v>
       </c>
@@ -66030,6 +66460,9 @@
     <row r="807" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A807" s="1">
         <v>4</v>
+      </c>
+      <c r="B807" s="1">
+        <v>35</v>
       </c>
       <c r="C807" s="1">
         <v>2</v>
@@ -66174,6 +66607,9 @@
       <c r="A810" s="1">
         <v>4</v>
       </c>
+      <c r="B810" s="1">
+        <v>35</v>
+      </c>
       <c r="C810" s="7">
         <v>3</v>
       </c>
@@ -66223,6 +66659,9 @@
     <row r="811" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A811" s="1">
         <v>4</v>
+      </c>
+      <c r="B811" s="1">
+        <v>35</v>
       </c>
       <c r="C811" s="7">
         <v>3</v>
@@ -67120,6 +67559,9 @@
       <c r="A832" s="1">
         <v>3</v>
       </c>
+      <c r="B832" s="1">
+        <v>32</v>
+      </c>
       <c r="C832" s="1">
         <v>6</v>
       </c>
@@ -67160,6 +67602,9 @@
     <row r="833" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A833" s="1">
         <v>3</v>
+      </c>
+      <c r="B833" s="1">
+        <v>32</v>
       </c>
       <c r="C833" s="1">
         <v>6</v>

--- a/wine.xlsx
+++ b/wine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0770185a1d4d9fb8/Documents/GitHub/great-books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1966" documentId="8_{B929FCB0-E0C7-431A-BBAD-50753464D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0F3A9FC-3BB1-4FB9-B769-85270A85638B}"/>
+  <xr:revisionPtr revIDLastSave="1967" documentId="8_{B929FCB0-E0C7-431A-BBAD-50753464D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A50E086-7A3E-4DCD-A234-03F045C49F09}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{2D3B9375-8A18-42DE-910F-CEC98F840DE9}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8001" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8045" uniqueCount="1119">
   <si>
     <t>Oregon</t>
   </si>
@@ -3400,6 +3400,42 @@
   </si>
   <si>
     <t>rbx10</t>
+  </si>
+  <si>
+    <t>Tenuta Bellafonte, Montefalco Rosso “Pomontino” Umbria, Italy 2018</t>
+  </si>
+  <si>
+    <t>.8 Sangiovese .2 Sagrantino</t>
+  </si>
+  <si>
+    <t>Kemetner, “Ried Karl” Grüner Veltliner Kamptal, Austria 1992</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Gruner Veltliner</t>
+  </si>
+  <si>
+    <t>Dunn Vineyards, Howell Mountain Petit Sirah Napa Valley, California 1992</t>
+  </si>
+  <si>
+    <t>Dunn Vineyards, Howell Mountain Petit Sirah Napa Valley, California 1993</t>
+  </si>
+  <si>
+    <t>Dunn Vineyards, “Happy Accident” Petit Sirah-Cabernet Howell Mountain, Napa Valley, California 2014</t>
+  </si>
+  <si>
+    <t>Napa/Howell</t>
+  </si>
+  <si>
+    <t>Cab/Syrah</t>
+  </si>
+  <si>
+    <t>now-2031</t>
+  </si>
+  <si>
+    <t>.95 Mourvedre .05 Grenache</t>
   </si>
 </sst>
 </file>
@@ -29412,8 +29448,8 @@
   </sheetPr>
   <dimension ref="A1:T987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
-      <selection activeCell="B551" sqref="B551"/>
+    <sheetView tabSelected="1" topLeftCell="C865" workbookViewId="0">
+      <selection activeCell="C886" sqref="C886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
@@ -58479,7 +58515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="640" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A640" s="1">
         <v>4</v>
       </c>
@@ -66889,7 +66925,7 @@
       </c>
       <c r="T815" s="7"/>
     </row>
-    <row r="816" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A816" s="1">
         <v>4</v>
       </c>
@@ -67222,7 +67258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="824" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A824" s="1">
         <v>4</v>
       </c>
@@ -67311,7 +67347,7 @@
       </c>
       <c r="T825" s="7"/>
     </row>
-    <row r="826" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A826" s="1">
         <v>4</v>
       </c>
@@ -67666,7 +67702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="835" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A835" s="1">
         <v>3</v>
       </c>
@@ -67846,7 +67882,7 @@
       </c>
       <c r="T838" s="7"/>
     </row>
-    <row r="839" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A839" s="1">
         <v>3</v>
       </c>
@@ -68366,7 +68402,7 @@
       </c>
       <c r="T851" s="7"/>
     </row>
-    <row r="852" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A852" s="1">
         <v>1</v>
       </c>
@@ -68401,7 +68437,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="853" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A853" s="1">
         <v>1</v>
       </c>
@@ -69330,22 +69366,214 @@
         <v>17</v>
       </c>
     </row>
-    <row r="881" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="882" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="883" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="884" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="885" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="886" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="887" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="888" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="889" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="890" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="891" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="892" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="893" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="894" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="895" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="896" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="881" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A881" s="1">
+        <v>1</v>
+      </c>
+      <c r="C881" s="1">
+        <v>12</v>
+      </c>
+      <c r="F881" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G881" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H881" s="1">
+        <v>36</v>
+      </c>
+      <c r="K881" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N881" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O881" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q881" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="S881" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="882" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A882" s="1">
+        <v>1</v>
+      </c>
+      <c r="C882" s="1">
+        <v>3</v>
+      </c>
+      <c r="F882" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G882" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H882" s="1">
+        <v>50</v>
+      </c>
+      <c r="K882" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N882" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Q882" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="S882" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="883" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A883" s="1">
+        <v>1</v>
+      </c>
+      <c r="C883" s="1">
+        <v>3</v>
+      </c>
+      <c r="F883" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G883" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H883" s="1">
+        <v>165</v>
+      </c>
+      <c r="K883" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N883" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O883" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P883" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Q883" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S883" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="884" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A884" s="1">
+        <v>1</v>
+      </c>
+      <c r="C884" s="1">
+        <v>3</v>
+      </c>
+      <c r="F884" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G884" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H884" s="1">
+        <v>165</v>
+      </c>
+      <c r="K884" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N884" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O884" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P884" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Q884" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S884" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="885" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A885" s="1">
+        <v>1</v>
+      </c>
+      <c r="C885" s="1">
+        <v>12</v>
+      </c>
+      <c r="F885" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G885" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H885" s="1">
+        <v>79</v>
+      </c>
+      <c r="K885" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N885" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O885" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P885" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Q885" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="S885" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="886" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A886" s="1">
+        <v>1</v>
+      </c>
+      <c r="C886" s="1">
+        <v>6</v>
+      </c>
+      <c r="F886" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G886" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H886" s="1">
+        <v>125</v>
+      </c>
+      <c r="K886" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="N886" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O886" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q886" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="S886" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="887" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="888" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="889" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="890" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="891" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="892" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="893" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="894" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="895" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="896" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="897" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="898" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="899" outlineLevel="1" x14ac:dyDescent="0.45"/>

--- a/wine.xlsx
+++ b/wine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0770185a1d4d9fb8/Documents/GitHub/great-books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1979" documentId="8_{B929FCB0-E0C7-431A-BBAD-50753464D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9257AB6E-485F-494F-BD09-CDB4D933B19A}"/>
+  <xr:revisionPtr revIDLastSave="1980" documentId="8_{B929FCB0-E0C7-431A-BBAD-50753464D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A5E2EB6-593A-4711-BE87-EC9DE0A8FD65}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{2D3B9375-8A18-42DE-910F-CEC98F840DE9}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">storage!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">storage!$C$846:$K$852</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">storage!$C$853:$K$869</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">storage!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8069" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8142" uniqueCount="1118">
   <si>
     <t>Oregon</t>
   </si>
@@ -29450,10 +29450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T985"/>
+  <dimension ref="A1:T995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A852" workbookViewId="0">
+      <selection activeCell="D870" sqref="D870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
@@ -51672,7 +51672,7 @@
       </c>
       <c r="T481" s="7"/>
     </row>
-    <row r="482" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A482" s="1">
         <v>4</v>
       </c>
@@ -51720,7 +51720,7 @@
       </c>
       <c r="T482" s="7"/>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A483" s="1">
         <v>4</v>
       </c>
@@ -55723,7 +55723,7 @@
       </c>
       <c r="T570" s="7"/>
     </row>
-    <row r="571" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A571" s="1">
         <v>4</v>
       </c>
@@ -55764,7 +55764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A572" s="1">
         <v>4</v>
       </c>
@@ -59031,7 +59031,7 @@
       </c>
       <c r="T642" s="7"/>
     </row>
-    <row r="643" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A643" s="1">
         <v>4</v>
       </c>
@@ -59197,7 +59197,7 @@
       </c>
       <c r="T646" s="7"/>
     </row>
-    <row r="647" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A647" s="1">
         <v>4</v>
       </c>
@@ -68888,310 +68888,347 @@
     </row>
     <row r="853" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A853" s="1">
-        <v>1</v>
-      </c>
-      <c r="C853" s="7">
-        <v>12</v>
-      </c>
-      <c r="D853" s="7"/>
-      <c r="E853" s="7"/>
-      <c r="F853" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G853" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="H853" s="7">
-        <v>70</v>
-      </c>
-      <c r="I853" s="17"/>
-      <c r="J853" s="7"/>
-      <c r="L853" s="7"/>
-      <c r="M853" s="7"/>
-      <c r="N853" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O853" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P853" s="7"/>
-      <c r="Q853" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C853" s="1">
+        <v>3</v>
+      </c>
+      <c r="D853" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E853" s="1">
         <v>75</v>
       </c>
-      <c r="R853" s="7"/>
-      <c r="S853" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T853" s="7"/>
+      <c r="F853" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G853" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H853" s="1">
+        <v>125</v>
+      </c>
+      <c r="K853" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N853" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O853" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q853" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="S853" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="854" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A854" s="1">
-        <v>1</v>
-      </c>
-      <c r="C854" s="7">
-        <v>6</v>
-      </c>
-      <c r="D854" s="7"/>
-      <c r="E854" s="7"/>
-      <c r="F854" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G854" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="H854" s="7">
-        <v>109</v>
-      </c>
-      <c r="I854" s="17"/>
-      <c r="J854" s="7"/>
-      <c r="L854" s="7"/>
-      <c r="M854" s="7"/>
-      <c r="N854" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O854" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P854" s="7"/>
-      <c r="Q854" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="R854" s="7"/>
-      <c r="S854" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T854" s="7"/>
-    </row>
-    <row r="855" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="C854" s="1">
+        <v>3</v>
+      </c>
+      <c r="D854" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E854" s="1">
+        <v>75</v>
+      </c>
+      <c r="F854" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G854" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H854" s="1">
+        <v>79</v>
+      </c>
+      <c r="K854" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N854" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O854" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P854" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Q854" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="S854" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="855" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A855" s="1">
-        <v>1</v>
-      </c>
-      <c r="C855" s="7">
-        <v>6</v>
-      </c>
-      <c r="D855" s="7"/>
-      <c r="E855" s="7"/>
-      <c r="F855" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G855" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="H855" s="7">
-        <v>100</v>
-      </c>
-      <c r="I855" s="17"/>
-      <c r="J855" s="7"/>
-      <c r="L855" s="7"/>
-      <c r="M855" s="7"/>
-      <c r="N855" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O855" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P855" s="7"/>
-      <c r="Q855" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="R855" s="7"/>
-      <c r="S855" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T855" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="C855" s="1">
+        <v>3</v>
+      </c>
+      <c r="D855" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E855" s="1">
+        <v>76</v>
+      </c>
+      <c r="F855" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G855" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H855" s="1">
+        <v>165</v>
+      </c>
+      <c r="K855" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N855" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O855" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P855" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Q855" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S855" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="856" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A856" s="1">
-        <v>1</v>
-      </c>
-      <c r="C856" s="7">
-        <v>6</v>
-      </c>
-      <c r="D856" s="7"/>
-      <c r="E856" s="7"/>
-      <c r="F856" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G856" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="H856" s="7">
-        <v>95</v>
-      </c>
-      <c r="I856" s="17"/>
-      <c r="J856" s="7"/>
-      <c r="L856" s="7"/>
-      <c r="M856" s="7"/>
-      <c r="N856" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O856" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P856" s="7"/>
-      <c r="Q856" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="R856" s="7"/>
-      <c r="S856" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T856" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="C856" s="1">
+        <v>3</v>
+      </c>
+      <c r="D856" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E856" s="1">
+        <v>76</v>
+      </c>
+      <c r="F856" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G856" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H856" s="1">
+        <v>79</v>
+      </c>
+      <c r="K856" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N856" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O856" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P856" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Q856" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="S856" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="857" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A857" s="1">
-        <v>1</v>
-      </c>
-      <c r="C857" s="7">
-        <v>6</v>
-      </c>
-      <c r="D857" s="7"/>
-      <c r="E857" s="7"/>
-      <c r="F857" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G857" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="H857" s="7">
-        <v>130</v>
-      </c>
-      <c r="I857" s="17"/>
-      <c r="J857" s="7"/>
-      <c r="L857" s="7"/>
-      <c r="M857" s="7"/>
-      <c r="N857" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C857" s="1">
+        <v>3</v>
+      </c>
+      <c r="D857" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E857" s="1">
+        <v>67</v>
+      </c>
+      <c r="F857" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G857" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H857" s="1">
+        <v>125</v>
+      </c>
+      <c r="K857" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N857" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O857" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P857" s="7"/>
-      <c r="Q857" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="R857" s="7"/>
-      <c r="S857" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T857" s="7"/>
+      <c r="O857" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q857" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="S857" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="858" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A858" s="1">
-        <v>1</v>
-      </c>
-      <c r="C858" s="7">
-        <v>6</v>
-      </c>
-      <c r="F858" s="7" t="s">
-        <v>603</v>
+        <v>2</v>
+      </c>
+      <c r="C858" s="1">
+        <v>3</v>
+      </c>
+      <c r="D858" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E858" s="1">
+        <v>67</v>
+      </c>
+      <c r="F858" s="1" t="s">
+        <v>785</v>
       </c>
       <c r="G858" s="1" t="s">
-        <v>597</v>
+        <v>1114</v>
       </c>
       <c r="H858" s="1">
-        <v>80</v>
-      </c>
-      <c r="I858" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="K858" s="1" t="s">
+        <v>1117</v>
+      </c>
       <c r="N858" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O858" s="1" t="s">
-        <v>239</v>
+        <v>39</v>
+      </c>
+      <c r="P858" s="1" t="s">
+        <v>1115</v>
       </c>
       <c r="Q858" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="S858" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T858" s="7"/>
+        <v>1116</v>
+      </c>
+      <c r="S858" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="859" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A859" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C859" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D859" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E859" s="1">
+        <v>68</v>
       </c>
       <c r="F859" s="1" t="s">
-        <v>720</v>
+        <v>785</v>
       </c>
       <c r="G859" s="1" t="s">
-        <v>722</v>
+        <v>1113</v>
       </c>
       <c r="H859" s="1">
-        <v>53</v>
+        <v>165</v>
+      </c>
+      <c r="K859" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="N859" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O859" s="1" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="P859" s="1" t="s">
-        <v>630</v>
+        <v>1115</v>
       </c>
       <c r="Q859" s="1" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="S859" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="T859" s="1" t="s">
-        <v>725</v>
+        <v>17</v>
       </c>
     </row>
     <row r="860" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A860" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C860" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D860" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E860" s="1">
+        <v>68</v>
       </c>
       <c r="F860" s="1" t="s">
-        <v>720</v>
+        <v>785</v>
       </c>
       <c r="G860" s="1" t="s">
-        <v>723</v>
+        <v>1114</v>
       </c>
       <c r="H860" s="1">
-        <v>53</v>
+        <v>79</v>
+      </c>
+      <c r="K860" s="1" t="s">
+        <v>1117</v>
       </c>
       <c r="N860" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O860" s="1" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="P860" s="1" t="s">
-        <v>630</v>
+        <v>1115</v>
       </c>
       <c r="Q860" s="1" t="s">
-        <v>167</v>
+        <v>1116</v>
       </c>
       <c r="S860" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="T860" s="1" t="s">
-        <v>725</v>
+        <v>17</v>
       </c>
     </row>
     <row r="861" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A861" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C861" s="1">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D861" s="1">
+        <v>2026</v>
+      </c>
+      <c r="E861" s="1">
+        <v>68</v>
       </c>
       <c r="F861" s="1" t="s">
-        <v>720</v>
+        <v>475</v>
       </c>
       <c r="G861" s="1" t="s">
-        <v>724</v>
+        <v>993</v>
       </c>
       <c r="H861" s="1">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="N861" s="1" t="s">
         <v>115</v>
@@ -69200,48 +69237,48 @@
         <v>171</v>
       </c>
       <c r="P861" s="1" t="s">
-        <v>630</v>
+        <v>997</v>
       </c>
       <c r="Q861" s="1" t="s">
-        <v>167</v>
+        <v>996</v>
       </c>
       <c r="S861" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="T861" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="862" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="862" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A862" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C862" s="1">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D862" s="1">
+        <v>2026</v>
+      </c>
+      <c r="E862" s="1">
+        <v>68</v>
       </c>
       <c r="F862" s="1" t="s">
-        <v>720</v>
+        <v>475</v>
       </c>
       <c r="G862" s="1" t="s">
-        <v>945</v>
+        <v>993</v>
       </c>
       <c r="H862" s="1">
-        <v>140</v>
-      </c>
-      <c r="K862" s="1" t="s">
-        <v>946</v>
+        <v>100</v>
       </c>
       <c r="N862" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O862" s="1" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="P862" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q862" s="47" t="s">
-        <v>947</v>
+        <v>997</v>
+      </c>
+      <c r="Q862" s="1" t="s">
+        <v>996</v>
       </c>
       <c r="S862" s="1" t="s">
         <v>17</v>
@@ -69249,124 +69286,139 @@
     </row>
     <row r="863" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A863" s="1">
-        <v>1</v>
-      </c>
-      <c r="C863" s="7">
-        <v>12</v>
-      </c>
-      <c r="D863" s="7"/>
-      <c r="E863" s="7"/>
-      <c r="F863" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="G863" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="H863" s="7">
-        <v>30</v>
-      </c>
-      <c r="I863" s="7"/>
-      <c r="J863" s="7"/>
-      <c r="K863" s="7"/>
-      <c r="L863" s="7"/>
-      <c r="M863" s="7"/>
-      <c r="N863" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O863" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P863" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="Q863" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="R863" s="7"/>
-      <c r="S863" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T863" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="C863" s="1">
+        <v>2</v>
+      </c>
+      <c r="D863" s="1">
+        <v>2026</v>
+      </c>
+      <c r="E863" s="1">
+        <v>68</v>
+      </c>
+      <c r="F863" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G863" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="H863" s="1">
+        <v>100</v>
+      </c>
+      <c r="N863" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O863" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P863" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="Q863" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="S863" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="864" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A864" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C864" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D864" s="1">
+        <v>2027</v>
+      </c>
+      <c r="E864" s="1">
+        <v>56</v>
       </c>
       <c r="F864" s="1" t="s">
-        <v>720</v>
+        <v>475</v>
       </c>
       <c r="G864" s="1" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="H864" s="1">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="N864" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O864" s="1" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="P864" s="1" t="s">
-        <v>771</v>
+        <v>997</v>
       </c>
       <c r="Q864" s="1" t="s">
-        <v>339</v>
+        <v>996</v>
       </c>
       <c r="S864" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="865" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A865" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C865" s="1">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D865" s="1">
+        <v>2027</v>
+      </c>
+      <c r="E865" s="1">
+        <v>56</v>
       </c>
       <c r="F865" s="1" t="s">
-        <v>720</v>
+        <v>475</v>
       </c>
       <c r="G865" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="H865" s="1">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N865" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O865" s="1" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="P865" s="1" t="s">
-        <v>771</v>
+        <v>997</v>
       </c>
       <c r="Q865" s="1" t="s">
-        <v>339</v>
+        <v>996</v>
       </c>
       <c r="S865" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="866" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A866" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C866" s="1">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D866" s="1">
+        <v>2027</v>
+      </c>
+      <c r="E866" s="1">
+        <v>56</v>
       </c>
       <c r="F866" s="1" t="s">
         <v>475</v>
       </c>
       <c r="G866" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H866" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N866" s="1" t="s">
         <v>115</v>
@@ -69384,21 +69436,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="867" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A867" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C867" s="1">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D867" s="1">
+        <v>2028</v>
+      </c>
+      <c r="E867" s="1">
+        <v>45</v>
       </c>
       <c r="F867" s="1" t="s">
         <v>475</v>
       </c>
       <c r="G867" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H867" s="1">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N867" s="1" t="s">
         <v>115</v>
@@ -69407,7 +69465,7 @@
         <v>171</v>
       </c>
       <c r="P867" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="Q867" s="1" t="s">
         <v>996</v>
@@ -69416,12 +69474,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="868" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A868" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C868" s="1">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D868" s="1">
+        <v>2028</v>
+      </c>
+      <c r="E868" s="1">
+        <v>45</v>
       </c>
       <c r="F868" s="1" t="s">
         <v>475</v>
@@ -69448,225 +69512,266 @@
         <v>17</v>
       </c>
     </row>
-    <row r="869" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A869" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C869" s="1">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="D869" s="1">
+        <v>2028</v>
+      </c>
+      <c r="E869" s="1">
+        <v>45</v>
       </c>
       <c r="F869" s="1" t="s">
-        <v>781</v>
+        <v>475</v>
       </c>
       <c r="G869" s="1" t="s">
-        <v>1037</v>
+        <v>995</v>
       </c>
       <c r="H869" s="1">
-        <v>300</v>
-      </c>
-      <c r="K869" s="1" t="s">
-        <v>1038</v>
+        <v>42</v>
       </c>
       <c r="N869" s="1" t="s">
         <v>115</v>
       </c>
       <c r="O869" s="1" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="P869" s="1" t="s">
-        <v>874</v>
+        <v>998</v>
       </c>
       <c r="Q869" s="1" t="s">
-        <v>1039</v>
+        <v>996</v>
       </c>
       <c r="S869" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="870" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A870" s="1">
         <v>1</v>
       </c>
-      <c r="C870" s="1">
+      <c r="C870" s="7">
         <v>12</v>
       </c>
-      <c r="F870" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="G870" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H870" s="1">
-        <v>28</v>
-      </c>
-      <c r="K870" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="N870" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O870" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P870" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q870" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="S870" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="871" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D870" s="7"/>
+      <c r="E870" s="7"/>
+      <c r="F870" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G870" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="H870" s="7">
+        <v>70</v>
+      </c>
+      <c r="I870" s="17"/>
+      <c r="J870" s="7"/>
+      <c r="L870" s="7"/>
+      <c r="M870" s="7"/>
+      <c r="N870" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O870" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P870" s="7"/>
+      <c r="Q870" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R870" s="7"/>
+      <c r="S870" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T870" s="7"/>
+    </row>
+    <row r="871" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A871" s="1">
         <v>1</v>
       </c>
-      <c r="C871" s="1">
-        <v>12</v>
-      </c>
-      <c r="F871" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G871" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H871" s="1">
-        <v>85</v>
-      </c>
-      <c r="N871" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q871" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="S871" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="872" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C871" s="7">
+        <v>6</v>
+      </c>
+      <c r="D871" s="7"/>
+      <c r="E871" s="7"/>
+      <c r="F871" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G871" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="H871" s="7">
+        <v>109</v>
+      </c>
+      <c r="I871" s="17"/>
+      <c r="J871" s="7"/>
+      <c r="L871" s="7"/>
+      <c r="M871" s="7"/>
+      <c r="N871" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O871" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P871" s="7"/>
+      <c r="Q871" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="R871" s="7"/>
+      <c r="S871" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T871" s="7"/>
+    </row>
+    <row r="872" spans="1:20" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A872" s="1">
         <v>1</v>
       </c>
-      <c r="C872" s="1">
+      <c r="C872" s="7">
         <v>6</v>
       </c>
-      <c r="F872" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G872" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H872" s="1">
-        <v>110</v>
-      </c>
-      <c r="N872" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O872" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q872" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="S872" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="873" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D872" s="7"/>
+      <c r="E872" s="7"/>
+      <c r="F872" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G872" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="H872" s="7">
+        <v>100</v>
+      </c>
+      <c r="I872" s="17"/>
+      <c r="J872" s="7"/>
+      <c r="L872" s="7"/>
+      <c r="M872" s="7"/>
+      <c r="N872" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O872" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P872" s="7"/>
+      <c r="Q872" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="R872" s="7"/>
+      <c r="S872" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T872" s="7"/>
+    </row>
+    <row r="873" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A873" s="1">
         <v>1</v>
       </c>
-      <c r="C873" s="1">
+      <c r="C873" s="7">
         <v>6</v>
       </c>
-      <c r="F873" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G873" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H873" s="1">
-        <v>85</v>
-      </c>
-      <c r="N873" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O873" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q873" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="S873" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="874" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D873" s="7"/>
+      <c r="E873" s="7"/>
+      <c r="F873" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G873" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="H873" s="7">
+        <v>95</v>
+      </c>
+      <c r="I873" s="17"/>
+      <c r="J873" s="7"/>
+      <c r="L873" s="7"/>
+      <c r="M873" s="7"/>
+      <c r="N873" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O873" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P873" s="7"/>
+      <c r="Q873" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="R873" s="7"/>
+      <c r="S873" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T873" s="7"/>
+    </row>
+    <row r="874" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A874" s="1">
         <v>1</v>
       </c>
-      <c r="C874" s="1">
-        <v>4</v>
-      </c>
-      <c r="F874" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G874" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H874" s="1">
-        <v>60</v>
-      </c>
-      <c r="N874" s="1" t="s">
+      <c r="C874" s="7">
+        <v>6</v>
+      </c>
+      <c r="D874" s="7"/>
+      <c r="E874" s="7"/>
+      <c r="F874" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G874" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H874" s="7">
+        <v>130</v>
+      </c>
+      <c r="I874" s="17"/>
+      <c r="J874" s="7"/>
+      <c r="L874" s="7"/>
+      <c r="M874" s="7"/>
+      <c r="N874" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="O874" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P874" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="Q874" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S874" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="875" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="O874" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P874" s="7"/>
+      <c r="Q874" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="R874" s="7"/>
+      <c r="S874" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T874" s="7"/>
+    </row>
+    <row r="875" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A875" s="1">
         <v>1</v>
       </c>
-      <c r="C875" s="1">
-        <v>4</v>
-      </c>
-      <c r="F875" s="1" t="s">
-        <v>720</v>
+      <c r="C875" s="7">
+        <v>6</v>
+      </c>
+      <c r="F875" s="7" t="s">
+        <v>603</v>
       </c>
       <c r="G875" s="1" t="s">
-        <v>1077</v>
+        <v>597</v>
       </c>
       <c r="H875" s="1">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I875" s="17"/>
       <c r="N875" s="1" t="s">
         <v>115</v>
       </c>
       <c r="O875" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P875" s="1" t="s">
-        <v>689</v>
+        <v>239</v>
       </c>
       <c r="Q875" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S875" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="876" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>602</v>
+      </c>
+      <c r="S875" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T875" s="7"/>
+    </row>
+    <row r="876" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A876" s="1">
         <v>1</v>
       </c>
@@ -69677,10 +69782,10 @@
         <v>720</v>
       </c>
       <c r="G876" s="1" t="s">
-        <v>1078</v>
+        <v>722</v>
       </c>
       <c r="H876" s="1">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="N876" s="1" t="s">
         <v>115</v>
@@ -69689,94 +69794,106 @@
         <v>171</v>
       </c>
       <c r="P876" s="1" t="s">
-        <v>690</v>
+        <v>630</v>
       </c>
       <c r="Q876" s="1" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="S876" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="877" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+      <c r="T876" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="877" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A877" s="1">
         <v>1</v>
       </c>
       <c r="C877" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F877" s="1" t="s">
         <v>720</v>
       </c>
       <c r="G877" s="1" t="s">
-        <v>1081</v>
+        <v>723</v>
       </c>
       <c r="H877" s="1">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N877" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O877" s="1" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="P877" s="1" t="s">
-        <v>754</v>
+        <v>630</v>
       </c>
       <c r="Q877" s="1" t="s">
-        <v>335</v>
+        <v>167</v>
       </c>
       <c r="S877" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="878" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+      <c r="T877" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="878" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A878" s="1">
         <v>1</v>
       </c>
       <c r="C878" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F878" s="1" t="s">
         <v>720</v>
       </c>
       <c r="G878" s="1" t="s">
-        <v>1082</v>
+        <v>724</v>
       </c>
       <c r="H878" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N878" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O878" s="1" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="P878" s="1" t="s">
-        <v>754</v>
+        <v>630</v>
       </c>
       <c r="Q878" s="1" t="s">
-        <v>335</v>
+        <v>167</v>
       </c>
       <c r="S878" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="879" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+      <c r="T878" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="879" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A879" s="1">
         <v>1</v>
       </c>
       <c r="C879" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F879" s="1" t="s">
         <v>720</v>
       </c>
       <c r="G879" s="1" t="s">
-        <v>1083</v>
+        <v>945</v>
       </c>
       <c r="H879" s="1">
-        <v>50</v>
+        <v>140</v>
+      </c>
+      <c r="K879" s="1" t="s">
+        <v>946</v>
       </c>
       <c r="N879" s="1" t="s">
         <v>14</v>
@@ -69785,74 +69902,80 @@
         <v>39</v>
       </c>
       <c r="P879" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q879" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
+      </c>
+      <c r="Q879" s="47" t="s">
+        <v>947</v>
       </c>
       <c r="S879" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="880" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A880" s="1">
         <v>1</v>
       </c>
-      <c r="C880" s="1">
-        <v>3</v>
-      </c>
-      <c r="F880" s="1" t="s">
+      <c r="C880" s="7">
+        <v>12</v>
+      </c>
+      <c r="D880" s="7"/>
+      <c r="E880" s="7"/>
+      <c r="F880" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="G880" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H880" s="1">
-        <v>55</v>
-      </c>
-      <c r="N880" s="1" t="s">
+      <c r="G880" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="H880" s="7">
+        <v>30</v>
+      </c>
+      <c r="I880" s="7"/>
+      <c r="J880" s="7"/>
+      <c r="K880" s="7"/>
+      <c r="L880" s="7"/>
+      <c r="M880" s="7"/>
+      <c r="N880" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O880" s="1" t="s">
+      <c r="O880" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P880" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q880" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="S880" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="P880" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q880" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="R880" s="7"/>
+      <c r="S880" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T880" s="7"/>
     </row>
     <row r="881" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A881" s="1">
         <v>1</v>
       </c>
       <c r="C881" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F881" s="1" t="s">
-        <v>475</v>
+        <v>720</v>
       </c>
       <c r="G881" s="1" t="s">
-        <v>1090</v>
+        <v>991</v>
       </c>
       <c r="H881" s="1">
-        <v>500</v>
-      </c>
-      <c r="M881" s="1" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="N881" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O881" s="1" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="P881" s="1" t="s">
-        <v>1091</v>
+        <v>771</v>
       </c>
       <c r="Q881" s="1" t="s">
         <v>339</v>
@@ -69866,34 +69989,28 @@
         <v>1</v>
       </c>
       <c r="C882" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F882" s="1" t="s">
-        <v>781</v>
+        <v>720</v>
       </c>
       <c r="G882" s="1" t="s">
-        <v>1092</v>
+        <v>992</v>
       </c>
       <c r="H882" s="1">
-        <v>130</v>
-      </c>
-      <c r="K882" s="1" t="s">
-        <v>1095</v>
+        <v>160</v>
       </c>
       <c r="N882" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O882" s="1" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="P882" s="1" t="s">
-        <v>1094</v>
+        <v>771</v>
       </c>
       <c r="Q882" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="R882" s="1" t="s">
-        <v>1099</v>
+        <v>339</v>
       </c>
       <c r="S882" s="1" t="s">
         <v>17</v>
@@ -69907,28 +70024,28 @@
         <v>12</v>
       </c>
       <c r="F883" s="1" t="s">
-        <v>720</v>
+        <v>781</v>
       </c>
       <c r="G883" s="1" t="s">
-        <v>1096</v>
+        <v>1037</v>
       </c>
       <c r="H883" s="1">
-        <v>175</v>
+        <v>300</v>
+      </c>
+      <c r="K883" s="1" t="s">
+        <v>1038</v>
       </c>
       <c r="N883" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O883" s="1" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="P883" s="1" t="s">
-        <v>1097</v>
+        <v>874</v>
       </c>
       <c r="Q883" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="R883" s="1" t="s">
-        <v>1098</v>
+        <v>1039</v>
       </c>
       <c r="S883" s="1" t="s">
         <v>17</v>
@@ -69939,28 +70056,31 @@
         <v>1</v>
       </c>
       <c r="C884" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F884" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G884" s="1" t="s">
-        <v>1100</v>
+        <v>258</v>
       </c>
       <c r="H884" s="1">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="K884" s="1" t="s">
-        <v>1045</v>
+        <v>449</v>
       </c>
       <c r="N884" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O884" s="1" t="s">
-        <v>761</v>
+        <v>39</v>
+      </c>
+      <c r="P884" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="Q884" s="1" t="s">
-        <v>1101</v>
+        <v>1053</v>
       </c>
       <c r="S884" s="1" t="s">
         <v>17</v>
@@ -69971,28 +70091,19 @@
         <v>1</v>
       </c>
       <c r="C885" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F885" s="1" t="s">
-        <v>785</v>
+        <v>720</v>
       </c>
       <c r="G885" s="1" t="s">
-        <v>1112</v>
+        <v>1074</v>
       </c>
       <c r="H885" s="1">
-        <v>165</v>
-      </c>
-      <c r="K885" s="1" t="s">
-        <v>325</v>
+        <v>85</v>
       </c>
       <c r="N885" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O885" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P885" s="1" t="s">
-        <v>1115</v>
+        <v>408</v>
       </c>
       <c r="Q885" s="1" t="s">
         <v>342</v>
@@ -70006,28 +70117,22 @@
         <v>1</v>
       </c>
       <c r="C886" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F886" s="1" t="s">
-        <v>785</v>
+        <v>720</v>
       </c>
       <c r="G886" s="1" t="s">
-        <v>1113</v>
+        <v>1075</v>
       </c>
       <c r="H886" s="1">
-        <v>165</v>
-      </c>
-      <c r="K886" s="1" t="s">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="N886" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O886" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="P886" s="1" t="s">
-        <v>1115</v>
       </c>
       <c r="Q886" s="1" t="s">
         <v>342</v>
@@ -70041,19 +70146,16 @@
         <v>1</v>
       </c>
       <c r="C887" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F887" s="1" t="s">
-        <v>785</v>
+        <v>720</v>
       </c>
       <c r="G887" s="1" t="s">
-        <v>1114</v>
+        <v>1076</v>
       </c>
       <c r="H887" s="1">
-        <v>79</v>
-      </c>
-      <c r="K887" s="1" t="s">
-        <v>1117</v>
+        <v>85</v>
       </c>
       <c r="N887" s="1" t="s">
         <v>14</v>
@@ -70061,41 +70163,360 @@
       <c r="O887" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P887" s="1" t="s">
-        <v>1115</v>
-      </c>
       <c r="Q887" s="1" t="s">
-        <v>1116</v>
+        <v>342</v>
       </c>
       <c r="S887" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="888" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="889" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="890" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="891" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="892" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="893" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="894" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="895" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="896" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="897" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="898" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="899" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="900" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="901" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="902" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="903" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="904" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="905" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="906" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="907" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="908" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="909" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="910" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="911" outlineLevel="1" x14ac:dyDescent="0.45"/>
-    <row r="912" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="888" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A888" s="1">
+        <v>1</v>
+      </c>
+      <c r="C888" s="1">
+        <v>4</v>
+      </c>
+      <c r="F888" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G888" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H888" s="1">
+        <v>60</v>
+      </c>
+      <c r="N888" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O888" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P888" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="Q888" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S888" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="889" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A889" s="1">
+        <v>1</v>
+      </c>
+      <c r="C889" s="1">
+        <v>4</v>
+      </c>
+      <c r="F889" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G889" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H889" s="1">
+        <v>90</v>
+      </c>
+      <c r="N889" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O889" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P889" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q889" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S889" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="890" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A890" s="1">
+        <v>1</v>
+      </c>
+      <c r="C890" s="1">
+        <v>4</v>
+      </c>
+      <c r="F890" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G890" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H890" s="1">
+        <v>95</v>
+      </c>
+      <c r="N890" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O890" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P890" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q890" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S890" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="891" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A891" s="1">
+        <v>1</v>
+      </c>
+      <c r="C891" s="1">
+        <v>3</v>
+      </c>
+      <c r="F891" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G891" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H891" s="1">
+        <v>37</v>
+      </c>
+      <c r="N891" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O891" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P891" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q891" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S891" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="892" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A892" s="1">
+        <v>1</v>
+      </c>
+      <c r="C892" s="1">
+        <v>3</v>
+      </c>
+      <c r="F892" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G892" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H892" s="1">
+        <v>50</v>
+      </c>
+      <c r="N892" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O892" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P892" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q892" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S892" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="893" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A893" s="1">
+        <v>1</v>
+      </c>
+      <c r="C893" s="1">
+        <v>3</v>
+      </c>
+      <c r="F893" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G893" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H893" s="1">
+        <v>50</v>
+      </c>
+      <c r="N893" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O893" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P893" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q893" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S893" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="894" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A894" s="1">
+        <v>1</v>
+      </c>
+      <c r="C894" s="1">
+        <v>3</v>
+      </c>
+      <c r="F894" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G894" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H894" s="1">
+        <v>55</v>
+      </c>
+      <c r="N894" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O894" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P894" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q894" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S894" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="895" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A895" s="1">
+        <v>1</v>
+      </c>
+      <c r="C895" s="1">
+        <v>4</v>
+      </c>
+      <c r="F895" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G895" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H895" s="1">
+        <v>500</v>
+      </c>
+      <c r="M895" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N895" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O895" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P895" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Q895" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="S895" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="896" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A896" s="1">
+        <v>1</v>
+      </c>
+      <c r="C896" s="1">
+        <v>12</v>
+      </c>
+      <c r="F896" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="G896" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H896" s="1">
+        <v>130</v>
+      </c>
+      <c r="K896" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="N896" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O896" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P896" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Q896" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="R896" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="S896" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="897" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A897" s="1">
+        <v>1</v>
+      </c>
+      <c r="C897" s="1">
+        <v>12</v>
+      </c>
+      <c r="F897" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G897" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H897" s="1">
+        <v>175</v>
+      </c>
+      <c r="N897" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O897" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P897" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="Q897" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="R897" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="S897" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="898" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="899" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="900" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="901" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="902" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="903" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="904" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="905" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="906" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="907" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="908" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="909" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="910" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="911" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="912" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="913" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="914" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="915" outlineLevel="1" x14ac:dyDescent="0.45"/>
@@ -70169,14 +70590,35 @@
     <row r="983" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="984" outlineLevel="1" x14ac:dyDescent="0.45"/>
     <row r="985" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="986" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="987" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="988" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="989" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="990" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="991" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="992" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="993" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="994" outlineLevel="1" x14ac:dyDescent="0.45"/>
+    <row r="995" outlineLevel="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T985">
-    <sortCondition descending="1" ref="A2:A985"/>
-    <sortCondition ref="D2:D985"/>
-    <sortCondition ref="E2:E985"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T999">
+    <sortCondition descending="1" ref="A2:A999"/>
+    <sortCondition ref="D2:D999"/>
+    <sortCondition ref="E2:E999"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="6" manualBreakCount="6">
+    <brk id="854" max="16383" man="1"/>
+    <brk id="856" max="16383" man="1"/>
+    <brk id="858" max="16383" man="1"/>
+    <brk id="860" max="16383" man="1"/>
+    <brk id="863" max="16383" man="1"/>
+    <brk id="866" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="3" max="1048575" man="1"/>
+  </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
